--- a/로스트아크/데이터테이블/Tripod_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Tripod_Info_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89372C24-8DF5-45DD-9AC5-D8D967D68038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83897256-98BC-4F4E-9588-A51575364452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
   <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,13 +110,6 @@
   </si>
   <si>
     <t>tier</t>
-  </si>
-  <si>
-    <t>tier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트라이포드 티어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -131,17 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>option_index</t>
-  </si>
-  <si>
-    <t>option_index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옵션 인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icon</t>
   </si>
   <si>
@@ -258,38 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>청룡진/1T/부위파괴 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡진/1T/뇌진탕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡진/1T/약점공략</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡진/2T/집중공략</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡진/2T/대지파괴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡진/3T/빠른준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡진/3T/최후의 판단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡진/2T/내려치는 창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LM_18_T1_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,8 +276,227 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>듀얼 게이지를 1칸 소모하지만, 적에게 주는 피해가 190.4% 증가합니다. 
-보유한 듀얼 게이지가 1칸 미만이면 적용 되지 않습니다.</t>
+    <t>LM_25_T1_0</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_25</t>
+  </si>
+  <si>
+    <t>LM_25_T1_1</t>
+  </si>
+  <si>
+    <t>LM_25_T1_2</t>
+  </si>
+  <si>
+    <t>LM_25_T2_0</t>
+  </si>
+  <si>
+    <t>LM_25_T2_1</t>
+  </si>
+  <si>
+    <t>LM_25_T2_2</t>
+  </si>
+  <si>
+    <t>LM_25_T3_0</t>
+  </si>
+  <si>
+    <t>LM_25_T3_1</t>
+  </si>
+  <si>
+    <t>반응 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화력 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단단한 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호한 의지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진화하는 창술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파괴하는 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약점 포착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명적인 조준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_1_6.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_1_37.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_1_25.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_2_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_2_42.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_2_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_3_33.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripod_tier_3_39.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">홀딩 또는 차지속도가 30.0% 빨라집니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격이 적중할 때 마다 회복하는 듀얼 게이지가 45.0% 증가합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬 시전 중 받는 피해가 40.8% 감소합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">적에게 주는 피해가 40.0% 증가하고 퍼펙트 존의 공격은 적에게 주는 피해가 70.0% 증가합니다.    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼펙트 존이 사라지고 차지 조작으로 변경되며 차지 중 360도 방향 전환이 가능합니다.
+공격 시 적에게 주는 피해가 58.6% 증가하고, 오버차지 공격 시 적에게 주는 피해가 퍼펙트 존 효과보다 83.0% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">창을 찌르는 공격의 폭이 50.0% 좁아지지만 치명타 적중률이 100.0% 증가하며 치명타 피해가 60.0% 증가합니다.   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네임드 등급 이상의 몬스터에게 주는 피해가 96.0% 증가합니다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">치명타 피해량이 160.0% 증가합니다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듀얼 게이지를 1칸 소모하지만, 적에게 주는 피해가 190.4% 증가합니다. 보유한 듀얼 게이지가 1칸 미만이면 적용 되지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/T1_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/T1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/T1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/T2_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/T2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/T2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/T3_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진/T3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포/T1_0</t>
+  </si>
+  <si>
+    <t>적룡포/T1_1</t>
+  </si>
+  <si>
+    <t>적룡포/T1_2</t>
+  </si>
+  <si>
+    <t>적룡포/T2_0</t>
+  </si>
+  <si>
+    <t>적룡포/T2_1</t>
+  </si>
+  <si>
+    <t>적룡포/T2_2</t>
+  </si>
+  <si>
+    <t>적룡포/T3_0</t>
+  </si>
+  <si>
+    <t>적룡포/T3_1</t>
+  </si>
+  <si>
+    <t>tier_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">트라이포드의 티어 별 인덱스 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0~2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">트라이포드 티어 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1~3)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,7 +928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,15 +1040,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -900,6 +1060,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,7 +1398,7 @@
   <dimension ref="B1:H81"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1244,11 +1416,11 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="5" t="s">
@@ -1299,19 +1471,19 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="42">
+      <c r="B6" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="39">
         <v>2</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="42" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="8"/>
@@ -1321,13 +1493,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -1336,13 +1508,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="G8" s="8"/>
     </row>
@@ -1351,13 +1523,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="G9" s="8"/>
     </row>
@@ -1366,13 +1538,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -1381,13 +1553,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -1615,22 +1787,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" style="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.796875" style="38" customWidth="1"/>
     <col min="2" max="2" width="14.19921875" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.796875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="79.69921875" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="104.3984375" style="37" customWidth="1"/>
     <col min="9" max="11" width="15.69921875" style="32" customWidth="1"/>
     <col min="12" max="13" width="15.69921875" style="31" customWidth="1"/>
     <col min="14" max="14" width="18.69921875" style="31" customWidth="1"/>
@@ -1650,19 +1822,19 @@
         <v>15</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>25</v>
       </c>
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
@@ -1697,17 +1869,17 @@
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="41" t="s">
-        <v>57</v>
+      <c r="A3" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1716,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>56</v>
+        <v>38</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
@@ -1737,17 +1909,17 @@
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A4" s="41" t="s">
-        <v>58</v>
+      <c r="A4" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1756,10 +1928,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>50</v>
       </c>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
@@ -1777,17 +1949,17 @@
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A5" s="41" t="s">
-        <v>59</v>
+      <c r="A5" s="38" t="s">
+        <v>97</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1796,10 +1968,10 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
@@ -1817,17 +1989,17 @@
       <c r="V5" s="2"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A6" s="41" t="s">
-        <v>60</v>
+      <c r="A6" s="38" t="s">
+        <v>98</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -1836,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>45</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
@@ -1857,17 +2029,17 @@
       <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A7" s="41" t="s">
-        <v>61</v>
+      <c r="A7" s="38" t="s">
+        <v>99</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1876,10 +2048,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>46</v>
       </c>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
@@ -1897,17 +2069,17 @@
       <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="41" t="s">
-        <v>64</v>
+      <c r="A8" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -1916,10 +2088,10 @@
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
@@ -1937,17 +2109,17 @@
       <c r="V8" s="2"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A9" s="41" t="s">
-        <v>62</v>
+      <c r="A9" s="38" t="s">
+        <v>101</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
@@ -1956,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
@@ -1976,18 +2148,18 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A10" s="41" t="s">
-        <v>63</v>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" s="38" t="s">
+        <v>102</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E10" s="30">
         <v>3</v>
@@ -1996,21 +2168,21 @@
         <v>1</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>74</v>
+        <v>34</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="41"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="24"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
@@ -2027,14 +2199,30 @@
       <c r="V11" s="2"/>
     </row>
     <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="41"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="24"/>
+      <c r="A12" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -2051,14 +2239,30 @@
       <c r="V12" s="2"/>
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="41"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="24"/>
+      <c r="A13" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>87</v>
+      </c>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -2075,14 +2279,30 @@
       <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="41"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="24"/>
+      <c r="A14" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>88</v>
+      </c>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
@@ -2099,7 +2319,30 @@
       <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="G15" s="2"/>
+      <c r="A15" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>89</v>
+      </c>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
@@ -2115,15 +2358,31 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="41"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="24"/>
+    <row r="16" spans="1:22" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A16" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>90</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
@@ -2139,6 +2398,84 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="30">
+        <v>3</v>
+      </c>
+      <c r="F19" s="30">
+        <v>1</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/로스트아크/데이터테이블/Tripod_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Tripod_Info_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83897256-98BC-4F4E-9588-A51575364452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BA9D32-C5A6-4B7E-808C-FD88F62A7151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -508,7 +508,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,6 +603,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -648,7 +665,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -872,63 +889,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,9 +908,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1010,39 +974,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1061,6 +992,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1069,9 +1027,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1395,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:H81"/>
+  <dimension ref="B1:H79"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="A3:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1408,7 +1363,7 @@
     <col min="3" max="3" width="5.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.09765625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="63.09765625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="63.09765625" style="23" customWidth="1"/>
     <col min="7" max="7" width="8.69921875" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.796875" style="2"/>
     <col min="9" max="16384" width="8.796875" style="3"/>
@@ -1416,196 +1371,188 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="27">
         <v>2</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>3</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>4</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>6</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>7</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="F19" s="25"/>
+      <c r="C19" s="2"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C20" s="2"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C21" s="2"/>
-      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C22" s="2"/>
-      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C23" s="2"/>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C25" s="2"/>
-      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C26" s="2"/>
@@ -1768,12 +1715,6 @@
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C81" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1789,690 +1730,645 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.796875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="14.19921875" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.8984375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="4.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.796875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="104.3984375" style="37" customWidth="1"/>
-    <col min="9" max="11" width="15.69921875" style="32" customWidth="1"/>
-    <col min="12" max="13" width="15.69921875" style="31" customWidth="1"/>
-    <col min="14" max="14" width="18.69921875" style="31" customWidth="1"/>
-    <col min="15" max="18" width="15.69921875" style="32" customWidth="1"/>
-    <col min="19" max="22" width="18.69921875" style="31" customWidth="1"/>
-    <col min="23" max="16384" width="8.796875" style="3"/>
+    <col min="1" max="1" width="13.796875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="36" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" style="37" customWidth="1"/>
+    <col min="8" max="8" width="97.5" style="39" customWidth="1"/>
+    <col min="9" max="11" width="15.69921875" style="40" customWidth="1"/>
+    <col min="12" max="13" width="15.69921875" style="37" customWidth="1"/>
+    <col min="14" max="14" width="18.69921875" style="37" customWidth="1"/>
+    <col min="15" max="18" width="15.69921875" style="40" customWidth="1"/>
+    <col min="19" max="22" width="18.69921875" style="37" customWidth="1"/>
+    <col min="23" max="16384" width="8.796875" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="G2" s="2"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="G2" s="36"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="36">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="36">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="36">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="36">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="36">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="36">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="36">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="36">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="36">
         <v>2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="36">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="38" t="s">
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+    </row>
+    <row r="8" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="36">
         <v>2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="36">
         <v>2</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="36">
         <v>3</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="36">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="36">
         <v>3</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="36">
         <v>1</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="38"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="38" t="s">
+    <row r="11" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="26"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+    </row>
+    <row r="12" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="36">
         <v>1</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="36">
         <v>0</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="38" t="s">
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+    </row>
+    <row r="13" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="36">
         <v>1</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="36">
         <v>1</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="38" t="s">
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+    </row>
+    <row r="14" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="36">
         <v>1</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="36">
         <v>2</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="36">
         <v>2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="36">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="38" t="s">
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+    </row>
+    <row r="16" spans="1:22" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A16" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="36">
         <v>2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="36">
         <v>1</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="36">
         <v>2</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="36">
         <v>2</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="39" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="36">
         <v>3</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="36">
         <v>0</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="39" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="36">
         <v>3</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="36">
         <v>1</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="39" t="s">
         <v>93</v>
       </c>
     </row>

--- a/로스트아크/데이터테이블/Tripod_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Tripod_Info_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BA9D32-C5A6-4B7E-808C-FD88F62A7151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227571A5-4525-4079-A0EB-C5EED4B52102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -587,15 +587,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF00B050"/>
       <name val="맑은 고딕"/>
@@ -605,7 +596,7 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="8"/>
       <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -613,7 +604,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -974,9 +974,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -989,44 +986,47 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1371,11 +1371,11 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="4" t="s">
@@ -1426,19 +1426,19 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>2</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="7"/>
@@ -1731,644 +1731,644 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.796875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="14.19921875" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="13.8984375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="4.19921875" style="36" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.796875" style="37" customWidth="1"/>
-    <col min="8" max="8" width="97.5" style="39" customWidth="1"/>
-    <col min="9" max="11" width="15.69921875" style="40" customWidth="1"/>
-    <col min="12" max="13" width="15.69921875" style="37" customWidth="1"/>
-    <col min="14" max="14" width="18.69921875" style="37" customWidth="1"/>
-    <col min="15" max="18" width="15.69921875" style="40" customWidth="1"/>
-    <col min="19" max="22" width="18.69921875" style="37" customWidth="1"/>
-    <col min="23" max="16384" width="8.796875" style="37"/>
+    <col min="1" max="1" width="10.69921875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" style="39" customWidth="1"/>
+    <col min="8" max="8" width="97.5" style="42" customWidth="1"/>
+    <col min="9" max="11" width="15.69921875" style="43" customWidth="1"/>
+    <col min="12" max="13" width="15.69921875" style="39" customWidth="1"/>
+    <col min="14" max="14" width="18.69921875" style="39" customWidth="1"/>
+    <col min="15" max="18" width="15.69921875" style="43" customWidth="1"/>
+    <col min="19" max="22" width="18.69921875" style="39" customWidth="1"/>
+    <col min="23" max="16384" width="8.796875" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="G2" s="36"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
+      <c r="G2" s="38"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="38">
         <v>1</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="38">
         <v>0</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="38">
         <v>1</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="38">
         <v>1</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="38">
         <v>1</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="38">
         <v>2</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="38">
         <v>2</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="38">
         <v>0</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="38">
         <v>2</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="38">
         <v>1</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-    </row>
-    <row r="8" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="26" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+    </row>
+    <row r="8" spans="1:22" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="38">
         <v>2</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="38">
         <v>2</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="38">
         <v>3</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="38">
         <v>0</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="38">
         <v>3</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="38">
         <v>1</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="42" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="26"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-    </row>
-    <row r="12" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="26" t="s">
+    <row r="11" spans="1:22" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+    </row>
+    <row r="12" spans="1:22" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="38">
         <v>1</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="38">
         <v>0</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-    </row>
-    <row r="13" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26" t="s">
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+    </row>
+    <row r="13" spans="1:22" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="38">
         <v>1</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="38">
         <v>1</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-    </row>
-    <row r="14" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="26" t="s">
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+    </row>
+    <row r="14" spans="1:22" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="38">
         <v>1</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="38">
         <v>2</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="38">
         <v>2</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="38">
         <v>0</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-    </row>
-    <row r="16" spans="1:22" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A16" s="26" t="s">
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+    </row>
+    <row r="16" spans="1:22" s="38" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="38">
         <v>2</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="38">
         <v>1</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="38">
         <v>2</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="38">
         <v>2</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="42" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="38">
         <v>3</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="38">
         <v>0</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="42" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="38">
         <v>3</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="38">
         <v>1</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="42" t="s">
         <v>93</v>
       </c>
     </row>

--- a/로스트아크/데이터테이블/Tripod_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Tripod_Info_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227571A5-4525-4079-A0EB-C5EED4B52102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3158162-3863-4E76-B97E-F5D9738A3447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -37,11 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,38 +204,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격에 적중된 적은 16.0초 동안 자신 및 파티원의 치명타 공격에 받는 피해가 8.0% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 범위가 20.0% 감소하고 즉시 창을 바닥에 내려찍습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[토] 속성으로 변경되고, 공격 적중 시 5.0초 동안 지진에 걸립니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 범위가 20.0% 감소하지만, 마우스 위치에 창이 떨어지는 공격을 가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재사용 대기시간이 11.0초 감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LANCEMASTER_18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬의 무력화 단계가 [중]으로 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부위파괴 레벨이 1만큼 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LM_18_T1_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,43 +332,6 @@
   </si>
   <si>
     <t>tripod_tier_3_39.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">홀딩 또는 차지속도가 30.0% 빨라집니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격이 적중할 때 마다 회복하는 듀얼 게이지가 45.0% 증가합니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬 시전 중 받는 피해가 40.8% 감소합니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">적에게 주는 피해가 40.0% 증가하고 퍼펙트 존의 공격은 적에게 주는 피해가 70.0% 증가합니다.    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퍼펙트 존이 사라지고 차지 조작으로 변경되며 차지 중 360도 방향 전환이 가능합니다.
-공격 시 적에게 주는 피해가 58.6% 증가하고, 오버차지 공격 시 적에게 주는 피해가 퍼펙트 존 효과보다 83.0% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">창을 찌르는 공격의 폭이 50.0% 좁아지지만 치명타 적중률이 100.0% 증가하며 치명타 피해가 60.0% 증가합니다.   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">네임드 등급 이상의 몬스터에게 주는 피해가 96.0% 증가합니다.  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">치명타 피해량이 160.0% 증가합니다.  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>듀얼 게이지를 1칸 소모하지만, 적에게 주는 피해가 190.4% 증가합니다. 보유한 듀얼 게이지가 1칸 미만이면 적용 되지 않습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -499,6 +430,66 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>스킬의 무력화 단계가 [중]으로 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[토] 속성으로 변경되고, 공격 적중 시 {duration}초 동안 지진에 걸린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀딩 또는 차지속도가 {cast_spd}% 빨라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격이 적중할 때 마다 회복하는 듀얼 게이지가 {identity_gauge_recover}% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 주는 피해가 {outgoing_dmg}% 증가하고 퍼펙트 존의 공격은 적에게 주는 피해가 {perfect_zone_outgoing_dmg}% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼펙트 존이 사라지고 차지 조작으로 변경된다. 스킬 버튼 지속입력 시 차지되며 {rotate_angle}도 방향 전환이 가능하다. 즉시 또는 차지 중 공격 시 적에게 주는 피해가 {outgoing_dmg}% 증가하고, 오버차지 공격 시 적에게 주는 피해가 퍼펙트 존 효과보다 {overcharge_outgoing_dmg}% 증가한다.</t>
+  </si>
+  <si>
+    <t>네임드 등급 이상의 몬스터에게 주는 피해가 {outgoing_dmg}% 증가한다.</t>
+  </si>
+  <si>
+    <t>치명타 피해량이 {cri_dmg}% 증가한다.</t>
+  </si>
+  <si>
+    <t>창을 찌르는 공격의 폭이 {hit_area_width}% 좁아지지만 치명타 적중률이 {cri_rate}% 증가하며 치명타 피해가 {cri_dmg}% 증가한다.</t>
+  </si>
+  <si>
+    <t>부위파괴 레벨이 {weak_point}만큼 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격에 적중된 적은 {duration}초 동안 자신 및 파티원의 치명타 공격에 받는 피해가 {cri_hit_receive_dmg}% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용 대기시간이  {cooldown}초 감소한다.</t>
+  </si>
+  <si>
+    <t>스킬 시전 중 받는 피해가  {receive_dmg}% 감소한다.</t>
+  </si>
+  <si>
+    <t>공격 범위가 {hit_area}% 감소하고 즉시 창을 바닥에 내려찍는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위가 {hit_area}% 감소하지만, 마우스 위치에 창이 떨어지는 공격을 가한다.</t>
+  </si>
+  <si>
+    <t>듀얼 게이지를 {identity_gauge}칸 소모하지만, 적에게 주는 피해가  {outgoing_dmg}% 증가한다. 보유한 듀얼 게이지가 {identity_gauge}칸 미만이면 적용 되지 않는다.</t>
+  </si>
 </sst>
 </file>
 
@@ -508,7 +499,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,15 +586,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -614,6 +596,23 @@
     <font>
       <b/>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -895,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,6 +988,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -998,35 +1015,41 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1352,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:H79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="A3:I14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1371,75 +1394,75 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="C2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="30" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C6" s="26">
         <v>2</v>
       </c>
       <c r="D6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>17</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -1448,13 +1471,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>21</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -1463,13 +1486,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -1478,13 +1501,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -1493,13 +1516,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>24</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -1508,13 +1531,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>26</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>27</v>
       </c>
       <c r="G11" s="7"/>
     </row>
@@ -1728,649 +1751,6000 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V351"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" style="40" customWidth="1"/>
-    <col min="2" max="2" width="12.8984375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="4.19921875" style="38" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.796875" style="39" customWidth="1"/>
-    <col min="8" max="8" width="97.5" style="42" customWidth="1"/>
-    <col min="9" max="11" width="15.69921875" style="43" customWidth="1"/>
-    <col min="12" max="13" width="15.69921875" style="39" customWidth="1"/>
-    <col min="14" max="14" width="18.69921875" style="39" customWidth="1"/>
-    <col min="15" max="18" width="15.69921875" style="43" customWidth="1"/>
-    <col min="19" max="22" width="18.69921875" style="39" customWidth="1"/>
-    <col min="23" max="16384" width="8.796875" style="39"/>
+    <col min="1" max="1" width="10.69921875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="72.19921875" style="35" customWidth="1"/>
+    <col min="9" max="11" width="15.69921875" style="36" customWidth="1"/>
+    <col min="12" max="13" width="15.69921875" style="32" customWidth="1"/>
+    <col min="14" max="14" width="18.69921875" style="32" customWidth="1"/>
+    <col min="15" max="18" width="15.69921875" style="36" customWidth="1"/>
+    <col min="19" max="22" width="18.69921875" style="32" customWidth="1"/>
+    <col min="23" max="16384" width="8.796875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:22" s="45" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+    </row>
+    <row r="2" spans="1:22" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+    </row>
+    <row r="3" spans="1:22" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="48">
+        <v>1</v>
+      </c>
+      <c r="F3" s="48">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="G3" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+    </row>
+    <row r="4" spans="1:22" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="48">
+        <v>1</v>
+      </c>
+      <c r="F4" s="48">
+        <v>1</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+    </row>
+    <row r="5" spans="1:22" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="48">
+        <v>1</v>
+      </c>
+      <c r="F5" s="48">
+        <v>2</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+    </row>
+    <row r="6" spans="1:22" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="48">
+        <v>2</v>
+      </c>
+      <c r="F6" s="48">
+        <v>0</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="G2" s="38"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="41" t="s">
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+    </row>
+    <row r="7" spans="1:22" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="48">
+        <v>2</v>
+      </c>
+      <c r="F7" s="48">
+        <v>1</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+    </row>
+    <row r="8" spans="1:22" s="48" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="38">
+      <c r="C8" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="48">
+        <v>2</v>
+      </c>
+      <c r="F8" s="48">
+        <v>2</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+    </row>
+    <row r="9" spans="1:22" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="48">
+        <v>3</v>
+      </c>
+      <c r="F9" s="48">
+        <v>0</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+    </row>
+    <row r="10" spans="1:22" s="50" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A10" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="48">
+        <v>3</v>
+      </c>
+      <c r="F10" s="48">
         <v>1</v>
       </c>
-      <c r="F3" s="38">
+      <c r="G10" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+    </row>
+    <row r="11" spans="1:22" s="48" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+    </row>
+    <row r="12" spans="1:22" s="48" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="48">
+        <v>1</v>
+      </c>
+      <c r="F12" s="48">
         <v>0</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="38">
+      <c r="G12" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+    </row>
+    <row r="13" spans="1:22" s="48" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="48">
         <v>1</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F13" s="48">
         <v>1</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A5" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="41" t="s">
+      <c r="G13" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+    </row>
+    <row r="14" spans="1:22" s="48" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="38">
+      <c r="D14" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="48">
         <v>1</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F14" s="48">
         <v>2</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A6" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="38">
+      <c r="G14" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+    </row>
+    <row r="15" spans="1:22" s="50" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A15" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="48">
         <v>2</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F15" s="48">
         <v>0</v>
       </c>
-      <c r="G6" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A7" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="38">
+      <c r="G15" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+    </row>
+    <row r="16" spans="1:22" s="48" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="A16" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="48">
         <v>2</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F16" s="48">
         <v>1</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-    </row>
-    <row r="8" spans="1:22" s="38" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="38">
+      <c r="G16" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+    </row>
+    <row r="17" spans="1:18" s="50" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A17" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="48">
         <v>2</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F17" s="48">
         <v>2</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A9" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="38">
+      <c r="G17" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+    </row>
+    <row r="18" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="48">
         <v>3</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F18" s="48">
         <v>0</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A10" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="38">
+      <c r="G18" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+    </row>
+    <row r="19" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="48">
         <v>3</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F19" s="48">
         <v>1</v>
       </c>
-      <c r="G10" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="38" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-    </row>
-    <row r="12" spans="1:22" s="38" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="38">
-        <v>1</v>
-      </c>
-      <c r="F12" s="38">
-        <v>0</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-    </row>
-    <row r="13" spans="1:22" s="38" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="38">
-        <v>1</v>
-      </c>
-      <c r="F13" s="38">
-        <v>1</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-    </row>
-    <row r="14" spans="1:22" s="38" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="40" t="s">
+      <c r="G19" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="38">
-        <v>1</v>
-      </c>
-      <c r="F14" s="38">
-        <v>2</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A15" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="38">
-        <v>2</v>
-      </c>
-      <c r="F15" s="38">
-        <v>0</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-    </row>
-    <row r="16" spans="1:22" s="38" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A16" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="38">
-        <v>2</v>
-      </c>
-      <c r="F16" s="38">
-        <v>1</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="38">
-        <v>2</v>
-      </c>
-      <c r="F17" s="38">
-        <v>2</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="38">
-        <v>3</v>
-      </c>
-      <c r="F18" s="38">
-        <v>0</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="38">
-        <v>3</v>
-      </c>
-      <c r="F19" s="38">
-        <v>1</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>93</v>
-      </c>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+    </row>
+    <row r="20" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+    </row>
+    <row r="21" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+    </row>
+    <row r="22" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+    </row>
+    <row r="23" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+    </row>
+    <row r="24" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+    </row>
+    <row r="25" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+    </row>
+    <row r="26" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+    </row>
+    <row r="27" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+    </row>
+    <row r="28" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+    </row>
+    <row r="29" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+    </row>
+    <row r="30" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+    </row>
+    <row r="31" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+    </row>
+    <row r="32" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+    </row>
+    <row r="33" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+    </row>
+    <row r="34" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+    </row>
+    <row r="35" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+    </row>
+    <row r="36" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+    </row>
+    <row r="37" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+    </row>
+    <row r="38" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+    </row>
+    <row r="39" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="46"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+    </row>
+    <row r="40" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="46"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+    </row>
+    <row r="41" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="46"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+    </row>
+    <row r="42" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="46"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+    </row>
+    <row r="43" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="46"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+    </row>
+    <row r="44" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="46"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="51"/>
+    </row>
+    <row r="45" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="46"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51"/>
+    </row>
+    <row r="46" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="46"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51"/>
+    </row>
+    <row r="47" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="46"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+    </row>
+    <row r="48" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+    </row>
+    <row r="49" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+    </row>
+    <row r="50" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="46"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="51"/>
+    </row>
+    <row r="51" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="46"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+    </row>
+    <row r="52" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="46"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="51"/>
+    </row>
+    <row r="53" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="46"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="51"/>
+    </row>
+    <row r="54" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="46"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="51"/>
+    </row>
+    <row r="55" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="46"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="51"/>
+    </row>
+    <row r="56" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="46"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="51"/>
+      <c r="R56" s="51"/>
+    </row>
+    <row r="57" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="46"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="51"/>
+    </row>
+    <row r="58" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="46"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="51"/>
+    </row>
+    <row r="59" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="46"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="51"/>
+    </row>
+    <row r="60" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="46"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="51"/>
+    </row>
+    <row r="61" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="46"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="51"/>
+    </row>
+    <row r="62" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="46"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="51"/>
+      <c r="R62" s="51"/>
+    </row>
+    <row r="63" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="46"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="51"/>
+      <c r="Q63" s="51"/>
+      <c r="R63" s="51"/>
+    </row>
+    <row r="64" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="46"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="O64" s="51"/>
+      <c r="P64" s="51"/>
+      <c r="Q64" s="51"/>
+      <c r="R64" s="51"/>
+    </row>
+    <row r="65" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="46"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="O65" s="51"/>
+      <c r="P65" s="51"/>
+      <c r="Q65" s="51"/>
+      <c r="R65" s="51"/>
+    </row>
+    <row r="66" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="46"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="O66" s="51"/>
+      <c r="P66" s="51"/>
+      <c r="Q66" s="51"/>
+      <c r="R66" s="51"/>
+    </row>
+    <row r="67" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="46"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
+      <c r="O67" s="51"/>
+      <c r="P67" s="51"/>
+      <c r="Q67" s="51"/>
+      <c r="R67" s="51"/>
+    </row>
+    <row r="68" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="46"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="O68" s="51"/>
+      <c r="P68" s="51"/>
+      <c r="Q68" s="51"/>
+      <c r="R68" s="51"/>
+    </row>
+    <row r="69" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="46"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="O69" s="51"/>
+      <c r="P69" s="51"/>
+      <c r="Q69" s="51"/>
+      <c r="R69" s="51"/>
+    </row>
+    <row r="70" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="46"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="O70" s="51"/>
+      <c r="P70" s="51"/>
+      <c r="Q70" s="51"/>
+      <c r="R70" s="51"/>
+    </row>
+    <row r="71" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="46"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
+      <c r="O71" s="51"/>
+      <c r="P71" s="51"/>
+      <c r="Q71" s="51"/>
+      <c r="R71" s="51"/>
+    </row>
+    <row r="72" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="46"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="O72" s="51"/>
+      <c r="P72" s="51"/>
+      <c r="Q72" s="51"/>
+      <c r="R72" s="51"/>
+    </row>
+    <row r="73" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="46"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="O73" s="51"/>
+      <c r="P73" s="51"/>
+      <c r="Q73" s="51"/>
+      <c r="R73" s="51"/>
+    </row>
+    <row r="74" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="46"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="O74" s="51"/>
+      <c r="P74" s="51"/>
+      <c r="Q74" s="51"/>
+      <c r="R74" s="51"/>
+    </row>
+    <row r="75" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="46"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="51"/>
+      <c r="Q75" s="51"/>
+      <c r="R75" s="51"/>
+    </row>
+    <row r="76" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="46"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="O76" s="51"/>
+      <c r="P76" s="51"/>
+      <c r="Q76" s="51"/>
+      <c r="R76" s="51"/>
+    </row>
+    <row r="77" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="46"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="O77" s="51"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="51"/>
+      <c r="R77" s="51"/>
+    </row>
+    <row r="78" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="46"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="O78" s="51"/>
+      <c r="P78" s="51"/>
+      <c r="Q78" s="51"/>
+      <c r="R78" s="51"/>
+    </row>
+    <row r="79" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="46"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="O79" s="51"/>
+      <c r="P79" s="51"/>
+      <c r="Q79" s="51"/>
+      <c r="R79" s="51"/>
+    </row>
+    <row r="80" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="46"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+      <c r="O80" s="51"/>
+      <c r="P80" s="51"/>
+      <c r="Q80" s="51"/>
+      <c r="R80" s="51"/>
+    </row>
+    <row r="81" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="46"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="O81" s="51"/>
+      <c r="P81" s="51"/>
+      <c r="Q81" s="51"/>
+      <c r="R81" s="51"/>
+    </row>
+    <row r="82" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="46"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="O82" s="51"/>
+      <c r="P82" s="51"/>
+      <c r="Q82" s="51"/>
+      <c r="R82" s="51"/>
+    </row>
+    <row r="83" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="46"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
+      <c r="K83" s="51"/>
+      <c r="O83" s="51"/>
+      <c r="P83" s="51"/>
+      <c r="Q83" s="51"/>
+      <c r="R83" s="51"/>
+    </row>
+    <row r="84" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="46"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="O84" s="51"/>
+      <c r="P84" s="51"/>
+      <c r="Q84" s="51"/>
+      <c r="R84" s="51"/>
+    </row>
+    <row r="85" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="46"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
+      <c r="O85" s="51"/>
+      <c r="P85" s="51"/>
+      <c r="Q85" s="51"/>
+      <c r="R85" s="51"/>
+    </row>
+    <row r="86" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="46"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="51"/>
+      <c r="K86" s="51"/>
+      <c r="O86" s="51"/>
+      <c r="P86" s="51"/>
+      <c r="Q86" s="51"/>
+      <c r="R86" s="51"/>
+    </row>
+    <row r="87" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="46"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="O87" s="51"/>
+      <c r="P87" s="51"/>
+      <c r="Q87" s="51"/>
+      <c r="R87" s="51"/>
+    </row>
+    <row r="88" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="46"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="51"/>
+      <c r="K88" s="51"/>
+      <c r="O88" s="51"/>
+      <c r="P88" s="51"/>
+      <c r="Q88" s="51"/>
+      <c r="R88" s="51"/>
+    </row>
+    <row r="89" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="46"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="51"/>
+      <c r="K89" s="51"/>
+      <c r="O89" s="51"/>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="51"/>
+      <c r="R89" s="51"/>
+    </row>
+    <row r="90" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="46"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="51"/>
+      <c r="O90" s="51"/>
+      <c r="P90" s="51"/>
+      <c r="Q90" s="51"/>
+      <c r="R90" s="51"/>
+    </row>
+    <row r="91" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="46"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="O91" s="51"/>
+      <c r="P91" s="51"/>
+      <c r="Q91" s="51"/>
+      <c r="R91" s="51"/>
+    </row>
+    <row r="92" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="46"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="O92" s="51"/>
+      <c r="P92" s="51"/>
+      <c r="Q92" s="51"/>
+      <c r="R92" s="51"/>
+    </row>
+    <row r="93" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="46"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+      <c r="O93" s="51"/>
+      <c r="P93" s="51"/>
+      <c r="Q93" s="51"/>
+      <c r="R93" s="51"/>
+    </row>
+    <row r="94" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="46"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
+      <c r="O94" s="51"/>
+      <c r="P94" s="51"/>
+      <c r="Q94" s="51"/>
+      <c r="R94" s="51"/>
+    </row>
+    <row r="95" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="46"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="51"/>
+      <c r="J95" s="51"/>
+      <c r="K95" s="51"/>
+      <c r="O95" s="51"/>
+      <c r="P95" s="51"/>
+      <c r="Q95" s="51"/>
+      <c r="R95" s="51"/>
+    </row>
+    <row r="96" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="46"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
+      <c r="O96" s="51"/>
+      <c r="P96" s="51"/>
+      <c r="Q96" s="51"/>
+      <c r="R96" s="51"/>
+    </row>
+    <row r="97" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="46"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="47"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="51"/>
+      <c r="J97" s="51"/>
+      <c r="K97" s="51"/>
+      <c r="O97" s="51"/>
+      <c r="P97" s="51"/>
+      <c r="Q97" s="51"/>
+      <c r="R97" s="51"/>
+    </row>
+    <row r="98" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="46"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="47"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="O98" s="51"/>
+      <c r="P98" s="51"/>
+      <c r="Q98" s="51"/>
+      <c r="R98" s="51"/>
+    </row>
+    <row r="99" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="46"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="51"/>
+      <c r="J99" s="51"/>
+      <c r="K99" s="51"/>
+      <c r="O99" s="51"/>
+      <c r="P99" s="51"/>
+      <c r="Q99" s="51"/>
+      <c r="R99" s="51"/>
+    </row>
+    <row r="100" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="46"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="51"/>
+      <c r="J100" s="51"/>
+      <c r="K100" s="51"/>
+      <c r="O100" s="51"/>
+      <c r="P100" s="51"/>
+      <c r="Q100" s="51"/>
+      <c r="R100" s="51"/>
+    </row>
+    <row r="101" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="46"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="47"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="48"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="51"/>
+      <c r="J101" s="51"/>
+      <c r="K101" s="51"/>
+      <c r="O101" s="51"/>
+      <c r="P101" s="51"/>
+      <c r="Q101" s="51"/>
+      <c r="R101" s="51"/>
+    </row>
+    <row r="102" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="46"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="O102" s="51"/>
+      <c r="P102" s="51"/>
+      <c r="Q102" s="51"/>
+      <c r="R102" s="51"/>
+    </row>
+    <row r="103" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="46"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="48"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="51"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="51"/>
+      <c r="O103" s="51"/>
+      <c r="P103" s="51"/>
+      <c r="Q103" s="51"/>
+      <c r="R103" s="51"/>
+    </row>
+    <row r="104" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="46"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="51"/>
+      <c r="J104" s="51"/>
+      <c r="K104" s="51"/>
+      <c r="O104" s="51"/>
+      <c r="P104" s="51"/>
+      <c r="Q104" s="51"/>
+      <c r="R104" s="51"/>
+    </row>
+    <row r="105" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="46"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="47"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="O105" s="51"/>
+      <c r="P105" s="51"/>
+      <c r="Q105" s="51"/>
+      <c r="R105" s="51"/>
+    </row>
+    <row r="106" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="46"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="47"/>
+      <c r="D106" s="47"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="51"/>
+      <c r="J106" s="51"/>
+      <c r="K106" s="51"/>
+      <c r="O106" s="51"/>
+      <c r="P106" s="51"/>
+      <c r="Q106" s="51"/>
+      <c r="R106" s="51"/>
+    </row>
+    <row r="107" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="46"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="47"/>
+      <c r="D107" s="47"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="51"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
+      <c r="O107" s="51"/>
+      <c r="P107" s="51"/>
+      <c r="Q107" s="51"/>
+      <c r="R107" s="51"/>
+    </row>
+    <row r="108" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="46"/>
+      <c r="B108" s="47"/>
+      <c r="C108" s="47"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="51"/>
+      <c r="J108" s="51"/>
+      <c r="K108" s="51"/>
+      <c r="O108" s="51"/>
+      <c r="P108" s="51"/>
+      <c r="Q108" s="51"/>
+      <c r="R108" s="51"/>
+    </row>
+    <row r="109" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="46"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="47"/>
+      <c r="D109" s="47"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="48"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="51"/>
+      <c r="J109" s="51"/>
+      <c r="K109" s="51"/>
+      <c r="O109" s="51"/>
+      <c r="P109" s="51"/>
+      <c r="Q109" s="51"/>
+      <c r="R109" s="51"/>
+    </row>
+    <row r="110" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="46"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="47"/>
+      <c r="D110" s="47"/>
+      <c r="E110" s="48"/>
+      <c r="F110" s="48"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="51"/>
+      <c r="J110" s="51"/>
+      <c r="K110" s="51"/>
+      <c r="O110" s="51"/>
+      <c r="P110" s="51"/>
+      <c r="Q110" s="51"/>
+      <c r="R110" s="51"/>
+    </row>
+    <row r="111" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="46"/>
+      <c r="B111" s="47"/>
+      <c r="C111" s="47"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="51"/>
+      <c r="J111" s="51"/>
+      <c r="K111" s="51"/>
+      <c r="O111" s="51"/>
+      <c r="P111" s="51"/>
+      <c r="Q111" s="51"/>
+      <c r="R111" s="51"/>
+    </row>
+    <row r="112" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="46"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="48"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="51"/>
+      <c r="J112" s="51"/>
+      <c r="K112" s="51"/>
+      <c r="O112" s="51"/>
+      <c r="P112" s="51"/>
+      <c r="Q112" s="51"/>
+      <c r="R112" s="51"/>
+    </row>
+    <row r="113" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="46"/>
+      <c r="B113" s="47"/>
+      <c r="C113" s="47"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="48"/>
+      <c r="F113" s="48"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="51"/>
+      <c r="J113" s="51"/>
+      <c r="K113" s="51"/>
+      <c r="O113" s="51"/>
+      <c r="P113" s="51"/>
+      <c r="Q113" s="51"/>
+      <c r="R113" s="51"/>
+    </row>
+    <row r="114" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="46"/>
+      <c r="B114" s="47"/>
+      <c r="C114" s="47"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="48"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="51"/>
+      <c r="J114" s="51"/>
+      <c r="K114" s="51"/>
+      <c r="O114" s="51"/>
+      <c r="P114" s="51"/>
+      <c r="Q114" s="51"/>
+      <c r="R114" s="51"/>
+    </row>
+    <row r="115" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="46"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="48"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="51"/>
+      <c r="J115" s="51"/>
+      <c r="K115" s="51"/>
+      <c r="O115" s="51"/>
+      <c r="P115" s="51"/>
+      <c r="Q115" s="51"/>
+      <c r="R115" s="51"/>
+    </row>
+    <row r="116" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="46"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="48"/>
+      <c r="F116" s="48"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="51"/>
+      <c r="J116" s="51"/>
+      <c r="K116" s="51"/>
+      <c r="O116" s="51"/>
+      <c r="P116" s="51"/>
+      <c r="Q116" s="51"/>
+      <c r="R116" s="51"/>
+    </row>
+    <row r="117" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="46"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="47"/>
+      <c r="D117" s="47"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="48"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="51"/>
+      <c r="J117" s="51"/>
+      <c r="K117" s="51"/>
+      <c r="O117" s="51"/>
+      <c r="P117" s="51"/>
+      <c r="Q117" s="51"/>
+      <c r="R117" s="51"/>
+    </row>
+    <row r="118" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="46"/>
+      <c r="B118" s="47"/>
+      <c r="C118" s="47"/>
+      <c r="D118" s="47"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="51"/>
+      <c r="J118" s="51"/>
+      <c r="K118" s="51"/>
+      <c r="O118" s="51"/>
+      <c r="P118" s="51"/>
+      <c r="Q118" s="51"/>
+      <c r="R118" s="51"/>
+    </row>
+    <row r="119" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="46"/>
+      <c r="B119" s="47"/>
+      <c r="C119" s="47"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="48"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="51"/>
+      <c r="J119" s="51"/>
+      <c r="K119" s="51"/>
+      <c r="O119" s="51"/>
+      <c r="P119" s="51"/>
+      <c r="Q119" s="51"/>
+      <c r="R119" s="51"/>
+    </row>
+    <row r="120" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="46"/>
+      <c r="B120" s="47"/>
+      <c r="C120" s="47"/>
+      <c r="D120" s="47"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="48"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="51"/>
+      <c r="O120" s="51"/>
+      <c r="P120" s="51"/>
+      <c r="Q120" s="51"/>
+      <c r="R120" s="51"/>
+    </row>
+    <row r="121" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="46"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="47"/>
+      <c r="D121" s="47"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="48"/>
+      <c r="H121" s="35"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="51"/>
+      <c r="K121" s="51"/>
+      <c r="O121" s="51"/>
+      <c r="P121" s="51"/>
+      <c r="Q121" s="51"/>
+      <c r="R121" s="51"/>
+    </row>
+    <row r="122" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="46"/>
+      <c r="B122" s="47"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="47"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="51"/>
+      <c r="J122" s="51"/>
+      <c r="K122" s="51"/>
+      <c r="O122" s="51"/>
+      <c r="P122" s="51"/>
+      <c r="Q122" s="51"/>
+      <c r="R122" s="51"/>
+    </row>
+    <row r="123" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="46"/>
+      <c r="B123" s="47"/>
+      <c r="C123" s="47"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="48"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="51"/>
+      <c r="J123" s="51"/>
+      <c r="K123" s="51"/>
+      <c r="O123" s="51"/>
+      <c r="P123" s="51"/>
+      <c r="Q123" s="51"/>
+      <c r="R123" s="51"/>
+    </row>
+    <row r="124" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="46"/>
+      <c r="B124" s="47"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="51"/>
+      <c r="J124" s="51"/>
+      <c r="K124" s="51"/>
+      <c r="O124" s="51"/>
+      <c r="P124" s="51"/>
+      <c r="Q124" s="51"/>
+      <c r="R124" s="51"/>
+    </row>
+    <row r="125" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="46"/>
+      <c r="B125" s="47"/>
+      <c r="C125" s="47"/>
+      <c r="D125" s="47"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="48"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="51"/>
+      <c r="J125" s="51"/>
+      <c r="K125" s="51"/>
+      <c r="O125" s="51"/>
+      <c r="P125" s="51"/>
+      <c r="Q125" s="51"/>
+      <c r="R125" s="51"/>
+    </row>
+    <row r="126" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="46"/>
+      <c r="B126" s="47"/>
+      <c r="C126" s="47"/>
+      <c r="D126" s="47"/>
+      <c r="E126" s="48"/>
+      <c r="F126" s="48"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="51"/>
+      <c r="J126" s="51"/>
+      <c r="K126" s="51"/>
+      <c r="O126" s="51"/>
+      <c r="P126" s="51"/>
+      <c r="Q126" s="51"/>
+      <c r="R126" s="51"/>
+    </row>
+    <row r="127" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="46"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="48"/>
+      <c r="F127" s="48"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="51"/>
+      <c r="J127" s="51"/>
+      <c r="K127" s="51"/>
+      <c r="O127" s="51"/>
+      <c r="P127" s="51"/>
+      <c r="Q127" s="51"/>
+      <c r="R127" s="51"/>
+    </row>
+    <row r="128" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="46"/>
+      <c r="B128" s="47"/>
+      <c r="C128" s="47"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="48"/>
+      <c r="F128" s="48"/>
+      <c r="H128" s="35"/>
+      <c r="I128" s="51"/>
+      <c r="J128" s="51"/>
+      <c r="K128" s="51"/>
+      <c r="O128" s="51"/>
+      <c r="P128" s="51"/>
+      <c r="Q128" s="51"/>
+      <c r="R128" s="51"/>
+    </row>
+    <row r="129" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="46"/>
+      <c r="B129" s="47"/>
+      <c r="C129" s="47"/>
+      <c r="D129" s="47"/>
+      <c r="E129" s="48"/>
+      <c r="F129" s="48"/>
+      <c r="H129" s="35"/>
+      <c r="I129" s="51"/>
+      <c r="J129" s="51"/>
+      <c r="K129" s="51"/>
+      <c r="O129" s="51"/>
+      <c r="P129" s="51"/>
+      <c r="Q129" s="51"/>
+      <c r="R129" s="51"/>
+    </row>
+    <row r="130" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="46"/>
+      <c r="B130" s="47"/>
+      <c r="C130" s="47"/>
+      <c r="D130" s="47"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="48"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="51"/>
+      <c r="J130" s="51"/>
+      <c r="K130" s="51"/>
+      <c r="O130" s="51"/>
+      <c r="P130" s="51"/>
+      <c r="Q130" s="51"/>
+      <c r="R130" s="51"/>
+    </row>
+    <row r="131" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="46"/>
+      <c r="B131" s="47"/>
+      <c r="C131" s="47"/>
+      <c r="D131" s="47"/>
+      <c r="E131" s="48"/>
+      <c r="F131" s="48"/>
+      <c r="H131" s="35"/>
+      <c r="I131" s="51"/>
+      <c r="J131" s="51"/>
+      <c r="K131" s="51"/>
+      <c r="O131" s="51"/>
+      <c r="P131" s="51"/>
+      <c r="Q131" s="51"/>
+      <c r="R131" s="51"/>
+    </row>
+    <row r="132" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="46"/>
+      <c r="B132" s="47"/>
+      <c r="C132" s="47"/>
+      <c r="D132" s="47"/>
+      <c r="E132" s="48"/>
+      <c r="F132" s="48"/>
+      <c r="H132" s="35"/>
+      <c r="I132" s="51"/>
+      <c r="J132" s="51"/>
+      <c r="K132" s="51"/>
+      <c r="O132" s="51"/>
+      <c r="P132" s="51"/>
+      <c r="Q132" s="51"/>
+      <c r="R132" s="51"/>
+    </row>
+    <row r="133" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="46"/>
+      <c r="B133" s="47"/>
+      <c r="C133" s="47"/>
+      <c r="D133" s="47"/>
+      <c r="E133" s="48"/>
+      <c r="F133" s="48"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="51"/>
+      <c r="J133" s="51"/>
+      <c r="K133" s="51"/>
+      <c r="O133" s="51"/>
+      <c r="P133" s="51"/>
+      <c r="Q133" s="51"/>
+      <c r="R133" s="51"/>
+    </row>
+    <row r="134" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="46"/>
+      <c r="B134" s="47"/>
+      <c r="C134" s="47"/>
+      <c r="D134" s="47"/>
+      <c r="E134" s="48"/>
+      <c r="F134" s="48"/>
+      <c r="H134" s="35"/>
+      <c r="I134" s="51"/>
+      <c r="J134" s="51"/>
+      <c r="K134" s="51"/>
+      <c r="O134" s="51"/>
+      <c r="P134" s="51"/>
+      <c r="Q134" s="51"/>
+      <c r="R134" s="51"/>
+    </row>
+    <row r="135" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="46"/>
+      <c r="B135" s="47"/>
+      <c r="C135" s="47"/>
+      <c r="D135" s="47"/>
+      <c r="E135" s="48"/>
+      <c r="F135" s="48"/>
+      <c r="H135" s="35"/>
+      <c r="I135" s="51"/>
+      <c r="J135" s="51"/>
+      <c r="K135" s="51"/>
+      <c r="O135" s="51"/>
+      <c r="P135" s="51"/>
+      <c r="Q135" s="51"/>
+      <c r="R135" s="51"/>
+    </row>
+    <row r="136" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="46"/>
+      <c r="B136" s="47"/>
+      <c r="C136" s="47"/>
+      <c r="D136" s="47"/>
+      <c r="E136" s="48"/>
+      <c r="F136" s="48"/>
+      <c r="H136" s="35"/>
+      <c r="I136" s="51"/>
+      <c r="J136" s="51"/>
+      <c r="K136" s="51"/>
+      <c r="O136" s="51"/>
+      <c r="P136" s="51"/>
+      <c r="Q136" s="51"/>
+      <c r="R136" s="51"/>
+    </row>
+    <row r="137" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="46"/>
+      <c r="B137" s="47"/>
+      <c r="C137" s="47"/>
+      <c r="D137" s="47"/>
+      <c r="E137" s="48"/>
+      <c r="F137" s="48"/>
+      <c r="H137" s="35"/>
+      <c r="I137" s="51"/>
+      <c r="J137" s="51"/>
+      <c r="K137" s="51"/>
+      <c r="O137" s="51"/>
+      <c r="P137" s="51"/>
+      <c r="Q137" s="51"/>
+      <c r="R137" s="51"/>
+    </row>
+    <row r="138" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="46"/>
+      <c r="B138" s="47"/>
+      <c r="C138" s="47"/>
+      <c r="D138" s="47"/>
+      <c r="E138" s="48"/>
+      <c r="F138" s="48"/>
+      <c r="H138" s="35"/>
+      <c r="I138" s="51"/>
+      <c r="J138" s="51"/>
+      <c r="K138" s="51"/>
+      <c r="O138" s="51"/>
+      <c r="P138" s="51"/>
+      <c r="Q138" s="51"/>
+      <c r="R138" s="51"/>
+    </row>
+    <row r="139" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="46"/>
+      <c r="B139" s="47"/>
+      <c r="C139" s="47"/>
+      <c r="D139" s="47"/>
+      <c r="E139" s="48"/>
+      <c r="F139" s="48"/>
+      <c r="H139" s="35"/>
+      <c r="I139" s="51"/>
+      <c r="J139" s="51"/>
+      <c r="K139" s="51"/>
+      <c r="O139" s="51"/>
+      <c r="P139" s="51"/>
+      <c r="Q139" s="51"/>
+      <c r="R139" s="51"/>
+    </row>
+    <row r="140" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="46"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="47"/>
+      <c r="D140" s="47"/>
+      <c r="E140" s="48"/>
+      <c r="F140" s="48"/>
+      <c r="H140" s="35"/>
+      <c r="I140" s="51"/>
+      <c r="J140" s="51"/>
+      <c r="K140" s="51"/>
+      <c r="O140" s="51"/>
+      <c r="P140" s="51"/>
+      <c r="Q140" s="51"/>
+      <c r="R140" s="51"/>
+    </row>
+    <row r="141" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="46"/>
+      <c r="B141" s="47"/>
+      <c r="C141" s="47"/>
+      <c r="D141" s="47"/>
+      <c r="E141" s="48"/>
+      <c r="F141" s="48"/>
+      <c r="H141" s="35"/>
+      <c r="I141" s="51"/>
+      <c r="J141" s="51"/>
+      <c r="K141" s="51"/>
+      <c r="O141" s="51"/>
+      <c r="P141" s="51"/>
+      <c r="Q141" s="51"/>
+      <c r="R141" s="51"/>
+    </row>
+    <row r="142" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="46"/>
+      <c r="B142" s="47"/>
+      <c r="C142" s="47"/>
+      <c r="D142" s="47"/>
+      <c r="E142" s="48"/>
+      <c r="F142" s="48"/>
+      <c r="H142" s="35"/>
+      <c r="I142" s="51"/>
+      <c r="J142" s="51"/>
+      <c r="K142" s="51"/>
+      <c r="O142" s="51"/>
+      <c r="P142" s="51"/>
+      <c r="Q142" s="51"/>
+      <c r="R142" s="51"/>
+    </row>
+    <row r="143" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="46"/>
+      <c r="B143" s="47"/>
+      <c r="C143" s="47"/>
+      <c r="D143" s="47"/>
+      <c r="E143" s="48"/>
+      <c r="F143" s="48"/>
+      <c r="H143" s="35"/>
+      <c r="I143" s="51"/>
+      <c r="J143" s="51"/>
+      <c r="K143" s="51"/>
+      <c r="O143" s="51"/>
+      <c r="P143" s="51"/>
+      <c r="Q143" s="51"/>
+      <c r="R143" s="51"/>
+    </row>
+    <row r="144" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="46"/>
+      <c r="B144" s="47"/>
+      <c r="C144" s="47"/>
+      <c r="D144" s="47"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="48"/>
+      <c r="H144" s="35"/>
+      <c r="I144" s="51"/>
+      <c r="J144" s="51"/>
+      <c r="K144" s="51"/>
+      <c r="O144" s="51"/>
+      <c r="P144" s="51"/>
+      <c r="Q144" s="51"/>
+      <c r="R144" s="51"/>
+    </row>
+    <row r="145" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="46"/>
+      <c r="B145" s="47"/>
+      <c r="C145" s="47"/>
+      <c r="D145" s="47"/>
+      <c r="E145" s="48"/>
+      <c r="F145" s="48"/>
+      <c r="H145" s="35"/>
+      <c r="I145" s="51"/>
+      <c r="J145" s="51"/>
+      <c r="K145" s="51"/>
+      <c r="O145" s="51"/>
+      <c r="P145" s="51"/>
+      <c r="Q145" s="51"/>
+      <c r="R145" s="51"/>
+    </row>
+    <row r="146" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="46"/>
+      <c r="B146" s="47"/>
+      <c r="C146" s="47"/>
+      <c r="D146" s="47"/>
+      <c r="E146" s="48"/>
+      <c r="F146" s="48"/>
+      <c r="H146" s="35"/>
+      <c r="I146" s="51"/>
+      <c r="J146" s="51"/>
+      <c r="K146" s="51"/>
+      <c r="O146" s="51"/>
+      <c r="P146" s="51"/>
+      <c r="Q146" s="51"/>
+      <c r="R146" s="51"/>
+    </row>
+    <row r="147" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="46"/>
+      <c r="B147" s="47"/>
+      <c r="C147" s="47"/>
+      <c r="D147" s="47"/>
+      <c r="E147" s="48"/>
+      <c r="F147" s="48"/>
+      <c r="H147" s="35"/>
+      <c r="I147" s="51"/>
+      <c r="J147" s="51"/>
+      <c r="K147" s="51"/>
+      <c r="O147" s="51"/>
+      <c r="P147" s="51"/>
+      <c r="Q147" s="51"/>
+      <c r="R147" s="51"/>
+    </row>
+    <row r="148" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="46"/>
+      <c r="B148" s="47"/>
+      <c r="C148" s="47"/>
+      <c r="D148" s="47"/>
+      <c r="E148" s="48"/>
+      <c r="F148" s="48"/>
+      <c r="H148" s="35"/>
+      <c r="I148" s="51"/>
+      <c r="J148" s="51"/>
+      <c r="K148" s="51"/>
+      <c r="O148" s="51"/>
+      <c r="P148" s="51"/>
+      <c r="Q148" s="51"/>
+      <c r="R148" s="51"/>
+    </row>
+    <row r="149" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="46"/>
+      <c r="B149" s="47"/>
+      <c r="C149" s="47"/>
+      <c r="D149" s="47"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="48"/>
+      <c r="H149" s="35"/>
+      <c r="I149" s="51"/>
+      <c r="J149" s="51"/>
+      <c r="K149" s="51"/>
+      <c r="O149" s="51"/>
+      <c r="P149" s="51"/>
+      <c r="Q149" s="51"/>
+      <c r="R149" s="51"/>
+    </row>
+    <row r="150" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="46"/>
+      <c r="B150" s="47"/>
+      <c r="C150" s="47"/>
+      <c r="D150" s="47"/>
+      <c r="E150" s="48"/>
+      <c r="F150" s="48"/>
+      <c r="H150" s="35"/>
+      <c r="I150" s="51"/>
+      <c r="J150" s="51"/>
+      <c r="K150" s="51"/>
+      <c r="O150" s="51"/>
+      <c r="P150" s="51"/>
+      <c r="Q150" s="51"/>
+      <c r="R150" s="51"/>
+    </row>
+    <row r="151" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="46"/>
+      <c r="B151" s="47"/>
+      <c r="C151" s="47"/>
+      <c r="D151" s="47"/>
+      <c r="E151" s="48"/>
+      <c r="F151" s="48"/>
+      <c r="H151" s="35"/>
+      <c r="I151" s="51"/>
+      <c r="J151" s="51"/>
+      <c r="K151" s="51"/>
+      <c r="O151" s="51"/>
+      <c r="P151" s="51"/>
+      <c r="Q151" s="51"/>
+      <c r="R151" s="51"/>
+    </row>
+    <row r="152" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="46"/>
+      <c r="B152" s="47"/>
+      <c r="C152" s="47"/>
+      <c r="D152" s="47"/>
+      <c r="E152" s="48"/>
+      <c r="F152" s="48"/>
+      <c r="H152" s="35"/>
+      <c r="I152" s="51"/>
+      <c r="J152" s="51"/>
+      <c r="K152" s="51"/>
+      <c r="O152" s="51"/>
+      <c r="P152" s="51"/>
+      <c r="Q152" s="51"/>
+      <c r="R152" s="51"/>
+    </row>
+    <row r="153" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="46"/>
+      <c r="B153" s="47"/>
+      <c r="C153" s="47"/>
+      <c r="D153" s="47"/>
+      <c r="E153" s="48"/>
+      <c r="F153" s="48"/>
+      <c r="H153" s="35"/>
+      <c r="I153" s="51"/>
+      <c r="J153" s="51"/>
+      <c r="K153" s="51"/>
+      <c r="O153" s="51"/>
+      <c r="P153" s="51"/>
+      <c r="Q153" s="51"/>
+      <c r="R153" s="51"/>
+    </row>
+    <row r="154" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="46"/>
+      <c r="B154" s="47"/>
+      <c r="C154" s="47"/>
+      <c r="D154" s="47"/>
+      <c r="E154" s="48"/>
+      <c r="F154" s="48"/>
+      <c r="H154" s="35"/>
+      <c r="I154" s="51"/>
+      <c r="J154" s="51"/>
+      <c r="K154" s="51"/>
+      <c r="O154" s="51"/>
+      <c r="P154" s="51"/>
+      <c r="Q154" s="51"/>
+      <c r="R154" s="51"/>
+    </row>
+    <row r="155" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="46"/>
+      <c r="B155" s="47"/>
+      <c r="C155" s="47"/>
+      <c r="D155" s="47"/>
+      <c r="E155" s="48"/>
+      <c r="F155" s="48"/>
+      <c r="H155" s="35"/>
+      <c r="I155" s="51"/>
+      <c r="J155" s="51"/>
+      <c r="K155" s="51"/>
+      <c r="O155" s="51"/>
+      <c r="P155" s="51"/>
+      <c r="Q155" s="51"/>
+      <c r="R155" s="51"/>
+    </row>
+    <row r="156" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="46"/>
+      <c r="B156" s="47"/>
+      <c r="C156" s="47"/>
+      <c r="D156" s="47"/>
+      <c r="E156" s="48"/>
+      <c r="F156" s="48"/>
+      <c r="H156" s="35"/>
+      <c r="I156" s="51"/>
+      <c r="J156" s="51"/>
+      <c r="K156" s="51"/>
+      <c r="O156" s="51"/>
+      <c r="P156" s="51"/>
+      <c r="Q156" s="51"/>
+      <c r="R156" s="51"/>
+    </row>
+    <row r="157" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A157" s="46"/>
+      <c r="B157" s="47"/>
+      <c r="C157" s="47"/>
+      <c r="D157" s="47"/>
+      <c r="E157" s="48"/>
+      <c r="F157" s="48"/>
+      <c r="H157" s="35"/>
+      <c r="I157" s="51"/>
+      <c r="J157" s="51"/>
+      <c r="K157" s="51"/>
+      <c r="O157" s="51"/>
+      <c r="P157" s="51"/>
+      <c r="Q157" s="51"/>
+      <c r="R157" s="51"/>
+    </row>
+    <row r="158" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A158" s="46"/>
+      <c r="B158" s="47"/>
+      <c r="C158" s="47"/>
+      <c r="D158" s="47"/>
+      <c r="E158" s="48"/>
+      <c r="F158" s="48"/>
+      <c r="H158" s="35"/>
+      <c r="I158" s="51"/>
+      <c r="J158" s="51"/>
+      <c r="K158" s="51"/>
+      <c r="O158" s="51"/>
+      <c r="P158" s="51"/>
+      <c r="Q158" s="51"/>
+      <c r="R158" s="51"/>
+    </row>
+    <row r="159" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A159" s="46"/>
+      <c r="B159" s="47"/>
+      <c r="C159" s="47"/>
+      <c r="D159" s="47"/>
+      <c r="E159" s="48"/>
+      <c r="F159" s="48"/>
+      <c r="H159" s="35"/>
+      <c r="I159" s="51"/>
+      <c r="J159" s="51"/>
+      <c r="K159" s="51"/>
+      <c r="O159" s="51"/>
+      <c r="P159" s="51"/>
+      <c r="Q159" s="51"/>
+      <c r="R159" s="51"/>
+    </row>
+    <row r="160" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="46"/>
+      <c r="B160" s="47"/>
+      <c r="C160" s="47"/>
+      <c r="D160" s="47"/>
+      <c r="E160" s="48"/>
+      <c r="F160" s="48"/>
+      <c r="H160" s="35"/>
+      <c r="I160" s="51"/>
+      <c r="J160" s="51"/>
+      <c r="K160" s="51"/>
+      <c r="O160" s="51"/>
+      <c r="P160" s="51"/>
+      <c r="Q160" s="51"/>
+      <c r="R160" s="51"/>
+    </row>
+    <row r="161" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A161" s="46"/>
+      <c r="B161" s="47"/>
+      <c r="C161" s="47"/>
+      <c r="D161" s="47"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="48"/>
+      <c r="H161" s="35"/>
+      <c r="I161" s="51"/>
+      <c r="J161" s="51"/>
+      <c r="K161" s="51"/>
+      <c r="O161" s="51"/>
+      <c r="P161" s="51"/>
+      <c r="Q161" s="51"/>
+      <c r="R161" s="51"/>
+    </row>
+    <row r="162" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A162" s="46"/>
+      <c r="B162" s="47"/>
+      <c r="C162" s="47"/>
+      <c r="D162" s="47"/>
+      <c r="E162" s="48"/>
+      <c r="F162" s="48"/>
+      <c r="H162" s="35"/>
+      <c r="I162" s="51"/>
+      <c r="J162" s="51"/>
+      <c r="K162" s="51"/>
+      <c r="O162" s="51"/>
+      <c r="P162" s="51"/>
+      <c r="Q162" s="51"/>
+      <c r="R162" s="51"/>
+    </row>
+    <row r="163" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A163" s="46"/>
+      <c r="B163" s="47"/>
+      <c r="C163" s="47"/>
+      <c r="D163" s="47"/>
+      <c r="E163" s="48"/>
+      <c r="F163" s="48"/>
+      <c r="H163" s="35"/>
+      <c r="I163" s="51"/>
+      <c r="J163" s="51"/>
+      <c r="K163" s="51"/>
+      <c r="O163" s="51"/>
+      <c r="P163" s="51"/>
+      <c r="Q163" s="51"/>
+      <c r="R163" s="51"/>
+    </row>
+    <row r="164" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A164" s="46"/>
+      <c r="B164" s="47"/>
+      <c r="C164" s="47"/>
+      <c r="D164" s="47"/>
+      <c r="E164" s="48"/>
+      <c r="F164" s="48"/>
+      <c r="H164" s="35"/>
+      <c r="I164" s="51"/>
+      <c r="J164" s="51"/>
+      <c r="K164" s="51"/>
+      <c r="O164" s="51"/>
+      <c r="P164" s="51"/>
+      <c r="Q164" s="51"/>
+      <c r="R164" s="51"/>
+    </row>
+    <row r="165" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A165" s="46"/>
+      <c r="B165" s="47"/>
+      <c r="C165" s="47"/>
+      <c r="D165" s="47"/>
+      <c r="E165" s="48"/>
+      <c r="F165" s="48"/>
+      <c r="H165" s="35"/>
+      <c r="I165" s="51"/>
+      <c r="J165" s="51"/>
+      <c r="K165" s="51"/>
+      <c r="O165" s="51"/>
+      <c r="P165" s="51"/>
+      <c r="Q165" s="51"/>
+      <c r="R165" s="51"/>
+    </row>
+    <row r="166" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A166" s="46"/>
+      <c r="B166" s="47"/>
+      <c r="C166" s="47"/>
+      <c r="D166" s="47"/>
+      <c r="E166" s="48"/>
+      <c r="F166" s="48"/>
+      <c r="H166" s="35"/>
+      <c r="I166" s="51"/>
+      <c r="J166" s="51"/>
+      <c r="K166" s="51"/>
+      <c r="O166" s="51"/>
+      <c r="P166" s="51"/>
+      <c r="Q166" s="51"/>
+      <c r="R166" s="51"/>
+    </row>
+    <row r="167" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="46"/>
+      <c r="B167" s="47"/>
+      <c r="C167" s="47"/>
+      <c r="D167" s="47"/>
+      <c r="E167" s="48"/>
+      <c r="F167" s="48"/>
+      <c r="H167" s="35"/>
+      <c r="I167" s="51"/>
+      <c r="J167" s="51"/>
+      <c r="K167" s="51"/>
+      <c r="O167" s="51"/>
+      <c r="P167" s="51"/>
+      <c r="Q167" s="51"/>
+      <c r="R167" s="51"/>
+    </row>
+    <row r="168" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="46"/>
+      <c r="B168" s="47"/>
+      <c r="C168" s="47"/>
+      <c r="D168" s="47"/>
+      <c r="E168" s="48"/>
+      <c r="F168" s="48"/>
+      <c r="H168" s="35"/>
+      <c r="I168" s="51"/>
+      <c r="J168" s="51"/>
+      <c r="K168" s="51"/>
+      <c r="O168" s="51"/>
+      <c r="P168" s="51"/>
+      <c r="Q168" s="51"/>
+      <c r="R168" s="51"/>
+    </row>
+    <row r="169" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="46"/>
+      <c r="B169" s="47"/>
+      <c r="C169" s="47"/>
+      <c r="D169" s="47"/>
+      <c r="E169" s="48"/>
+      <c r="F169" s="48"/>
+      <c r="H169" s="35"/>
+      <c r="I169" s="51"/>
+      <c r="J169" s="51"/>
+      <c r="K169" s="51"/>
+      <c r="O169" s="51"/>
+      <c r="P169" s="51"/>
+      <c r="Q169" s="51"/>
+      <c r="R169" s="51"/>
+    </row>
+    <row r="170" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A170" s="46"/>
+      <c r="B170" s="47"/>
+      <c r="C170" s="47"/>
+      <c r="D170" s="47"/>
+      <c r="E170" s="48"/>
+      <c r="F170" s="48"/>
+      <c r="H170" s="35"/>
+      <c r="I170" s="51"/>
+      <c r="J170" s="51"/>
+      <c r="K170" s="51"/>
+      <c r="O170" s="51"/>
+      <c r="P170" s="51"/>
+      <c r="Q170" s="51"/>
+      <c r="R170" s="51"/>
+    </row>
+    <row r="171" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A171" s="46"/>
+      <c r="B171" s="47"/>
+      <c r="C171" s="47"/>
+      <c r="D171" s="47"/>
+      <c r="E171" s="48"/>
+      <c r="F171" s="48"/>
+      <c r="H171" s="35"/>
+      <c r="I171" s="51"/>
+      <c r="J171" s="51"/>
+      <c r="K171" s="51"/>
+      <c r="O171" s="51"/>
+      <c r="P171" s="51"/>
+      <c r="Q171" s="51"/>
+      <c r="R171" s="51"/>
+    </row>
+    <row r="172" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="46"/>
+      <c r="B172" s="47"/>
+      <c r="C172" s="47"/>
+      <c r="D172" s="47"/>
+      <c r="E172" s="48"/>
+      <c r="F172" s="48"/>
+      <c r="H172" s="35"/>
+      <c r="I172" s="51"/>
+      <c r="J172" s="51"/>
+      <c r="K172" s="51"/>
+      <c r="O172" s="51"/>
+      <c r="P172" s="51"/>
+      <c r="Q172" s="51"/>
+      <c r="R172" s="51"/>
+    </row>
+    <row r="173" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A173" s="46"/>
+      <c r="B173" s="47"/>
+      <c r="C173" s="47"/>
+      <c r="D173" s="47"/>
+      <c r="E173" s="48"/>
+      <c r="F173" s="48"/>
+      <c r="H173" s="35"/>
+      <c r="I173" s="51"/>
+      <c r="J173" s="51"/>
+      <c r="K173" s="51"/>
+      <c r="O173" s="51"/>
+      <c r="P173" s="51"/>
+      <c r="Q173" s="51"/>
+      <c r="R173" s="51"/>
+    </row>
+    <row r="174" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A174" s="46"/>
+      <c r="B174" s="47"/>
+      <c r="C174" s="47"/>
+      <c r="D174" s="47"/>
+      <c r="E174" s="48"/>
+      <c r="F174" s="48"/>
+      <c r="H174" s="35"/>
+      <c r="I174" s="51"/>
+      <c r="J174" s="51"/>
+      <c r="K174" s="51"/>
+      <c r="O174" s="51"/>
+      <c r="P174" s="51"/>
+      <c r="Q174" s="51"/>
+      <c r="R174" s="51"/>
+    </row>
+    <row r="175" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A175" s="46"/>
+      <c r="B175" s="47"/>
+      <c r="C175" s="47"/>
+      <c r="D175" s="47"/>
+      <c r="E175" s="48"/>
+      <c r="F175" s="48"/>
+      <c r="H175" s="35"/>
+      <c r="I175" s="51"/>
+      <c r="J175" s="51"/>
+      <c r="K175" s="51"/>
+      <c r="O175" s="51"/>
+      <c r="P175" s="51"/>
+      <c r="Q175" s="51"/>
+      <c r="R175" s="51"/>
+    </row>
+    <row r="176" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A176" s="46"/>
+      <c r="B176" s="47"/>
+      <c r="C176" s="47"/>
+      <c r="D176" s="47"/>
+      <c r="E176" s="48"/>
+      <c r="F176" s="48"/>
+      <c r="H176" s="35"/>
+      <c r="I176" s="51"/>
+      <c r="J176" s="51"/>
+      <c r="K176" s="51"/>
+      <c r="O176" s="51"/>
+      <c r="P176" s="51"/>
+      <c r="Q176" s="51"/>
+      <c r="R176" s="51"/>
+    </row>
+    <row r="177" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A177" s="46"/>
+      <c r="B177" s="47"/>
+      <c r="C177" s="47"/>
+      <c r="D177" s="47"/>
+      <c r="E177" s="48"/>
+      <c r="F177" s="48"/>
+      <c r="H177" s="35"/>
+      <c r="I177" s="51"/>
+      <c r="J177" s="51"/>
+      <c r="K177" s="51"/>
+      <c r="O177" s="51"/>
+      <c r="P177" s="51"/>
+      <c r="Q177" s="51"/>
+      <c r="R177" s="51"/>
+    </row>
+    <row r="178" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A178" s="46"/>
+      <c r="B178" s="47"/>
+      <c r="C178" s="47"/>
+      <c r="D178" s="47"/>
+      <c r="E178" s="48"/>
+      <c r="F178" s="48"/>
+      <c r="H178" s="35"/>
+      <c r="I178" s="51"/>
+      <c r="J178" s="51"/>
+      <c r="K178" s="51"/>
+      <c r="O178" s="51"/>
+      <c r="P178" s="51"/>
+      <c r="Q178" s="51"/>
+      <c r="R178" s="51"/>
+    </row>
+    <row r="179" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="46"/>
+      <c r="B179" s="47"/>
+      <c r="C179" s="47"/>
+      <c r="D179" s="47"/>
+      <c r="E179" s="48"/>
+      <c r="F179" s="48"/>
+      <c r="H179" s="35"/>
+      <c r="I179" s="51"/>
+      <c r="J179" s="51"/>
+      <c r="K179" s="51"/>
+      <c r="O179" s="51"/>
+      <c r="P179" s="51"/>
+      <c r="Q179" s="51"/>
+      <c r="R179" s="51"/>
+    </row>
+    <row r="180" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A180" s="46"/>
+      <c r="B180" s="47"/>
+      <c r="C180" s="47"/>
+      <c r="D180" s="47"/>
+      <c r="E180" s="48"/>
+      <c r="F180" s="48"/>
+      <c r="H180" s="35"/>
+      <c r="I180" s="51"/>
+      <c r="J180" s="51"/>
+      <c r="K180" s="51"/>
+      <c r="O180" s="51"/>
+      <c r="P180" s="51"/>
+      <c r="Q180" s="51"/>
+      <c r="R180" s="51"/>
+    </row>
+    <row r="181" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="46"/>
+      <c r="B181" s="47"/>
+      <c r="C181" s="47"/>
+      <c r="D181" s="47"/>
+      <c r="E181" s="48"/>
+      <c r="F181" s="48"/>
+      <c r="H181" s="35"/>
+      <c r="I181" s="51"/>
+      <c r="J181" s="51"/>
+      <c r="K181" s="51"/>
+      <c r="O181" s="51"/>
+      <c r="P181" s="51"/>
+      <c r="Q181" s="51"/>
+      <c r="R181" s="51"/>
+    </row>
+    <row r="182" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A182" s="46"/>
+      <c r="B182" s="47"/>
+      <c r="C182" s="47"/>
+      <c r="D182" s="47"/>
+      <c r="E182" s="48"/>
+      <c r="F182" s="48"/>
+      <c r="H182" s="35"/>
+      <c r="I182" s="51"/>
+      <c r="J182" s="51"/>
+      <c r="K182" s="51"/>
+      <c r="O182" s="51"/>
+      <c r="P182" s="51"/>
+      <c r="Q182" s="51"/>
+      <c r="R182" s="51"/>
+    </row>
+    <row r="183" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A183" s="46"/>
+      <c r="B183" s="47"/>
+      <c r="C183" s="47"/>
+      <c r="D183" s="47"/>
+      <c r="E183" s="48"/>
+      <c r="F183" s="48"/>
+      <c r="H183" s="35"/>
+      <c r="I183" s="51"/>
+      <c r="J183" s="51"/>
+      <c r="K183" s="51"/>
+      <c r="O183" s="51"/>
+      <c r="P183" s="51"/>
+      <c r="Q183" s="51"/>
+      <c r="R183" s="51"/>
+    </row>
+    <row r="184" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="46"/>
+      <c r="B184" s="47"/>
+      <c r="C184" s="47"/>
+      <c r="D184" s="47"/>
+      <c r="E184" s="48"/>
+      <c r="F184" s="48"/>
+      <c r="H184" s="35"/>
+      <c r="I184" s="51"/>
+      <c r="J184" s="51"/>
+      <c r="K184" s="51"/>
+      <c r="O184" s="51"/>
+      <c r="P184" s="51"/>
+      <c r="Q184" s="51"/>
+      <c r="R184" s="51"/>
+    </row>
+    <row r="185" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A185" s="46"/>
+      <c r="B185" s="47"/>
+      <c r="C185" s="47"/>
+      <c r="D185" s="47"/>
+      <c r="E185" s="48"/>
+      <c r="F185" s="48"/>
+      <c r="H185" s="35"/>
+      <c r="I185" s="51"/>
+      <c r="J185" s="51"/>
+      <c r="K185" s="51"/>
+      <c r="O185" s="51"/>
+      <c r="P185" s="51"/>
+      <c r="Q185" s="51"/>
+      <c r="R185" s="51"/>
+    </row>
+    <row r="186" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A186" s="46"/>
+      <c r="B186" s="47"/>
+      <c r="C186" s="47"/>
+      <c r="D186" s="47"/>
+      <c r="E186" s="48"/>
+      <c r="F186" s="48"/>
+      <c r="H186" s="35"/>
+      <c r="I186" s="51"/>
+      <c r="J186" s="51"/>
+      <c r="K186" s="51"/>
+      <c r="O186" s="51"/>
+      <c r="P186" s="51"/>
+      <c r="Q186" s="51"/>
+      <c r="R186" s="51"/>
+    </row>
+    <row r="187" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A187" s="46"/>
+      <c r="B187" s="47"/>
+      <c r="C187" s="47"/>
+      <c r="D187" s="47"/>
+      <c r="E187" s="48"/>
+      <c r="F187" s="48"/>
+      <c r="H187" s="35"/>
+      <c r="I187" s="51"/>
+      <c r="J187" s="51"/>
+      <c r="K187" s="51"/>
+      <c r="O187" s="51"/>
+      <c r="P187" s="51"/>
+      <c r="Q187" s="51"/>
+      <c r="R187" s="51"/>
+    </row>
+    <row r="188" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A188" s="46"/>
+      <c r="B188" s="47"/>
+      <c r="C188" s="47"/>
+      <c r="D188" s="47"/>
+      <c r="E188" s="48"/>
+      <c r="F188" s="48"/>
+      <c r="H188" s="35"/>
+      <c r="I188" s="51"/>
+      <c r="J188" s="51"/>
+      <c r="K188" s="51"/>
+      <c r="O188" s="51"/>
+      <c r="P188" s="51"/>
+      <c r="Q188" s="51"/>
+      <c r="R188" s="51"/>
+    </row>
+    <row r="189" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A189" s="46"/>
+      <c r="B189" s="47"/>
+      <c r="C189" s="47"/>
+      <c r="D189" s="47"/>
+      <c r="E189" s="48"/>
+      <c r="F189" s="48"/>
+      <c r="H189" s="35"/>
+      <c r="I189" s="51"/>
+      <c r="J189" s="51"/>
+      <c r="K189" s="51"/>
+      <c r="O189" s="51"/>
+      <c r="P189" s="51"/>
+      <c r="Q189" s="51"/>
+      <c r="R189" s="51"/>
+    </row>
+    <row r="190" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A190" s="46"/>
+      <c r="B190" s="47"/>
+      <c r="C190" s="47"/>
+      <c r="D190" s="47"/>
+      <c r="E190" s="48"/>
+      <c r="F190" s="48"/>
+      <c r="H190" s="35"/>
+      <c r="I190" s="51"/>
+      <c r="J190" s="51"/>
+      <c r="K190" s="51"/>
+      <c r="O190" s="51"/>
+      <c r="P190" s="51"/>
+      <c r="Q190" s="51"/>
+      <c r="R190" s="51"/>
+    </row>
+    <row r="191" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="46"/>
+      <c r="B191" s="47"/>
+      <c r="C191" s="47"/>
+      <c r="D191" s="47"/>
+      <c r="E191" s="48"/>
+      <c r="F191" s="48"/>
+      <c r="H191" s="35"/>
+      <c r="I191" s="51"/>
+      <c r="J191" s="51"/>
+      <c r="K191" s="51"/>
+      <c r="O191" s="51"/>
+      <c r="P191" s="51"/>
+      <c r="Q191" s="51"/>
+      <c r="R191" s="51"/>
+    </row>
+    <row r="192" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A192" s="46"/>
+      <c r="B192" s="47"/>
+      <c r="C192" s="47"/>
+      <c r="D192" s="47"/>
+      <c r="E192" s="48"/>
+      <c r="F192" s="48"/>
+      <c r="H192" s="35"/>
+      <c r="I192" s="51"/>
+      <c r="J192" s="51"/>
+      <c r="K192" s="51"/>
+      <c r="O192" s="51"/>
+      <c r="P192" s="51"/>
+      <c r="Q192" s="51"/>
+      <c r="R192" s="51"/>
+    </row>
+    <row r="193" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A193" s="46"/>
+      <c r="B193" s="47"/>
+      <c r="C193" s="47"/>
+      <c r="D193" s="47"/>
+      <c r="E193" s="48"/>
+      <c r="F193" s="48"/>
+      <c r="H193" s="35"/>
+      <c r="I193" s="51"/>
+      <c r="J193" s="51"/>
+      <c r="K193" s="51"/>
+      <c r="O193" s="51"/>
+      <c r="P193" s="51"/>
+      <c r="Q193" s="51"/>
+      <c r="R193" s="51"/>
+    </row>
+    <row r="194" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A194" s="46"/>
+      <c r="B194" s="47"/>
+      <c r="C194" s="47"/>
+      <c r="D194" s="47"/>
+      <c r="E194" s="48"/>
+      <c r="F194" s="48"/>
+      <c r="H194" s="35"/>
+      <c r="I194" s="51"/>
+      <c r="J194" s="51"/>
+      <c r="K194" s="51"/>
+      <c r="O194" s="51"/>
+      <c r="P194" s="51"/>
+      <c r="Q194" s="51"/>
+      <c r="R194" s="51"/>
+    </row>
+    <row r="195" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A195" s="46"/>
+      <c r="B195" s="47"/>
+      <c r="C195" s="47"/>
+      <c r="D195" s="47"/>
+      <c r="E195" s="48"/>
+      <c r="F195" s="48"/>
+      <c r="H195" s="35"/>
+      <c r="I195" s="51"/>
+      <c r="J195" s="51"/>
+      <c r="K195" s="51"/>
+      <c r="O195" s="51"/>
+      <c r="P195" s="51"/>
+      <c r="Q195" s="51"/>
+      <c r="R195" s="51"/>
+    </row>
+    <row r="196" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A196" s="46"/>
+      <c r="B196" s="47"/>
+      <c r="C196" s="47"/>
+      <c r="D196" s="47"/>
+      <c r="E196" s="48"/>
+      <c r="F196" s="48"/>
+      <c r="H196" s="35"/>
+      <c r="I196" s="51"/>
+      <c r="J196" s="51"/>
+      <c r="K196" s="51"/>
+      <c r="O196" s="51"/>
+      <c r="P196" s="51"/>
+      <c r="Q196" s="51"/>
+      <c r="R196" s="51"/>
+    </row>
+    <row r="197" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="46"/>
+      <c r="B197" s="47"/>
+      <c r="C197" s="47"/>
+      <c r="D197" s="47"/>
+      <c r="E197" s="48"/>
+      <c r="F197" s="48"/>
+      <c r="H197" s="35"/>
+      <c r="I197" s="51"/>
+      <c r="J197" s="51"/>
+      <c r="K197" s="51"/>
+      <c r="O197" s="51"/>
+      <c r="P197" s="51"/>
+      <c r="Q197" s="51"/>
+      <c r="R197" s="51"/>
+    </row>
+    <row r="198" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="46"/>
+      <c r="B198" s="47"/>
+      <c r="C198" s="47"/>
+      <c r="D198" s="47"/>
+      <c r="E198" s="48"/>
+      <c r="F198" s="48"/>
+      <c r="H198" s="35"/>
+      <c r="I198" s="51"/>
+      <c r="J198" s="51"/>
+      <c r="K198" s="51"/>
+      <c r="O198" s="51"/>
+      <c r="P198" s="51"/>
+      <c r="Q198" s="51"/>
+      <c r="R198" s="51"/>
+    </row>
+    <row r="199" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A199" s="46"/>
+      <c r="B199" s="47"/>
+      <c r="C199" s="47"/>
+      <c r="D199" s="47"/>
+      <c r="E199" s="48"/>
+      <c r="F199" s="48"/>
+      <c r="H199" s="35"/>
+      <c r="I199" s="51"/>
+      <c r="J199" s="51"/>
+      <c r="K199" s="51"/>
+      <c r="O199" s="51"/>
+      <c r="P199" s="51"/>
+      <c r="Q199" s="51"/>
+      <c r="R199" s="51"/>
+    </row>
+    <row r="200" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="46"/>
+      <c r="B200" s="47"/>
+      <c r="C200" s="47"/>
+      <c r="D200" s="47"/>
+      <c r="E200" s="48"/>
+      <c r="F200" s="48"/>
+      <c r="H200" s="35"/>
+      <c r="I200" s="51"/>
+      <c r="J200" s="51"/>
+      <c r="K200" s="51"/>
+      <c r="O200" s="51"/>
+      <c r="P200" s="51"/>
+      <c r="Q200" s="51"/>
+      <c r="R200" s="51"/>
+    </row>
+    <row r="201" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="46"/>
+      <c r="B201" s="47"/>
+      <c r="C201" s="47"/>
+      <c r="D201" s="47"/>
+      <c r="E201" s="48"/>
+      <c r="F201" s="48"/>
+      <c r="H201" s="35"/>
+      <c r="I201" s="51"/>
+      <c r="J201" s="51"/>
+      <c r="K201" s="51"/>
+      <c r="O201" s="51"/>
+      <c r="P201" s="51"/>
+      <c r="Q201" s="51"/>
+      <c r="R201" s="51"/>
+    </row>
+    <row r="202" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A202" s="46"/>
+      <c r="B202" s="47"/>
+      <c r="C202" s="47"/>
+      <c r="D202" s="47"/>
+      <c r="E202" s="48"/>
+      <c r="F202" s="48"/>
+      <c r="H202" s="35"/>
+      <c r="I202" s="51"/>
+      <c r="J202" s="51"/>
+      <c r="K202" s="51"/>
+      <c r="O202" s="51"/>
+      <c r="P202" s="51"/>
+      <c r="Q202" s="51"/>
+      <c r="R202" s="51"/>
+    </row>
+    <row r="203" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A203" s="46"/>
+      <c r="B203" s="47"/>
+      <c r="C203" s="47"/>
+      <c r="D203" s="47"/>
+      <c r="E203" s="48"/>
+      <c r="F203" s="48"/>
+      <c r="H203" s="35"/>
+      <c r="I203" s="51"/>
+      <c r="J203" s="51"/>
+      <c r="K203" s="51"/>
+      <c r="O203" s="51"/>
+      <c r="P203" s="51"/>
+      <c r="Q203" s="51"/>
+      <c r="R203" s="51"/>
+    </row>
+    <row r="204" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A204" s="46"/>
+      <c r="B204" s="47"/>
+      <c r="C204" s="47"/>
+      <c r="D204" s="47"/>
+      <c r="E204" s="48"/>
+      <c r="F204" s="48"/>
+      <c r="H204" s="35"/>
+      <c r="I204" s="51"/>
+      <c r="J204" s="51"/>
+      <c r="K204" s="51"/>
+      <c r="O204" s="51"/>
+      <c r="P204" s="51"/>
+      <c r="Q204" s="51"/>
+      <c r="R204" s="51"/>
+    </row>
+    <row r="205" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A205" s="46"/>
+      <c r="B205" s="47"/>
+      <c r="C205" s="47"/>
+      <c r="D205" s="47"/>
+      <c r="E205" s="48"/>
+      <c r="F205" s="48"/>
+      <c r="H205" s="35"/>
+      <c r="I205" s="51"/>
+      <c r="J205" s="51"/>
+      <c r="K205" s="51"/>
+      <c r="O205" s="51"/>
+      <c r="P205" s="51"/>
+      <c r="Q205" s="51"/>
+      <c r="R205" s="51"/>
+    </row>
+    <row r="206" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A206" s="46"/>
+      <c r="B206" s="47"/>
+      <c r="C206" s="47"/>
+      <c r="D206" s="47"/>
+      <c r="E206" s="48"/>
+      <c r="F206" s="48"/>
+      <c r="H206" s="35"/>
+      <c r="I206" s="51"/>
+      <c r="J206" s="51"/>
+      <c r="K206" s="51"/>
+      <c r="O206" s="51"/>
+      <c r="P206" s="51"/>
+      <c r="Q206" s="51"/>
+      <c r="R206" s="51"/>
+    </row>
+    <row r="207" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A207" s="46"/>
+      <c r="B207" s="47"/>
+      <c r="C207" s="47"/>
+      <c r="D207" s="47"/>
+      <c r="E207" s="48"/>
+      <c r="F207" s="48"/>
+      <c r="H207" s="35"/>
+      <c r="I207" s="51"/>
+      <c r="J207" s="51"/>
+      <c r="K207" s="51"/>
+      <c r="O207" s="51"/>
+      <c r="P207" s="51"/>
+      <c r="Q207" s="51"/>
+      <c r="R207" s="51"/>
+    </row>
+    <row r="208" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A208" s="46"/>
+      <c r="B208" s="47"/>
+      <c r="C208" s="47"/>
+      <c r="D208" s="47"/>
+      <c r="E208" s="48"/>
+      <c r="F208" s="48"/>
+      <c r="H208" s="35"/>
+      <c r="I208" s="51"/>
+      <c r="J208" s="51"/>
+      <c r="K208" s="51"/>
+      <c r="O208" s="51"/>
+      <c r="P208" s="51"/>
+      <c r="Q208" s="51"/>
+      <c r="R208" s="51"/>
+    </row>
+    <row r="209" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A209" s="46"/>
+      <c r="B209" s="47"/>
+      <c r="C209" s="47"/>
+      <c r="D209" s="47"/>
+      <c r="E209" s="48"/>
+      <c r="F209" s="48"/>
+      <c r="H209" s="35"/>
+      <c r="I209" s="51"/>
+      <c r="J209" s="51"/>
+      <c r="K209" s="51"/>
+      <c r="O209" s="51"/>
+      <c r="P209" s="51"/>
+      <c r="Q209" s="51"/>
+      <c r="R209" s="51"/>
+    </row>
+    <row r="210" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A210" s="46"/>
+      <c r="B210" s="47"/>
+      <c r="C210" s="47"/>
+      <c r="D210" s="47"/>
+      <c r="E210" s="48"/>
+      <c r="F210" s="48"/>
+      <c r="H210" s="35"/>
+      <c r="I210" s="51"/>
+      <c r="J210" s="51"/>
+      <c r="K210" s="51"/>
+      <c r="O210" s="51"/>
+      <c r="P210" s="51"/>
+      <c r="Q210" s="51"/>
+      <c r="R210" s="51"/>
+    </row>
+    <row r="211" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A211" s="46"/>
+      <c r="B211" s="47"/>
+      <c r="C211" s="47"/>
+      <c r="D211" s="47"/>
+      <c r="E211" s="48"/>
+      <c r="F211" s="48"/>
+      <c r="H211" s="35"/>
+      <c r="I211" s="51"/>
+      <c r="J211" s="51"/>
+      <c r="K211" s="51"/>
+      <c r="O211" s="51"/>
+      <c r="P211" s="51"/>
+      <c r="Q211" s="51"/>
+      <c r="R211" s="51"/>
+    </row>
+    <row r="212" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A212" s="46"/>
+      <c r="B212" s="47"/>
+      <c r="C212" s="47"/>
+      <c r="D212" s="47"/>
+      <c r="E212" s="48"/>
+      <c r="F212" s="48"/>
+      <c r="H212" s="35"/>
+      <c r="I212" s="51"/>
+      <c r="J212" s="51"/>
+      <c r="K212" s="51"/>
+      <c r="O212" s="51"/>
+      <c r="P212" s="51"/>
+      <c r="Q212" s="51"/>
+      <c r="R212" s="51"/>
+    </row>
+    <row r="213" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A213" s="46"/>
+      <c r="B213" s="47"/>
+      <c r="C213" s="47"/>
+      <c r="D213" s="47"/>
+      <c r="E213" s="48"/>
+      <c r="F213" s="48"/>
+      <c r="H213" s="35"/>
+      <c r="I213" s="51"/>
+      <c r="J213" s="51"/>
+      <c r="K213" s="51"/>
+      <c r="O213" s="51"/>
+      <c r="P213" s="51"/>
+      <c r="Q213" s="51"/>
+      <c r="R213" s="51"/>
+    </row>
+    <row r="214" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A214" s="46"/>
+      <c r="B214" s="47"/>
+      <c r="C214" s="47"/>
+      <c r="D214" s="47"/>
+      <c r="E214" s="48"/>
+      <c r="F214" s="48"/>
+      <c r="H214" s="35"/>
+      <c r="I214" s="51"/>
+      <c r="J214" s="51"/>
+      <c r="K214" s="51"/>
+      <c r="O214" s="51"/>
+      <c r="P214" s="51"/>
+      <c r="Q214" s="51"/>
+      <c r="R214" s="51"/>
+    </row>
+    <row r="215" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A215" s="46"/>
+      <c r="B215" s="47"/>
+      <c r="C215" s="47"/>
+      <c r="D215" s="47"/>
+      <c r="E215" s="48"/>
+      <c r="F215" s="48"/>
+      <c r="H215" s="35"/>
+      <c r="I215" s="51"/>
+      <c r="J215" s="51"/>
+      <c r="K215" s="51"/>
+      <c r="O215" s="51"/>
+      <c r="P215" s="51"/>
+      <c r="Q215" s="51"/>
+      <c r="R215" s="51"/>
+    </row>
+    <row r="216" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A216" s="46"/>
+      <c r="B216" s="47"/>
+      <c r="C216" s="47"/>
+      <c r="D216" s="47"/>
+      <c r="E216" s="48"/>
+      <c r="F216" s="48"/>
+      <c r="H216" s="35"/>
+      <c r="I216" s="51"/>
+      <c r="J216" s="51"/>
+      <c r="K216" s="51"/>
+      <c r="O216" s="51"/>
+      <c r="P216" s="51"/>
+      <c r="Q216" s="51"/>
+      <c r="R216" s="51"/>
+    </row>
+    <row r="217" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A217" s="46"/>
+      <c r="B217" s="47"/>
+      <c r="C217" s="47"/>
+      <c r="D217" s="47"/>
+      <c r="E217" s="48"/>
+      <c r="F217" s="48"/>
+      <c r="H217" s="35"/>
+      <c r="I217" s="51"/>
+      <c r="J217" s="51"/>
+      <c r="K217" s="51"/>
+      <c r="O217" s="51"/>
+      <c r="P217" s="51"/>
+      <c r="Q217" s="51"/>
+      <c r="R217" s="51"/>
+    </row>
+    <row r="218" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A218" s="46"/>
+      <c r="B218" s="47"/>
+      <c r="C218" s="47"/>
+      <c r="D218" s="47"/>
+      <c r="E218" s="48"/>
+      <c r="F218" s="48"/>
+      <c r="H218" s="35"/>
+      <c r="I218" s="51"/>
+      <c r="J218" s="51"/>
+      <c r="K218" s="51"/>
+      <c r="O218" s="51"/>
+      <c r="P218" s="51"/>
+      <c r="Q218" s="51"/>
+      <c r="R218" s="51"/>
+    </row>
+    <row r="219" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A219" s="46"/>
+      <c r="B219" s="47"/>
+      <c r="C219" s="47"/>
+      <c r="D219" s="47"/>
+      <c r="E219" s="48"/>
+      <c r="F219" s="48"/>
+      <c r="H219" s="35"/>
+      <c r="I219" s="51"/>
+      <c r="J219" s="51"/>
+      <c r="K219" s="51"/>
+      <c r="O219" s="51"/>
+      <c r="P219" s="51"/>
+      <c r="Q219" s="51"/>
+      <c r="R219" s="51"/>
+    </row>
+    <row r="220" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A220" s="46"/>
+      <c r="B220" s="47"/>
+      <c r="C220" s="47"/>
+      <c r="D220" s="47"/>
+      <c r="E220" s="48"/>
+      <c r="F220" s="48"/>
+      <c r="H220" s="35"/>
+      <c r="I220" s="51"/>
+      <c r="J220" s="51"/>
+      <c r="K220" s="51"/>
+      <c r="O220" s="51"/>
+      <c r="P220" s="51"/>
+      <c r="Q220" s="51"/>
+      <c r="R220" s="51"/>
+    </row>
+    <row r="221" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A221" s="46"/>
+      <c r="B221" s="47"/>
+      <c r="C221" s="47"/>
+      <c r="D221" s="47"/>
+      <c r="E221" s="48"/>
+      <c r="F221" s="48"/>
+      <c r="H221" s="35"/>
+      <c r="I221" s="51"/>
+      <c r="J221" s="51"/>
+      <c r="K221" s="51"/>
+      <c r="O221" s="51"/>
+      <c r="P221" s="51"/>
+      <c r="Q221" s="51"/>
+      <c r="R221" s="51"/>
+    </row>
+    <row r="222" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A222" s="46"/>
+      <c r="B222" s="47"/>
+      <c r="C222" s="47"/>
+      <c r="D222" s="47"/>
+      <c r="E222" s="48"/>
+      <c r="F222" s="48"/>
+      <c r="H222" s="35"/>
+      <c r="I222" s="51"/>
+      <c r="J222" s="51"/>
+      <c r="K222" s="51"/>
+      <c r="O222" s="51"/>
+      <c r="P222" s="51"/>
+      <c r="Q222" s="51"/>
+      <c r="R222" s="51"/>
+    </row>
+    <row r="223" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A223" s="46"/>
+      <c r="B223" s="47"/>
+      <c r="C223" s="47"/>
+      <c r="D223" s="47"/>
+      <c r="E223" s="48"/>
+      <c r="F223" s="48"/>
+      <c r="H223" s="35"/>
+      <c r="I223" s="51"/>
+      <c r="J223" s="51"/>
+      <c r="K223" s="51"/>
+      <c r="O223" s="51"/>
+      <c r="P223" s="51"/>
+      <c r="Q223" s="51"/>
+      <c r="R223" s="51"/>
+    </row>
+    <row r="224" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A224" s="46"/>
+      <c r="B224" s="47"/>
+      <c r="C224" s="47"/>
+      <c r="D224" s="47"/>
+      <c r="E224" s="48"/>
+      <c r="F224" s="48"/>
+      <c r="H224" s="35"/>
+      <c r="I224" s="51"/>
+      <c r="J224" s="51"/>
+      <c r="K224" s="51"/>
+      <c r="O224" s="51"/>
+      <c r="P224" s="51"/>
+      <c r="Q224" s="51"/>
+      <c r="R224" s="51"/>
+    </row>
+    <row r="225" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A225" s="46"/>
+      <c r="B225" s="47"/>
+      <c r="C225" s="47"/>
+      <c r="D225" s="47"/>
+      <c r="E225" s="48"/>
+      <c r="F225" s="48"/>
+      <c r="H225" s="35"/>
+      <c r="I225" s="51"/>
+      <c r="J225" s="51"/>
+      <c r="K225" s="51"/>
+      <c r="O225" s="51"/>
+      <c r="P225" s="51"/>
+      <c r="Q225" s="51"/>
+      <c r="R225" s="51"/>
+    </row>
+    <row r="226" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A226" s="46"/>
+      <c r="B226" s="47"/>
+      <c r="C226" s="47"/>
+      <c r="D226" s="47"/>
+      <c r="E226" s="48"/>
+      <c r="F226" s="48"/>
+      <c r="H226" s="35"/>
+      <c r="I226" s="51"/>
+      <c r="J226" s="51"/>
+      <c r="K226" s="51"/>
+      <c r="O226" s="51"/>
+      <c r="P226" s="51"/>
+      <c r="Q226" s="51"/>
+      <c r="R226" s="51"/>
+    </row>
+    <row r="227" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A227" s="46"/>
+      <c r="B227" s="47"/>
+      <c r="C227" s="47"/>
+      <c r="D227" s="47"/>
+      <c r="E227" s="48"/>
+      <c r="F227" s="48"/>
+      <c r="H227" s="35"/>
+      <c r="I227" s="51"/>
+      <c r="J227" s="51"/>
+      <c r="K227" s="51"/>
+      <c r="O227" s="51"/>
+      <c r="P227" s="51"/>
+      <c r="Q227" s="51"/>
+      <c r="R227" s="51"/>
+    </row>
+    <row r="228" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A228" s="46"/>
+      <c r="B228" s="47"/>
+      <c r="C228" s="47"/>
+      <c r="D228" s="47"/>
+      <c r="E228" s="48"/>
+      <c r="F228" s="48"/>
+      <c r="H228" s="35"/>
+      <c r="I228" s="51"/>
+      <c r="J228" s="51"/>
+      <c r="K228" s="51"/>
+      <c r="O228" s="51"/>
+      <c r="P228" s="51"/>
+      <c r="Q228" s="51"/>
+      <c r="R228" s="51"/>
+    </row>
+    <row r="229" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A229" s="46"/>
+      <c r="B229" s="47"/>
+      <c r="C229" s="47"/>
+      <c r="D229" s="47"/>
+      <c r="E229" s="48"/>
+      <c r="F229" s="48"/>
+      <c r="H229" s="35"/>
+      <c r="I229" s="51"/>
+      <c r="J229" s="51"/>
+      <c r="K229" s="51"/>
+      <c r="O229" s="51"/>
+      <c r="P229" s="51"/>
+      <c r="Q229" s="51"/>
+      <c r="R229" s="51"/>
+    </row>
+    <row r="230" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A230" s="46"/>
+      <c r="B230" s="47"/>
+      <c r="C230" s="47"/>
+      <c r="D230" s="47"/>
+      <c r="E230" s="48"/>
+      <c r="F230" s="48"/>
+      <c r="H230" s="35"/>
+      <c r="I230" s="51"/>
+      <c r="J230" s="51"/>
+      <c r="K230" s="51"/>
+      <c r="O230" s="51"/>
+      <c r="P230" s="51"/>
+      <c r="Q230" s="51"/>
+      <c r="R230" s="51"/>
+    </row>
+    <row r="231" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A231" s="46"/>
+      <c r="B231" s="47"/>
+      <c r="C231" s="47"/>
+      <c r="D231" s="47"/>
+      <c r="E231" s="48"/>
+      <c r="F231" s="48"/>
+      <c r="H231" s="35"/>
+      <c r="I231" s="51"/>
+      <c r="J231" s="51"/>
+      <c r="K231" s="51"/>
+      <c r="O231" s="51"/>
+      <c r="P231" s="51"/>
+      <c r="Q231" s="51"/>
+      <c r="R231" s="51"/>
+    </row>
+    <row r="232" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A232" s="46"/>
+      <c r="B232" s="47"/>
+      <c r="C232" s="47"/>
+      <c r="D232" s="47"/>
+      <c r="E232" s="48"/>
+      <c r="F232" s="48"/>
+      <c r="H232" s="35"/>
+      <c r="I232" s="51"/>
+      <c r="J232" s="51"/>
+      <c r="K232" s="51"/>
+      <c r="O232" s="51"/>
+      <c r="P232" s="51"/>
+      <c r="Q232" s="51"/>
+      <c r="R232" s="51"/>
+    </row>
+    <row r="233" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A233" s="46"/>
+      <c r="B233" s="47"/>
+      <c r="C233" s="47"/>
+      <c r="D233" s="47"/>
+      <c r="E233" s="48"/>
+      <c r="F233" s="48"/>
+      <c r="H233" s="35"/>
+      <c r="I233" s="51"/>
+      <c r="J233" s="51"/>
+      <c r="K233" s="51"/>
+      <c r="O233" s="51"/>
+      <c r="P233" s="51"/>
+      <c r="Q233" s="51"/>
+      <c r="R233" s="51"/>
+    </row>
+    <row r="234" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A234" s="46"/>
+      <c r="B234" s="47"/>
+      <c r="C234" s="47"/>
+      <c r="D234" s="47"/>
+      <c r="E234" s="48"/>
+      <c r="F234" s="48"/>
+      <c r="H234" s="35"/>
+      <c r="I234" s="51"/>
+      <c r="J234" s="51"/>
+      <c r="K234" s="51"/>
+      <c r="O234" s="51"/>
+      <c r="P234" s="51"/>
+      <c r="Q234" s="51"/>
+      <c r="R234" s="51"/>
+    </row>
+    <row r="235" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A235" s="46"/>
+      <c r="B235" s="47"/>
+      <c r="C235" s="47"/>
+      <c r="D235" s="47"/>
+      <c r="E235" s="48"/>
+      <c r="F235" s="48"/>
+      <c r="H235" s="35"/>
+      <c r="I235" s="51"/>
+      <c r="J235" s="51"/>
+      <c r="K235" s="51"/>
+      <c r="O235" s="51"/>
+      <c r="P235" s="51"/>
+      <c r="Q235" s="51"/>
+      <c r="R235" s="51"/>
+    </row>
+    <row r="236" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A236" s="46"/>
+      <c r="B236" s="47"/>
+      <c r="C236" s="47"/>
+      <c r="D236" s="47"/>
+      <c r="E236" s="48"/>
+      <c r="F236" s="48"/>
+      <c r="H236" s="35"/>
+      <c r="I236" s="51"/>
+      <c r="J236" s="51"/>
+      <c r="K236" s="51"/>
+      <c r="O236" s="51"/>
+      <c r="P236" s="51"/>
+      <c r="Q236" s="51"/>
+      <c r="R236" s="51"/>
+    </row>
+    <row r="237" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A237" s="46"/>
+      <c r="B237" s="47"/>
+      <c r="C237" s="47"/>
+      <c r="D237" s="47"/>
+      <c r="E237" s="48"/>
+      <c r="F237" s="48"/>
+      <c r="H237" s="35"/>
+      <c r="I237" s="51"/>
+      <c r="J237" s="51"/>
+      <c r="K237" s="51"/>
+      <c r="O237" s="51"/>
+      <c r="P237" s="51"/>
+      <c r="Q237" s="51"/>
+      <c r="R237" s="51"/>
+    </row>
+    <row r="238" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A238" s="46"/>
+      <c r="B238" s="47"/>
+      <c r="C238" s="47"/>
+      <c r="D238" s="47"/>
+      <c r="E238" s="48"/>
+      <c r="F238" s="48"/>
+      <c r="H238" s="35"/>
+      <c r="I238" s="51"/>
+      <c r="J238" s="51"/>
+      <c r="K238" s="51"/>
+      <c r="O238" s="51"/>
+      <c r="P238" s="51"/>
+      <c r="Q238" s="51"/>
+      <c r="R238" s="51"/>
+    </row>
+    <row r="239" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A239" s="46"/>
+      <c r="B239" s="47"/>
+      <c r="C239" s="47"/>
+      <c r="D239" s="47"/>
+      <c r="E239" s="48"/>
+      <c r="F239" s="48"/>
+      <c r="H239" s="35"/>
+      <c r="I239" s="51"/>
+      <c r="J239" s="51"/>
+      <c r="K239" s="51"/>
+      <c r="O239" s="51"/>
+      <c r="P239" s="51"/>
+      <c r="Q239" s="51"/>
+      <c r="R239" s="51"/>
+    </row>
+    <row r="240" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A240" s="46"/>
+      <c r="B240" s="47"/>
+      <c r="C240" s="47"/>
+      <c r="D240" s="47"/>
+      <c r="E240" s="48"/>
+      <c r="F240" s="48"/>
+      <c r="H240" s="35"/>
+      <c r="I240" s="51"/>
+      <c r="J240" s="51"/>
+      <c r="K240" s="51"/>
+      <c r="O240" s="51"/>
+      <c r="P240" s="51"/>
+      <c r="Q240" s="51"/>
+      <c r="R240" s="51"/>
+    </row>
+    <row r="241" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A241" s="46"/>
+      <c r="B241" s="47"/>
+      <c r="C241" s="47"/>
+      <c r="D241" s="47"/>
+      <c r="E241" s="48"/>
+      <c r="F241" s="48"/>
+      <c r="H241" s="35"/>
+      <c r="I241" s="51"/>
+      <c r="J241" s="51"/>
+      <c r="K241" s="51"/>
+      <c r="O241" s="51"/>
+      <c r="P241" s="51"/>
+      <c r="Q241" s="51"/>
+      <c r="R241" s="51"/>
+    </row>
+    <row r="242" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A242" s="46"/>
+      <c r="B242" s="47"/>
+      <c r="C242" s="47"/>
+      <c r="D242" s="47"/>
+      <c r="E242" s="48"/>
+      <c r="F242" s="48"/>
+      <c r="H242" s="35"/>
+      <c r="I242" s="51"/>
+      <c r="J242" s="51"/>
+      <c r="K242" s="51"/>
+      <c r="O242" s="51"/>
+      <c r="P242" s="51"/>
+      <c r="Q242" s="51"/>
+      <c r="R242" s="51"/>
+    </row>
+    <row r="243" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A243" s="46"/>
+      <c r="B243" s="47"/>
+      <c r="C243" s="47"/>
+      <c r="D243" s="47"/>
+      <c r="E243" s="48"/>
+      <c r="F243" s="48"/>
+      <c r="H243" s="35"/>
+      <c r="I243" s="51"/>
+      <c r="J243" s="51"/>
+      <c r="K243" s="51"/>
+      <c r="O243" s="51"/>
+      <c r="P243" s="51"/>
+      <c r="Q243" s="51"/>
+      <c r="R243" s="51"/>
+    </row>
+    <row r="244" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A244" s="46"/>
+      <c r="B244" s="47"/>
+      <c r="C244" s="47"/>
+      <c r="D244" s="47"/>
+      <c r="E244" s="48"/>
+      <c r="F244" s="48"/>
+      <c r="H244" s="35"/>
+      <c r="I244" s="51"/>
+      <c r="J244" s="51"/>
+      <c r="K244" s="51"/>
+      <c r="O244" s="51"/>
+      <c r="P244" s="51"/>
+      <c r="Q244" s="51"/>
+      <c r="R244" s="51"/>
+    </row>
+    <row r="245" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A245" s="46"/>
+      <c r="B245" s="47"/>
+      <c r="C245" s="47"/>
+      <c r="D245" s="47"/>
+      <c r="E245" s="48"/>
+      <c r="F245" s="48"/>
+      <c r="H245" s="35"/>
+      <c r="I245" s="51"/>
+      <c r="J245" s="51"/>
+      <c r="K245" s="51"/>
+      <c r="O245" s="51"/>
+      <c r="P245" s="51"/>
+      <c r="Q245" s="51"/>
+      <c r="R245" s="51"/>
+    </row>
+    <row r="246" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A246" s="46"/>
+      <c r="B246" s="47"/>
+      <c r="C246" s="47"/>
+      <c r="D246" s="47"/>
+      <c r="E246" s="48"/>
+      <c r="F246" s="48"/>
+      <c r="H246" s="35"/>
+      <c r="I246" s="51"/>
+      <c r="J246" s="51"/>
+      <c r="K246" s="51"/>
+      <c r="O246" s="51"/>
+      <c r="P246" s="51"/>
+      <c r="Q246" s="51"/>
+      <c r="R246" s="51"/>
+    </row>
+    <row r="247" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A247" s="46"/>
+      <c r="B247" s="47"/>
+      <c r="C247" s="47"/>
+      <c r="D247" s="47"/>
+      <c r="E247" s="48"/>
+      <c r="F247" s="48"/>
+      <c r="H247" s="35"/>
+      <c r="I247" s="51"/>
+      <c r="J247" s="51"/>
+      <c r="K247" s="51"/>
+      <c r="O247" s="51"/>
+      <c r="P247" s="51"/>
+      <c r="Q247" s="51"/>
+      <c r="R247" s="51"/>
+    </row>
+    <row r="248" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="46"/>
+      <c r="B248" s="47"/>
+      <c r="C248" s="47"/>
+      <c r="D248" s="47"/>
+      <c r="E248" s="48"/>
+      <c r="F248" s="48"/>
+      <c r="H248" s="35"/>
+      <c r="I248" s="51"/>
+      <c r="J248" s="51"/>
+      <c r="K248" s="51"/>
+      <c r="O248" s="51"/>
+      <c r="P248" s="51"/>
+      <c r="Q248" s="51"/>
+      <c r="R248" s="51"/>
+    </row>
+    <row r="249" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="46"/>
+      <c r="B249" s="47"/>
+      <c r="C249" s="47"/>
+      <c r="D249" s="47"/>
+      <c r="E249" s="48"/>
+      <c r="F249" s="48"/>
+      <c r="H249" s="35"/>
+      <c r="I249" s="51"/>
+      <c r="J249" s="51"/>
+      <c r="K249" s="51"/>
+      <c r="O249" s="51"/>
+      <c r="P249" s="51"/>
+      <c r="Q249" s="51"/>
+      <c r="R249" s="51"/>
+    </row>
+    <row r="250" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A250" s="46"/>
+      <c r="B250" s="47"/>
+      <c r="C250" s="47"/>
+      <c r="D250" s="47"/>
+      <c r="E250" s="48"/>
+      <c r="F250" s="48"/>
+      <c r="H250" s="35"/>
+      <c r="I250" s="51"/>
+      <c r="J250" s="51"/>
+      <c r="K250" s="51"/>
+      <c r="O250" s="51"/>
+      <c r="P250" s="51"/>
+      <c r="Q250" s="51"/>
+      <c r="R250" s="51"/>
+    </row>
+    <row r="251" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A251" s="46"/>
+      <c r="B251" s="47"/>
+      <c r="C251" s="47"/>
+      <c r="D251" s="47"/>
+      <c r="E251" s="48"/>
+      <c r="F251" s="48"/>
+      <c r="H251" s="35"/>
+      <c r="I251" s="51"/>
+      <c r="J251" s="51"/>
+      <c r="K251" s="51"/>
+      <c r="O251" s="51"/>
+      <c r="P251" s="51"/>
+      <c r="Q251" s="51"/>
+      <c r="R251" s="51"/>
+    </row>
+    <row r="252" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A252" s="46"/>
+      <c r="B252" s="47"/>
+      <c r="C252" s="47"/>
+      <c r="D252" s="47"/>
+      <c r="E252" s="48"/>
+      <c r="F252" s="48"/>
+      <c r="H252" s="35"/>
+      <c r="I252" s="51"/>
+      <c r="J252" s="51"/>
+      <c r="K252" s="51"/>
+      <c r="O252" s="51"/>
+      <c r="P252" s="51"/>
+      <c r="Q252" s="51"/>
+      <c r="R252" s="51"/>
+    </row>
+    <row r="253" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A253" s="46"/>
+      <c r="B253" s="47"/>
+      <c r="C253" s="47"/>
+      <c r="D253" s="47"/>
+      <c r="E253" s="48"/>
+      <c r="F253" s="48"/>
+      <c r="H253" s="35"/>
+      <c r="I253" s="51"/>
+      <c r="J253" s="51"/>
+      <c r="K253" s="51"/>
+      <c r="O253" s="51"/>
+      <c r="P253" s="51"/>
+      <c r="Q253" s="51"/>
+      <c r="R253" s="51"/>
+    </row>
+    <row r="254" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A254" s="46"/>
+      <c r="B254" s="47"/>
+      <c r="C254" s="47"/>
+      <c r="D254" s="47"/>
+      <c r="E254" s="48"/>
+      <c r="F254" s="48"/>
+      <c r="H254" s="35"/>
+      <c r="I254" s="51"/>
+      <c r="J254" s="51"/>
+      <c r="K254" s="51"/>
+      <c r="O254" s="51"/>
+      <c r="P254" s="51"/>
+      <c r="Q254" s="51"/>
+      <c r="R254" s="51"/>
+    </row>
+    <row r="255" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A255" s="46"/>
+      <c r="B255" s="47"/>
+      <c r="C255" s="47"/>
+      <c r="D255" s="47"/>
+      <c r="E255" s="48"/>
+      <c r="F255" s="48"/>
+      <c r="H255" s="35"/>
+      <c r="I255" s="51"/>
+      <c r="J255" s="51"/>
+      <c r="K255" s="51"/>
+      <c r="O255" s="51"/>
+      <c r="P255" s="51"/>
+      <c r="Q255" s="51"/>
+      <c r="R255" s="51"/>
+    </row>
+    <row r="256" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A256" s="46"/>
+      <c r="B256" s="47"/>
+      <c r="C256" s="47"/>
+      <c r="D256" s="47"/>
+      <c r="E256" s="48"/>
+      <c r="F256" s="48"/>
+      <c r="H256" s="35"/>
+      <c r="I256" s="51"/>
+      <c r="J256" s="51"/>
+      <c r="K256" s="51"/>
+      <c r="O256" s="51"/>
+      <c r="P256" s="51"/>
+      <c r="Q256" s="51"/>
+      <c r="R256" s="51"/>
+    </row>
+    <row r="257" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A257" s="46"/>
+      <c r="B257" s="47"/>
+      <c r="C257" s="47"/>
+      <c r="D257" s="47"/>
+      <c r="E257" s="48"/>
+      <c r="F257" s="48"/>
+      <c r="H257" s="35"/>
+      <c r="I257" s="51"/>
+      <c r="J257" s="51"/>
+      <c r="K257" s="51"/>
+      <c r="O257" s="51"/>
+      <c r="P257" s="51"/>
+      <c r="Q257" s="51"/>
+      <c r="R257" s="51"/>
+    </row>
+    <row r="258" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A258" s="46"/>
+      <c r="B258" s="47"/>
+      <c r="C258" s="47"/>
+      <c r="D258" s="47"/>
+      <c r="E258" s="48"/>
+      <c r="F258" s="48"/>
+      <c r="H258" s="35"/>
+      <c r="I258" s="51"/>
+      <c r="J258" s="51"/>
+      <c r="K258" s="51"/>
+      <c r="O258" s="51"/>
+      <c r="P258" s="51"/>
+      <c r="Q258" s="51"/>
+      <c r="R258" s="51"/>
+    </row>
+    <row r="259" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A259" s="46"/>
+      <c r="B259" s="47"/>
+      <c r="C259" s="47"/>
+      <c r="D259" s="47"/>
+      <c r="E259" s="48"/>
+      <c r="F259" s="48"/>
+      <c r="H259" s="35"/>
+      <c r="I259" s="51"/>
+      <c r="J259" s="51"/>
+      <c r="K259" s="51"/>
+      <c r="O259" s="51"/>
+      <c r="P259" s="51"/>
+      <c r="Q259" s="51"/>
+      <c r="R259" s="51"/>
+    </row>
+    <row r="260" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A260" s="46"/>
+      <c r="B260" s="47"/>
+      <c r="C260" s="47"/>
+      <c r="D260" s="47"/>
+      <c r="E260" s="48"/>
+      <c r="F260" s="48"/>
+      <c r="H260" s="35"/>
+      <c r="I260" s="51"/>
+      <c r="J260" s="51"/>
+      <c r="K260" s="51"/>
+      <c r="O260" s="51"/>
+      <c r="P260" s="51"/>
+      <c r="Q260" s="51"/>
+      <c r="R260" s="51"/>
+    </row>
+    <row r="261" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A261" s="46"/>
+      <c r="B261" s="47"/>
+      <c r="C261" s="47"/>
+      <c r="D261" s="47"/>
+      <c r="E261" s="48"/>
+      <c r="F261" s="48"/>
+      <c r="H261" s="35"/>
+      <c r="I261" s="51"/>
+      <c r="J261" s="51"/>
+      <c r="K261" s="51"/>
+      <c r="O261" s="51"/>
+      <c r="P261" s="51"/>
+      <c r="Q261" s="51"/>
+      <c r="R261" s="51"/>
+    </row>
+    <row r="262" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A262" s="46"/>
+      <c r="B262" s="47"/>
+      <c r="C262" s="47"/>
+      <c r="D262" s="47"/>
+      <c r="E262" s="48"/>
+      <c r="F262" s="48"/>
+      <c r="H262" s="35"/>
+      <c r="I262" s="51"/>
+      <c r="J262" s="51"/>
+      <c r="K262" s="51"/>
+      <c r="O262" s="51"/>
+      <c r="P262" s="51"/>
+      <c r="Q262" s="51"/>
+      <c r="R262" s="51"/>
+    </row>
+    <row r="263" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A263" s="46"/>
+      <c r="B263" s="47"/>
+      <c r="C263" s="47"/>
+      <c r="D263" s="47"/>
+      <c r="E263" s="48"/>
+      <c r="F263" s="48"/>
+      <c r="H263" s="35"/>
+      <c r="I263" s="51"/>
+      <c r="J263" s="51"/>
+      <c r="K263" s="51"/>
+      <c r="O263" s="51"/>
+      <c r="P263" s="51"/>
+      <c r="Q263" s="51"/>
+      <c r="R263" s="51"/>
+    </row>
+    <row r="264" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A264" s="46"/>
+      <c r="B264" s="47"/>
+      <c r="C264" s="47"/>
+      <c r="D264" s="47"/>
+      <c r="E264" s="48"/>
+      <c r="F264" s="48"/>
+      <c r="H264" s="35"/>
+      <c r="I264" s="51"/>
+      <c r="J264" s="51"/>
+      <c r="K264" s="51"/>
+      <c r="O264" s="51"/>
+      <c r="P264" s="51"/>
+      <c r="Q264" s="51"/>
+      <c r="R264" s="51"/>
+    </row>
+    <row r="265" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A265" s="46"/>
+      <c r="B265" s="47"/>
+      <c r="C265" s="47"/>
+      <c r="D265" s="47"/>
+      <c r="E265" s="48"/>
+      <c r="F265" s="48"/>
+      <c r="H265" s="35"/>
+      <c r="I265" s="51"/>
+      <c r="J265" s="51"/>
+      <c r="K265" s="51"/>
+      <c r="O265" s="51"/>
+      <c r="P265" s="51"/>
+      <c r="Q265" s="51"/>
+      <c r="R265" s="51"/>
+    </row>
+    <row r="266" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A266" s="46"/>
+      <c r="B266" s="47"/>
+      <c r="C266" s="47"/>
+      <c r="D266" s="47"/>
+      <c r="E266" s="48"/>
+      <c r="F266" s="48"/>
+      <c r="H266" s="35"/>
+      <c r="I266" s="51"/>
+      <c r="J266" s="51"/>
+      <c r="K266" s="51"/>
+      <c r="O266" s="51"/>
+      <c r="P266" s="51"/>
+      <c r="Q266" s="51"/>
+      <c r="R266" s="51"/>
+    </row>
+    <row r="267" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A267" s="46"/>
+      <c r="B267" s="47"/>
+      <c r="C267" s="47"/>
+      <c r="D267" s="47"/>
+      <c r="E267" s="48"/>
+      <c r="F267" s="48"/>
+      <c r="H267" s="35"/>
+      <c r="I267" s="51"/>
+      <c r="J267" s="51"/>
+      <c r="K267" s="51"/>
+      <c r="O267" s="51"/>
+      <c r="P267" s="51"/>
+      <c r="Q267" s="51"/>
+      <c r="R267" s="51"/>
+    </row>
+    <row r="268" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A268" s="46"/>
+      <c r="B268" s="47"/>
+      <c r="C268" s="47"/>
+      <c r="D268" s="47"/>
+      <c r="E268" s="48"/>
+      <c r="F268" s="48"/>
+      <c r="H268" s="35"/>
+      <c r="I268" s="51"/>
+      <c r="J268" s="51"/>
+      <c r="K268" s="51"/>
+      <c r="O268" s="51"/>
+      <c r="P268" s="51"/>
+      <c r="Q268" s="51"/>
+      <c r="R268" s="51"/>
+    </row>
+    <row r="269" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A269" s="46"/>
+      <c r="B269" s="47"/>
+      <c r="C269" s="47"/>
+      <c r="D269" s="47"/>
+      <c r="E269" s="48"/>
+      <c r="F269" s="48"/>
+      <c r="H269" s="35"/>
+      <c r="I269" s="51"/>
+      <c r="J269" s="51"/>
+      <c r="K269" s="51"/>
+      <c r="O269" s="51"/>
+      <c r="P269" s="51"/>
+      <c r="Q269" s="51"/>
+      <c r="R269" s="51"/>
+    </row>
+    <row r="270" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A270" s="46"/>
+      <c r="B270" s="47"/>
+      <c r="C270" s="47"/>
+      <c r="D270" s="47"/>
+      <c r="E270" s="48"/>
+      <c r="F270" s="48"/>
+      <c r="H270" s="35"/>
+      <c r="I270" s="51"/>
+      <c r="J270" s="51"/>
+      <c r="K270" s="51"/>
+      <c r="O270" s="51"/>
+      <c r="P270" s="51"/>
+      <c r="Q270" s="51"/>
+      <c r="R270" s="51"/>
+    </row>
+    <row r="271" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A271" s="46"/>
+      <c r="B271" s="47"/>
+      <c r="C271" s="47"/>
+      <c r="D271" s="47"/>
+      <c r="E271" s="48"/>
+      <c r="F271" s="48"/>
+      <c r="H271" s="35"/>
+      <c r="I271" s="51"/>
+      <c r="J271" s="51"/>
+      <c r="K271" s="51"/>
+      <c r="O271" s="51"/>
+      <c r="P271" s="51"/>
+      <c r="Q271" s="51"/>
+      <c r="R271" s="51"/>
+    </row>
+    <row r="272" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A272" s="46"/>
+      <c r="B272" s="47"/>
+      <c r="C272" s="47"/>
+      <c r="D272" s="47"/>
+      <c r="E272" s="48"/>
+      <c r="F272" s="48"/>
+      <c r="H272" s="35"/>
+      <c r="I272" s="51"/>
+      <c r="J272" s="51"/>
+      <c r="K272" s="51"/>
+      <c r="O272" s="51"/>
+      <c r="P272" s="51"/>
+      <c r="Q272" s="51"/>
+      <c r="R272" s="51"/>
+    </row>
+    <row r="273" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A273" s="46"/>
+      <c r="B273" s="47"/>
+      <c r="C273" s="47"/>
+      <c r="D273" s="47"/>
+      <c r="E273" s="48"/>
+      <c r="F273" s="48"/>
+      <c r="H273" s="35"/>
+      <c r="I273" s="51"/>
+      <c r="J273" s="51"/>
+      <c r="K273" s="51"/>
+      <c r="O273" s="51"/>
+      <c r="P273" s="51"/>
+      <c r="Q273" s="51"/>
+      <c r="R273" s="51"/>
+    </row>
+    <row r="274" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A274" s="46"/>
+      <c r="B274" s="47"/>
+      <c r="C274" s="47"/>
+      <c r="D274" s="47"/>
+      <c r="E274" s="48"/>
+      <c r="F274" s="48"/>
+      <c r="H274" s="35"/>
+      <c r="I274" s="51"/>
+      <c r="J274" s="51"/>
+      <c r="K274" s="51"/>
+      <c r="O274" s="51"/>
+      <c r="P274" s="51"/>
+      <c r="Q274" s="51"/>
+      <c r="R274" s="51"/>
+    </row>
+    <row r="275" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A275" s="46"/>
+      <c r="B275" s="47"/>
+      <c r="C275" s="47"/>
+      <c r="D275" s="47"/>
+      <c r="E275" s="48"/>
+      <c r="F275" s="48"/>
+      <c r="H275" s="35"/>
+      <c r="I275" s="51"/>
+      <c r="J275" s="51"/>
+      <c r="K275" s="51"/>
+      <c r="O275" s="51"/>
+      <c r="P275" s="51"/>
+      <c r="Q275" s="51"/>
+      <c r="R275" s="51"/>
+    </row>
+    <row r="276" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A276" s="46"/>
+      <c r="B276" s="47"/>
+      <c r="C276" s="47"/>
+      <c r="D276" s="47"/>
+      <c r="E276" s="48"/>
+      <c r="F276" s="48"/>
+      <c r="H276" s="35"/>
+      <c r="I276" s="51"/>
+      <c r="J276" s="51"/>
+      <c r="K276" s="51"/>
+      <c r="O276" s="51"/>
+      <c r="P276" s="51"/>
+      <c r="Q276" s="51"/>
+      <c r="R276" s="51"/>
+    </row>
+    <row r="277" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A277" s="46"/>
+      <c r="B277" s="47"/>
+      <c r="C277" s="47"/>
+      <c r="D277" s="47"/>
+      <c r="E277" s="48"/>
+      <c r="F277" s="48"/>
+      <c r="H277" s="35"/>
+      <c r="I277" s="51"/>
+      <c r="J277" s="51"/>
+      <c r="K277" s="51"/>
+      <c r="O277" s="51"/>
+      <c r="P277" s="51"/>
+      <c r="Q277" s="51"/>
+      <c r="R277" s="51"/>
+    </row>
+    <row r="278" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A278" s="46"/>
+      <c r="B278" s="47"/>
+      <c r="C278" s="47"/>
+      <c r="D278" s="47"/>
+      <c r="E278" s="48"/>
+      <c r="F278" s="48"/>
+      <c r="H278" s="35"/>
+      <c r="I278" s="51"/>
+      <c r="J278" s="51"/>
+      <c r="K278" s="51"/>
+      <c r="O278" s="51"/>
+      <c r="P278" s="51"/>
+      <c r="Q278" s="51"/>
+      <c r="R278" s="51"/>
+    </row>
+    <row r="279" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A279" s="46"/>
+      <c r="B279" s="47"/>
+      <c r="C279" s="47"/>
+      <c r="D279" s="47"/>
+      <c r="E279" s="48"/>
+      <c r="F279" s="48"/>
+      <c r="H279" s="35"/>
+      <c r="I279" s="51"/>
+      <c r="J279" s="51"/>
+      <c r="K279" s="51"/>
+      <c r="O279" s="51"/>
+      <c r="P279" s="51"/>
+      <c r="Q279" s="51"/>
+      <c r="R279" s="51"/>
+    </row>
+    <row r="280" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A280" s="46"/>
+      <c r="B280" s="47"/>
+      <c r="C280" s="47"/>
+      <c r="D280" s="47"/>
+      <c r="E280" s="48"/>
+      <c r="F280" s="48"/>
+      <c r="H280" s="35"/>
+      <c r="I280" s="51"/>
+      <c r="J280" s="51"/>
+      <c r="K280" s="51"/>
+      <c r="O280" s="51"/>
+      <c r="P280" s="51"/>
+      <c r="Q280" s="51"/>
+      <c r="R280" s="51"/>
+    </row>
+    <row r="281" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A281" s="46"/>
+      <c r="B281" s="47"/>
+      <c r="C281" s="47"/>
+      <c r="D281" s="47"/>
+      <c r="E281" s="48"/>
+      <c r="F281" s="48"/>
+      <c r="H281" s="35"/>
+      <c r="I281" s="51"/>
+      <c r="J281" s="51"/>
+      <c r="K281" s="51"/>
+      <c r="O281" s="51"/>
+      <c r="P281" s="51"/>
+      <c r="Q281" s="51"/>
+      <c r="R281" s="51"/>
+    </row>
+    <row r="282" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A282" s="46"/>
+      <c r="B282" s="47"/>
+      <c r="C282" s="47"/>
+      <c r="D282" s="47"/>
+      <c r="E282" s="48"/>
+      <c r="F282" s="48"/>
+      <c r="H282" s="35"/>
+      <c r="I282" s="51"/>
+      <c r="J282" s="51"/>
+      <c r="K282" s="51"/>
+      <c r="O282" s="51"/>
+      <c r="P282" s="51"/>
+      <c r="Q282" s="51"/>
+      <c r="R282" s="51"/>
+    </row>
+    <row r="283" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A283" s="46"/>
+      <c r="B283" s="47"/>
+      <c r="C283" s="47"/>
+      <c r="D283" s="47"/>
+      <c r="E283" s="48"/>
+      <c r="F283" s="48"/>
+      <c r="H283" s="35"/>
+      <c r="I283" s="51"/>
+      <c r="J283" s="51"/>
+      <c r="K283" s="51"/>
+      <c r="O283" s="51"/>
+      <c r="P283" s="51"/>
+      <c r="Q283" s="51"/>
+      <c r="R283" s="51"/>
+    </row>
+    <row r="284" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A284" s="46"/>
+      <c r="B284" s="47"/>
+      <c r="C284" s="47"/>
+      <c r="D284" s="47"/>
+      <c r="E284" s="48"/>
+      <c r="F284" s="48"/>
+      <c r="H284" s="35"/>
+      <c r="I284" s="51"/>
+      <c r="J284" s="51"/>
+      <c r="K284" s="51"/>
+      <c r="O284" s="51"/>
+      <c r="P284" s="51"/>
+      <c r="Q284" s="51"/>
+      <c r="R284" s="51"/>
+    </row>
+    <row r="285" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A285" s="46"/>
+      <c r="B285" s="47"/>
+      <c r="C285" s="47"/>
+      <c r="D285" s="47"/>
+      <c r="E285" s="48"/>
+      <c r="F285" s="48"/>
+      <c r="H285" s="35"/>
+      <c r="I285" s="51"/>
+      <c r="J285" s="51"/>
+      <c r="K285" s="51"/>
+      <c r="O285" s="51"/>
+      <c r="P285" s="51"/>
+      <c r="Q285" s="51"/>
+      <c r="R285" s="51"/>
+    </row>
+    <row r="286" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A286" s="46"/>
+      <c r="B286" s="47"/>
+      <c r="C286" s="47"/>
+      <c r="D286" s="47"/>
+      <c r="E286" s="48"/>
+      <c r="F286" s="48"/>
+      <c r="H286" s="35"/>
+      <c r="I286" s="51"/>
+      <c r="J286" s="51"/>
+      <c r="K286" s="51"/>
+      <c r="O286" s="51"/>
+      <c r="P286" s="51"/>
+      <c r="Q286" s="51"/>
+      <c r="R286" s="51"/>
+    </row>
+    <row r="287" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A287" s="46"/>
+      <c r="B287" s="47"/>
+      <c r="C287" s="47"/>
+      <c r="D287" s="47"/>
+      <c r="E287" s="48"/>
+      <c r="F287" s="48"/>
+      <c r="H287" s="35"/>
+      <c r="I287" s="51"/>
+      <c r="J287" s="51"/>
+      <c r="K287" s="51"/>
+      <c r="O287" s="51"/>
+      <c r="P287" s="51"/>
+      <c r="Q287" s="51"/>
+      <c r="R287" s="51"/>
+    </row>
+    <row r="288" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A288" s="46"/>
+      <c r="B288" s="47"/>
+      <c r="C288" s="47"/>
+      <c r="D288" s="47"/>
+      <c r="E288" s="48"/>
+      <c r="F288" s="48"/>
+      <c r="H288" s="35"/>
+      <c r="I288" s="51"/>
+      <c r="J288" s="51"/>
+      <c r="K288" s="51"/>
+      <c r="O288" s="51"/>
+      <c r="P288" s="51"/>
+      <c r="Q288" s="51"/>
+      <c r="R288" s="51"/>
+    </row>
+    <row r="289" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A289" s="46"/>
+      <c r="B289" s="47"/>
+      <c r="C289" s="47"/>
+      <c r="D289" s="47"/>
+      <c r="E289" s="48"/>
+      <c r="F289" s="48"/>
+      <c r="H289" s="35"/>
+      <c r="I289" s="51"/>
+      <c r="J289" s="51"/>
+      <c r="K289" s="51"/>
+      <c r="O289" s="51"/>
+      <c r="P289" s="51"/>
+      <c r="Q289" s="51"/>
+      <c r="R289" s="51"/>
+    </row>
+    <row r="290" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A290" s="46"/>
+      <c r="B290" s="47"/>
+      <c r="C290" s="47"/>
+      <c r="D290" s="47"/>
+      <c r="E290" s="48"/>
+      <c r="F290" s="48"/>
+      <c r="H290" s="35"/>
+      <c r="I290" s="51"/>
+      <c r="J290" s="51"/>
+      <c r="K290" s="51"/>
+      <c r="O290" s="51"/>
+      <c r="P290" s="51"/>
+      <c r="Q290" s="51"/>
+      <c r="R290" s="51"/>
+    </row>
+    <row r="291" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A291" s="46"/>
+      <c r="B291" s="47"/>
+      <c r="C291" s="47"/>
+      <c r="D291" s="47"/>
+      <c r="E291" s="48"/>
+      <c r="F291" s="48"/>
+      <c r="H291" s="35"/>
+      <c r="I291" s="51"/>
+      <c r="J291" s="51"/>
+      <c r="K291" s="51"/>
+      <c r="O291" s="51"/>
+      <c r="P291" s="51"/>
+      <c r="Q291" s="51"/>
+      <c r="R291" s="51"/>
+    </row>
+    <row r="292" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A292" s="46"/>
+      <c r="B292" s="47"/>
+      <c r="C292" s="47"/>
+      <c r="D292" s="47"/>
+      <c r="E292" s="48"/>
+      <c r="F292" s="48"/>
+      <c r="H292" s="35"/>
+      <c r="I292" s="51"/>
+      <c r="J292" s="51"/>
+      <c r="K292" s="51"/>
+      <c r="O292" s="51"/>
+      <c r="P292" s="51"/>
+      <c r="Q292" s="51"/>
+      <c r="R292" s="51"/>
+    </row>
+    <row r="293" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A293" s="46"/>
+      <c r="B293" s="47"/>
+      <c r="C293" s="47"/>
+      <c r="D293" s="47"/>
+      <c r="E293" s="48"/>
+      <c r="F293" s="48"/>
+      <c r="H293" s="35"/>
+      <c r="I293" s="51"/>
+      <c r="J293" s="51"/>
+      <c r="K293" s="51"/>
+      <c r="O293" s="51"/>
+      <c r="P293" s="51"/>
+      <c r="Q293" s="51"/>
+      <c r="R293" s="51"/>
+    </row>
+    <row r="294" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A294" s="46"/>
+      <c r="B294" s="47"/>
+      <c r="C294" s="47"/>
+      <c r="D294" s="47"/>
+      <c r="E294" s="48"/>
+      <c r="F294" s="48"/>
+      <c r="H294" s="35"/>
+      <c r="I294" s="51"/>
+      <c r="J294" s="51"/>
+      <c r="K294" s="51"/>
+      <c r="O294" s="51"/>
+      <c r="P294" s="51"/>
+      <c r="Q294" s="51"/>
+      <c r="R294" s="51"/>
+    </row>
+    <row r="295" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A295" s="46"/>
+      <c r="B295" s="47"/>
+      <c r="C295" s="47"/>
+      <c r="D295" s="47"/>
+      <c r="E295" s="48"/>
+      <c r="F295" s="48"/>
+      <c r="H295" s="35"/>
+      <c r="I295" s="51"/>
+      <c r="J295" s="51"/>
+      <c r="K295" s="51"/>
+      <c r="O295" s="51"/>
+      <c r="P295" s="51"/>
+      <c r="Q295" s="51"/>
+      <c r="R295" s="51"/>
+    </row>
+    <row r="296" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A296" s="46"/>
+      <c r="B296" s="47"/>
+      <c r="C296" s="47"/>
+      <c r="D296" s="47"/>
+      <c r="E296" s="48"/>
+      <c r="F296" s="48"/>
+      <c r="H296" s="35"/>
+      <c r="I296" s="51"/>
+      <c r="J296" s="51"/>
+      <c r="K296" s="51"/>
+      <c r="O296" s="51"/>
+      <c r="P296" s="51"/>
+      <c r="Q296" s="51"/>
+      <c r="R296" s="51"/>
+    </row>
+    <row r="297" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A297" s="46"/>
+      <c r="B297" s="47"/>
+      <c r="C297" s="47"/>
+      <c r="D297" s="47"/>
+      <c r="E297" s="48"/>
+      <c r="F297" s="48"/>
+      <c r="H297" s="35"/>
+      <c r="I297" s="51"/>
+      <c r="J297" s="51"/>
+      <c r="K297" s="51"/>
+      <c r="O297" s="51"/>
+      <c r="P297" s="51"/>
+      <c r="Q297" s="51"/>
+      <c r="R297" s="51"/>
+    </row>
+    <row r="298" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A298" s="46"/>
+      <c r="B298" s="47"/>
+      <c r="C298" s="47"/>
+      <c r="D298" s="47"/>
+      <c r="E298" s="48"/>
+      <c r="F298" s="48"/>
+      <c r="H298" s="35"/>
+      <c r="I298" s="51"/>
+      <c r="J298" s="51"/>
+      <c r="K298" s="51"/>
+      <c r="O298" s="51"/>
+      <c r="P298" s="51"/>
+      <c r="Q298" s="51"/>
+      <c r="R298" s="51"/>
+    </row>
+    <row r="299" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A299" s="46"/>
+      <c r="B299" s="47"/>
+      <c r="C299" s="47"/>
+      <c r="D299" s="47"/>
+      <c r="E299" s="48"/>
+      <c r="F299" s="48"/>
+      <c r="H299" s="35"/>
+      <c r="I299" s="51"/>
+      <c r="J299" s="51"/>
+      <c r="K299" s="51"/>
+      <c r="O299" s="51"/>
+      <c r="P299" s="51"/>
+      <c r="Q299" s="51"/>
+      <c r="R299" s="51"/>
+    </row>
+    <row r="300" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A300" s="46"/>
+      <c r="B300" s="47"/>
+      <c r="C300" s="47"/>
+      <c r="D300" s="47"/>
+      <c r="E300" s="48"/>
+      <c r="F300" s="48"/>
+      <c r="H300" s="35"/>
+      <c r="I300" s="51"/>
+      <c r="J300" s="51"/>
+      <c r="K300" s="51"/>
+      <c r="O300" s="51"/>
+      <c r="P300" s="51"/>
+      <c r="Q300" s="51"/>
+      <c r="R300" s="51"/>
+    </row>
+    <row r="301" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A301" s="46"/>
+      <c r="B301" s="47"/>
+      <c r="C301" s="47"/>
+      <c r="D301" s="47"/>
+      <c r="E301" s="48"/>
+      <c r="F301" s="48"/>
+      <c r="H301" s="35"/>
+      <c r="I301" s="51"/>
+      <c r="J301" s="51"/>
+      <c r="K301" s="51"/>
+      <c r="O301" s="51"/>
+      <c r="P301" s="51"/>
+      <c r="Q301" s="51"/>
+      <c r="R301" s="51"/>
+    </row>
+    <row r="302" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A302" s="46"/>
+      <c r="B302" s="47"/>
+      <c r="C302" s="47"/>
+      <c r="D302" s="47"/>
+      <c r="E302" s="48"/>
+      <c r="F302" s="48"/>
+      <c r="H302" s="35"/>
+      <c r="I302" s="51"/>
+      <c r="J302" s="51"/>
+      <c r="K302" s="51"/>
+      <c r="O302" s="51"/>
+      <c r="P302" s="51"/>
+      <c r="Q302" s="51"/>
+      <c r="R302" s="51"/>
+    </row>
+    <row r="303" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A303" s="46"/>
+      <c r="B303" s="47"/>
+      <c r="C303" s="47"/>
+      <c r="D303" s="47"/>
+      <c r="E303" s="48"/>
+      <c r="F303" s="48"/>
+      <c r="H303" s="35"/>
+      <c r="I303" s="51"/>
+      <c r="J303" s="51"/>
+      <c r="K303" s="51"/>
+      <c r="O303" s="51"/>
+      <c r="P303" s="51"/>
+      <c r="Q303" s="51"/>
+      <c r="R303" s="51"/>
+    </row>
+    <row r="304" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A304" s="46"/>
+      <c r="B304" s="47"/>
+      <c r="C304" s="47"/>
+      <c r="D304" s="47"/>
+      <c r="E304" s="48"/>
+      <c r="F304" s="48"/>
+      <c r="H304" s="35"/>
+      <c r="I304" s="51"/>
+      <c r="J304" s="51"/>
+      <c r="K304" s="51"/>
+      <c r="O304" s="51"/>
+      <c r="P304" s="51"/>
+      <c r="Q304" s="51"/>
+      <c r="R304" s="51"/>
+    </row>
+    <row r="305" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A305" s="46"/>
+      <c r="B305" s="47"/>
+      <c r="C305" s="47"/>
+      <c r="D305" s="47"/>
+      <c r="E305" s="48"/>
+      <c r="F305" s="48"/>
+      <c r="H305" s="35"/>
+      <c r="I305" s="51"/>
+      <c r="J305" s="51"/>
+      <c r="K305" s="51"/>
+      <c r="O305" s="51"/>
+      <c r="P305" s="51"/>
+      <c r="Q305" s="51"/>
+      <c r="R305" s="51"/>
+    </row>
+    <row r="306" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A306" s="46"/>
+      <c r="B306" s="47"/>
+      <c r="C306" s="47"/>
+      <c r="D306" s="47"/>
+      <c r="E306" s="48"/>
+      <c r="F306" s="48"/>
+      <c r="H306" s="35"/>
+      <c r="I306" s="51"/>
+      <c r="J306" s="51"/>
+      <c r="K306" s="51"/>
+      <c r="O306" s="51"/>
+      <c r="P306" s="51"/>
+      <c r="Q306" s="51"/>
+      <c r="R306" s="51"/>
+    </row>
+    <row r="307" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A307" s="46"/>
+      <c r="B307" s="47"/>
+      <c r="C307" s="47"/>
+      <c r="D307" s="47"/>
+      <c r="E307" s="48"/>
+      <c r="F307" s="48"/>
+      <c r="H307" s="35"/>
+      <c r="I307" s="51"/>
+      <c r="J307" s="51"/>
+      <c r="K307" s="51"/>
+      <c r="O307" s="51"/>
+      <c r="P307" s="51"/>
+      <c r="Q307" s="51"/>
+      <c r="R307" s="51"/>
+    </row>
+    <row r="308" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A308" s="46"/>
+      <c r="B308" s="47"/>
+      <c r="C308" s="47"/>
+      <c r="D308" s="47"/>
+      <c r="E308" s="48"/>
+      <c r="F308" s="48"/>
+      <c r="H308" s="35"/>
+      <c r="I308" s="51"/>
+      <c r="J308" s="51"/>
+      <c r="K308" s="51"/>
+      <c r="O308" s="51"/>
+      <c r="P308" s="51"/>
+      <c r="Q308" s="51"/>
+      <c r="R308" s="51"/>
+    </row>
+    <row r="309" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A309" s="46"/>
+      <c r="B309" s="47"/>
+      <c r="C309" s="47"/>
+      <c r="D309" s="47"/>
+      <c r="E309" s="48"/>
+      <c r="F309" s="48"/>
+      <c r="H309" s="35"/>
+      <c r="I309" s="51"/>
+      <c r="J309" s="51"/>
+      <c r="K309" s="51"/>
+      <c r="O309" s="51"/>
+      <c r="P309" s="51"/>
+      <c r="Q309" s="51"/>
+      <c r="R309" s="51"/>
+    </row>
+    <row r="310" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A310" s="46"/>
+      <c r="B310" s="47"/>
+      <c r="C310" s="47"/>
+      <c r="D310" s="47"/>
+      <c r="E310" s="48"/>
+      <c r="F310" s="48"/>
+      <c r="H310" s="35"/>
+      <c r="I310" s="51"/>
+      <c r="J310" s="51"/>
+      <c r="K310" s="51"/>
+      <c r="O310" s="51"/>
+      <c r="P310" s="51"/>
+      <c r="Q310" s="51"/>
+      <c r="R310" s="51"/>
+    </row>
+    <row r="311" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A311" s="46"/>
+      <c r="B311" s="47"/>
+      <c r="C311" s="47"/>
+      <c r="D311" s="47"/>
+      <c r="E311" s="48"/>
+      <c r="F311" s="48"/>
+      <c r="H311" s="35"/>
+      <c r="I311" s="51"/>
+      <c r="J311" s="51"/>
+      <c r="K311" s="51"/>
+      <c r="O311" s="51"/>
+      <c r="P311" s="51"/>
+      <c r="Q311" s="51"/>
+      <c r="R311" s="51"/>
+    </row>
+    <row r="312" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A312" s="46"/>
+      <c r="B312" s="47"/>
+      <c r="C312" s="47"/>
+      <c r="D312" s="47"/>
+      <c r="E312" s="48"/>
+      <c r="F312" s="48"/>
+      <c r="H312" s="35"/>
+      <c r="I312" s="51"/>
+      <c r="J312" s="51"/>
+      <c r="K312" s="51"/>
+      <c r="O312" s="51"/>
+      <c r="P312" s="51"/>
+      <c r="Q312" s="51"/>
+      <c r="R312" s="51"/>
+    </row>
+    <row r="313" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A313" s="46"/>
+      <c r="B313" s="47"/>
+      <c r="C313" s="47"/>
+      <c r="D313" s="47"/>
+      <c r="E313" s="48"/>
+      <c r="F313" s="48"/>
+      <c r="H313" s="35"/>
+      <c r="I313" s="51"/>
+      <c r="J313" s="51"/>
+      <c r="K313" s="51"/>
+      <c r="O313" s="51"/>
+      <c r="P313" s="51"/>
+      <c r="Q313" s="51"/>
+      <c r="R313" s="51"/>
+    </row>
+    <row r="314" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A314" s="46"/>
+      <c r="B314" s="47"/>
+      <c r="C314" s="47"/>
+      <c r="D314" s="47"/>
+      <c r="E314" s="48"/>
+      <c r="F314" s="48"/>
+      <c r="H314" s="35"/>
+      <c r="I314" s="51"/>
+      <c r="J314" s="51"/>
+      <c r="K314" s="51"/>
+      <c r="O314" s="51"/>
+      <c r="P314" s="51"/>
+      <c r="Q314" s="51"/>
+      <c r="R314" s="51"/>
+    </row>
+    <row r="315" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A315" s="46"/>
+      <c r="B315" s="47"/>
+      <c r="C315" s="47"/>
+      <c r="D315" s="47"/>
+      <c r="E315" s="48"/>
+      <c r="F315" s="48"/>
+      <c r="H315" s="35"/>
+      <c r="I315" s="51"/>
+      <c r="J315" s="51"/>
+      <c r="K315" s="51"/>
+      <c r="O315" s="51"/>
+      <c r="P315" s="51"/>
+      <c r="Q315" s="51"/>
+      <c r="R315" s="51"/>
+    </row>
+    <row r="316" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A316" s="46"/>
+      <c r="B316" s="47"/>
+      <c r="C316" s="47"/>
+      <c r="D316" s="47"/>
+      <c r="E316" s="48"/>
+      <c r="F316" s="48"/>
+      <c r="H316" s="35"/>
+      <c r="I316" s="51"/>
+      <c r="J316" s="51"/>
+      <c r="K316" s="51"/>
+      <c r="O316" s="51"/>
+      <c r="P316" s="51"/>
+      <c r="Q316" s="51"/>
+      <c r="R316" s="51"/>
+    </row>
+    <row r="317" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A317" s="46"/>
+      <c r="B317" s="47"/>
+      <c r="C317" s="47"/>
+      <c r="D317" s="47"/>
+      <c r="E317" s="48"/>
+      <c r="F317" s="48"/>
+      <c r="H317" s="35"/>
+      <c r="I317" s="51"/>
+      <c r="J317" s="51"/>
+      <c r="K317" s="51"/>
+      <c r="O317" s="51"/>
+      <c r="P317" s="51"/>
+      <c r="Q317" s="51"/>
+      <c r="R317" s="51"/>
+    </row>
+    <row r="318" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A318" s="46"/>
+      <c r="B318" s="47"/>
+      <c r="C318" s="47"/>
+      <c r="D318" s="47"/>
+      <c r="E318" s="48"/>
+      <c r="F318" s="48"/>
+      <c r="H318" s="35"/>
+      <c r="I318" s="51"/>
+      <c r="J318" s="51"/>
+      <c r="K318" s="51"/>
+      <c r="O318" s="51"/>
+      <c r="P318" s="51"/>
+      <c r="Q318" s="51"/>
+      <c r="R318" s="51"/>
+    </row>
+    <row r="319" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A319" s="46"/>
+      <c r="B319" s="47"/>
+      <c r="C319" s="47"/>
+      <c r="D319" s="47"/>
+      <c r="E319" s="48"/>
+      <c r="F319" s="48"/>
+      <c r="H319" s="35"/>
+      <c r="I319" s="51"/>
+      <c r="J319" s="51"/>
+      <c r="K319" s="51"/>
+      <c r="O319" s="51"/>
+      <c r="P319" s="51"/>
+      <c r="Q319" s="51"/>
+      <c r="R319" s="51"/>
+    </row>
+    <row r="320" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A320" s="46"/>
+      <c r="B320" s="47"/>
+      <c r="C320" s="47"/>
+      <c r="D320" s="47"/>
+      <c r="E320" s="48"/>
+      <c r="F320" s="48"/>
+      <c r="H320" s="35"/>
+      <c r="I320" s="51"/>
+      <c r="J320" s="51"/>
+      <c r="K320" s="51"/>
+      <c r="O320" s="51"/>
+      <c r="P320" s="51"/>
+      <c r="Q320" s="51"/>
+      <c r="R320" s="51"/>
+    </row>
+    <row r="321" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A321" s="46"/>
+      <c r="B321" s="47"/>
+      <c r="C321" s="47"/>
+      <c r="D321" s="47"/>
+      <c r="E321" s="48"/>
+      <c r="F321" s="48"/>
+      <c r="H321" s="35"/>
+      <c r="I321" s="51"/>
+      <c r="J321" s="51"/>
+      <c r="K321" s="51"/>
+      <c r="O321" s="51"/>
+      <c r="P321" s="51"/>
+      <c r="Q321" s="51"/>
+      <c r="R321" s="51"/>
+    </row>
+    <row r="322" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A322" s="46"/>
+      <c r="B322" s="47"/>
+      <c r="C322" s="47"/>
+      <c r="D322" s="47"/>
+      <c r="E322" s="48"/>
+      <c r="F322" s="48"/>
+      <c r="H322" s="35"/>
+      <c r="I322" s="51"/>
+      <c r="J322" s="51"/>
+      <c r="K322" s="51"/>
+      <c r="O322" s="51"/>
+      <c r="P322" s="51"/>
+      <c r="Q322" s="51"/>
+      <c r="R322" s="51"/>
+    </row>
+    <row r="323" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A323" s="46"/>
+      <c r="B323" s="47"/>
+      <c r="C323" s="47"/>
+      <c r="D323" s="47"/>
+      <c r="E323" s="48"/>
+      <c r="F323" s="48"/>
+      <c r="H323" s="35"/>
+      <c r="I323" s="51"/>
+      <c r="J323" s="51"/>
+      <c r="K323" s="51"/>
+      <c r="O323" s="51"/>
+      <c r="P323" s="51"/>
+      <c r="Q323" s="51"/>
+      <c r="R323" s="51"/>
+    </row>
+    <row r="324" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A324" s="46"/>
+      <c r="B324" s="47"/>
+      <c r="C324" s="47"/>
+      <c r="D324" s="47"/>
+      <c r="E324" s="48"/>
+      <c r="F324" s="48"/>
+      <c r="H324" s="35"/>
+      <c r="I324" s="51"/>
+      <c r="J324" s="51"/>
+      <c r="K324" s="51"/>
+      <c r="O324" s="51"/>
+      <c r="P324" s="51"/>
+      <c r="Q324" s="51"/>
+      <c r="R324" s="51"/>
+    </row>
+    <row r="325" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A325" s="46"/>
+      <c r="B325" s="47"/>
+      <c r="C325" s="47"/>
+      <c r="D325" s="47"/>
+      <c r="E325" s="48"/>
+      <c r="F325" s="48"/>
+      <c r="H325" s="35"/>
+      <c r="I325" s="51"/>
+      <c r="J325" s="51"/>
+      <c r="K325" s="51"/>
+      <c r="O325" s="51"/>
+      <c r="P325" s="51"/>
+      <c r="Q325" s="51"/>
+      <c r="R325" s="51"/>
+    </row>
+    <row r="326" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A326" s="46"/>
+      <c r="B326" s="47"/>
+      <c r="C326" s="47"/>
+      <c r="D326" s="47"/>
+      <c r="E326" s="48"/>
+      <c r="F326" s="48"/>
+      <c r="H326" s="35"/>
+      <c r="I326" s="51"/>
+      <c r="J326" s="51"/>
+      <c r="K326" s="51"/>
+      <c r="O326" s="51"/>
+      <c r="P326" s="51"/>
+      <c r="Q326" s="51"/>
+      <c r="R326" s="51"/>
+    </row>
+    <row r="327" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A327" s="46"/>
+      <c r="B327" s="47"/>
+      <c r="C327" s="47"/>
+      <c r="D327" s="47"/>
+      <c r="E327" s="48"/>
+      <c r="F327" s="48"/>
+      <c r="H327" s="35"/>
+      <c r="I327" s="51"/>
+      <c r="J327" s="51"/>
+      <c r="K327" s="51"/>
+      <c r="O327" s="51"/>
+      <c r="P327" s="51"/>
+      <c r="Q327" s="51"/>
+      <c r="R327" s="51"/>
+    </row>
+    <row r="328" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A328" s="46"/>
+      <c r="B328" s="47"/>
+      <c r="C328" s="47"/>
+      <c r="D328" s="47"/>
+      <c r="E328" s="48"/>
+      <c r="F328" s="48"/>
+      <c r="H328" s="35"/>
+      <c r="I328" s="51"/>
+      <c r="J328" s="51"/>
+      <c r="K328" s="51"/>
+      <c r="O328" s="51"/>
+      <c r="P328" s="51"/>
+      <c r="Q328" s="51"/>
+      <c r="R328" s="51"/>
+    </row>
+    <row r="329" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A329" s="46"/>
+      <c r="B329" s="47"/>
+      <c r="C329" s="47"/>
+      <c r="D329" s="47"/>
+      <c r="E329" s="48"/>
+      <c r="F329" s="48"/>
+      <c r="H329" s="35"/>
+      <c r="I329" s="51"/>
+      <c r="J329" s="51"/>
+      <c r="K329" s="51"/>
+      <c r="O329" s="51"/>
+      <c r="P329" s="51"/>
+      <c r="Q329" s="51"/>
+      <c r="R329" s="51"/>
+    </row>
+    <row r="330" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A330" s="46"/>
+      <c r="B330" s="47"/>
+      <c r="C330" s="47"/>
+      <c r="D330" s="47"/>
+      <c r="E330" s="48"/>
+      <c r="F330" s="48"/>
+      <c r="H330" s="35"/>
+      <c r="I330" s="51"/>
+      <c r="J330" s="51"/>
+      <c r="K330" s="51"/>
+      <c r="O330" s="51"/>
+      <c r="P330" s="51"/>
+      <c r="Q330" s="51"/>
+      <c r="R330" s="51"/>
+    </row>
+    <row r="331" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A331" s="46"/>
+      <c r="B331" s="47"/>
+      <c r="C331" s="47"/>
+      <c r="D331" s="47"/>
+      <c r="E331" s="48"/>
+      <c r="F331" s="48"/>
+      <c r="H331" s="35"/>
+      <c r="I331" s="51"/>
+      <c r="J331" s="51"/>
+      <c r="K331" s="51"/>
+      <c r="O331" s="51"/>
+      <c r="P331" s="51"/>
+      <c r="Q331" s="51"/>
+      <c r="R331" s="51"/>
+    </row>
+    <row r="332" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A332" s="46"/>
+      <c r="B332" s="47"/>
+      <c r="C332" s="47"/>
+      <c r="D332" s="47"/>
+      <c r="E332" s="48"/>
+      <c r="F332" s="48"/>
+      <c r="H332" s="35"/>
+      <c r="I332" s="51"/>
+      <c r="J332" s="51"/>
+      <c r="K332" s="51"/>
+      <c r="O332" s="51"/>
+      <c r="P332" s="51"/>
+      <c r="Q332" s="51"/>
+      <c r="R332" s="51"/>
+    </row>
+    <row r="333" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A333" s="46"/>
+      <c r="B333" s="47"/>
+      <c r="C333" s="47"/>
+      <c r="D333" s="47"/>
+      <c r="E333" s="48"/>
+      <c r="F333" s="48"/>
+      <c r="H333" s="35"/>
+      <c r="I333" s="51"/>
+      <c r="J333" s="51"/>
+      <c r="K333" s="51"/>
+      <c r="O333" s="51"/>
+      <c r="P333" s="51"/>
+      <c r="Q333" s="51"/>
+      <c r="R333" s="51"/>
+    </row>
+    <row r="334" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A334" s="46"/>
+      <c r="B334" s="47"/>
+      <c r="C334" s="47"/>
+      <c r="D334" s="47"/>
+      <c r="E334" s="48"/>
+      <c r="F334" s="48"/>
+      <c r="H334" s="35"/>
+      <c r="I334" s="51"/>
+      <c r="J334" s="51"/>
+      <c r="K334" s="51"/>
+      <c r="O334" s="51"/>
+      <c r="P334" s="51"/>
+      <c r="Q334" s="51"/>
+      <c r="R334" s="51"/>
+    </row>
+    <row r="335" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A335" s="46"/>
+      <c r="B335" s="47"/>
+      <c r="C335" s="47"/>
+      <c r="D335" s="47"/>
+      <c r="E335" s="48"/>
+      <c r="F335" s="48"/>
+      <c r="H335" s="35"/>
+      <c r="I335" s="51"/>
+      <c r="J335" s="51"/>
+      <c r="K335" s="51"/>
+      <c r="O335" s="51"/>
+      <c r="P335" s="51"/>
+      <c r="Q335" s="51"/>
+      <c r="R335" s="51"/>
+    </row>
+    <row r="336" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A336" s="46"/>
+      <c r="B336" s="47"/>
+      <c r="C336" s="47"/>
+      <c r="D336" s="47"/>
+      <c r="E336" s="48"/>
+      <c r="F336" s="48"/>
+      <c r="H336" s="35"/>
+      <c r="I336" s="51"/>
+      <c r="J336" s="51"/>
+      <c r="K336" s="51"/>
+      <c r="O336" s="51"/>
+      <c r="P336" s="51"/>
+      <c r="Q336" s="51"/>
+      <c r="R336" s="51"/>
+    </row>
+    <row r="337" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A337" s="46"/>
+      <c r="B337" s="47"/>
+      <c r="C337" s="47"/>
+      <c r="D337" s="47"/>
+      <c r="E337" s="48"/>
+      <c r="F337" s="48"/>
+      <c r="H337" s="35"/>
+      <c r="I337" s="51"/>
+      <c r="J337" s="51"/>
+      <c r="K337" s="51"/>
+      <c r="O337" s="51"/>
+      <c r="P337" s="51"/>
+      <c r="Q337" s="51"/>
+      <c r="R337" s="51"/>
+    </row>
+    <row r="338" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A338" s="46"/>
+      <c r="B338" s="47"/>
+      <c r="C338" s="47"/>
+      <c r="D338" s="47"/>
+      <c r="E338" s="48"/>
+      <c r="F338" s="48"/>
+      <c r="H338" s="35"/>
+      <c r="I338" s="51"/>
+      <c r="J338" s="51"/>
+      <c r="K338" s="51"/>
+      <c r="O338" s="51"/>
+      <c r="P338" s="51"/>
+      <c r="Q338" s="51"/>
+      <c r="R338" s="51"/>
+    </row>
+    <row r="339" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A339" s="46"/>
+      <c r="B339" s="47"/>
+      <c r="C339" s="47"/>
+      <c r="D339" s="47"/>
+      <c r="E339" s="48"/>
+      <c r="F339" s="48"/>
+      <c r="H339" s="35"/>
+      <c r="I339" s="51"/>
+      <c r="J339" s="51"/>
+      <c r="K339" s="51"/>
+      <c r="O339" s="51"/>
+      <c r="P339" s="51"/>
+      <c r="Q339" s="51"/>
+      <c r="R339" s="51"/>
+    </row>
+    <row r="340" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A340" s="46"/>
+      <c r="B340" s="47"/>
+      <c r="C340" s="47"/>
+      <c r="D340" s="47"/>
+      <c r="E340" s="48"/>
+      <c r="F340" s="48"/>
+      <c r="H340" s="35"/>
+      <c r="I340" s="51"/>
+      <c r="J340" s="51"/>
+      <c r="K340" s="51"/>
+      <c r="O340" s="51"/>
+      <c r="P340" s="51"/>
+      <c r="Q340" s="51"/>
+      <c r="R340" s="51"/>
+    </row>
+    <row r="341" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A341" s="46"/>
+      <c r="B341" s="47"/>
+      <c r="C341" s="47"/>
+      <c r="D341" s="47"/>
+      <c r="E341" s="48"/>
+      <c r="F341" s="48"/>
+      <c r="H341" s="35"/>
+      <c r="I341" s="51"/>
+      <c r="J341" s="51"/>
+      <c r="K341" s="51"/>
+      <c r="O341" s="51"/>
+      <c r="P341" s="51"/>
+      <c r="Q341" s="51"/>
+      <c r="R341" s="51"/>
+    </row>
+    <row r="342" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A342" s="46"/>
+      <c r="B342" s="47"/>
+      <c r="C342" s="47"/>
+      <c r="D342" s="47"/>
+      <c r="E342" s="48"/>
+      <c r="F342" s="48"/>
+      <c r="H342" s="35"/>
+      <c r="I342" s="51"/>
+      <c r="J342" s="51"/>
+      <c r="K342" s="51"/>
+      <c r="O342" s="51"/>
+      <c r="P342" s="51"/>
+      <c r="Q342" s="51"/>
+      <c r="R342" s="51"/>
+    </row>
+    <row r="343" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A343" s="46"/>
+      <c r="B343" s="47"/>
+      <c r="C343" s="47"/>
+      <c r="D343" s="47"/>
+      <c r="E343" s="48"/>
+      <c r="F343" s="48"/>
+      <c r="H343" s="35"/>
+      <c r="I343" s="51"/>
+      <c r="J343" s="51"/>
+      <c r="K343" s="51"/>
+      <c r="O343" s="51"/>
+      <c r="P343" s="51"/>
+      <c r="Q343" s="51"/>
+      <c r="R343" s="51"/>
+    </row>
+    <row r="344" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A344" s="46"/>
+      <c r="B344" s="47"/>
+      <c r="C344" s="47"/>
+      <c r="D344" s="47"/>
+      <c r="E344" s="48"/>
+      <c r="F344" s="48"/>
+      <c r="H344" s="35"/>
+      <c r="I344" s="51"/>
+      <c r="J344" s="51"/>
+      <c r="K344" s="51"/>
+      <c r="O344" s="51"/>
+      <c r="P344" s="51"/>
+      <c r="Q344" s="51"/>
+      <c r="R344" s="51"/>
+    </row>
+    <row r="345" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A345" s="46"/>
+      <c r="B345" s="47"/>
+      <c r="C345" s="47"/>
+      <c r="D345" s="47"/>
+      <c r="E345" s="48"/>
+      <c r="F345" s="48"/>
+      <c r="H345" s="35"/>
+      <c r="I345" s="51"/>
+      <c r="J345" s="51"/>
+      <c r="K345" s="51"/>
+      <c r="O345" s="51"/>
+      <c r="P345" s="51"/>
+      <c r="Q345" s="51"/>
+      <c r="R345" s="51"/>
+    </row>
+    <row r="346" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A346" s="46"/>
+      <c r="B346" s="47"/>
+      <c r="C346" s="47"/>
+      <c r="D346" s="47"/>
+      <c r="E346" s="48"/>
+      <c r="F346" s="48"/>
+      <c r="H346" s="35"/>
+      <c r="I346" s="51"/>
+      <c r="J346" s="51"/>
+      <c r="K346" s="51"/>
+      <c r="O346" s="51"/>
+      <c r="P346" s="51"/>
+      <c r="Q346" s="51"/>
+      <c r="R346" s="51"/>
+    </row>
+    <row r="347" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A347" s="46"/>
+      <c r="B347" s="47"/>
+      <c r="C347" s="47"/>
+      <c r="D347" s="47"/>
+      <c r="E347" s="48"/>
+      <c r="F347" s="48"/>
+      <c r="H347" s="35"/>
+      <c r="I347" s="51"/>
+      <c r="J347" s="51"/>
+      <c r="K347" s="51"/>
+      <c r="O347" s="51"/>
+      <c r="P347" s="51"/>
+      <c r="Q347" s="51"/>
+      <c r="R347" s="51"/>
+    </row>
+    <row r="348" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A348" s="46"/>
+      <c r="B348" s="47"/>
+      <c r="C348" s="47"/>
+      <c r="D348" s="47"/>
+      <c r="E348" s="48"/>
+      <c r="F348" s="48"/>
+      <c r="H348" s="35"/>
+      <c r="I348" s="51"/>
+      <c r="J348" s="51"/>
+      <c r="K348" s="51"/>
+      <c r="O348" s="51"/>
+      <c r="P348" s="51"/>
+      <c r="Q348" s="51"/>
+      <c r="R348" s="51"/>
+    </row>
+    <row r="349" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A349" s="46"/>
+      <c r="B349" s="47"/>
+      <c r="C349" s="47"/>
+      <c r="D349" s="47"/>
+      <c r="E349" s="48"/>
+      <c r="F349" s="48"/>
+      <c r="H349" s="35"/>
+      <c r="I349" s="51"/>
+      <c r="J349" s="51"/>
+      <c r="K349" s="51"/>
+      <c r="O349" s="51"/>
+      <c r="P349" s="51"/>
+      <c r="Q349" s="51"/>
+      <c r="R349" s="51"/>
+    </row>
+    <row r="350" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A350" s="46"/>
+      <c r="B350" s="47"/>
+      <c r="C350" s="47"/>
+      <c r="D350" s="47"/>
+      <c r="E350" s="48"/>
+      <c r="F350" s="48"/>
+      <c r="H350" s="35"/>
+      <c r="I350" s="51"/>
+      <c r="J350" s="51"/>
+      <c r="K350" s="51"/>
+      <c r="O350" s="51"/>
+      <c r="P350" s="51"/>
+      <c r="Q350" s="51"/>
+      <c r="R350" s="51"/>
+    </row>
+    <row r="351" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A351" s="46"/>
+      <c r="B351" s="47"/>
+      <c r="C351" s="47"/>
+      <c r="D351" s="47"/>
+      <c r="E351" s="48"/>
+      <c r="F351" s="48"/>
+      <c r="H351" s="35"/>
+      <c r="I351" s="51"/>
+      <c r="J351" s="51"/>
+      <c r="K351" s="51"/>
+      <c r="O351" s="51"/>
+      <c r="P351" s="51"/>
+      <c r="Q351" s="51"/>
+      <c r="R351" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/Tripod_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Tripod_Info_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277175AD-95AD-44F9-AD4E-2633D831E1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F6C3F9-6099-49C5-9169-D87C11894CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="146">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,6 +488,117 @@
       </rPr>
       <t>(0~2)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연격/T1_0</t>
+  </si>
+  <si>
+    <t>이연격/T1_1</t>
+  </si>
+  <si>
+    <t>이연격/T1_2</t>
+  </si>
+  <si>
+    <t>이연격/T2_0</t>
+  </si>
+  <si>
+    <t>이연격/T2_1</t>
+  </si>
+  <si>
+    <t>이연격/T2_2</t>
+  </si>
+  <si>
+    <t>이연격/T3_0</t>
+  </si>
+  <si>
+    <t>이연격/T3_1</t>
+  </si>
+  <si>
+    <t>LM_05_T1_0</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_05</t>
+  </si>
+  <si>
+    <t>LM_05_T1_1</t>
+  </si>
+  <si>
+    <t>LM_05_T1_2</t>
+  </si>
+  <si>
+    <t>LM_05_T2_0</t>
+  </si>
+  <si>
+    <t>LM_05_T2_1</t>
+  </si>
+  <si>
+    <t>LM_05_T2_2</t>
+  </si>
+  <si>
+    <t>LM_05_T3_0</t>
+  </si>
+  <si>
+    <t>LM_05_T3_1</t>
+  </si>
+  <si>
+    <t>화염 베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉기 베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대지 베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날카로운 올려치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화된 일격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간 베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 강타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[화] 속성으로 변경되고, 적중 시 5.0초간 화상 상태로 만들어 매 초마다 19의 피해를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[수] 속성으로 변경되고, 적중 시 6.0초간 냉기 상태를 걸어 이동 속도를 46.2% 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[토] 속성으로 변경되고, 시드 이하의 적에게 주는 피해가 45.0% 만큼 증가하며, 무력화 단계 [하]가 부여된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올려치는 공격에 힘을 모아, 적을 공중에 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듀얼 게이지를 1칸 소모하지만, 적에게 주는 피해가 96.0% 증가한다. 보유한 듀얼 게이지가 1칸 미만이면 적용 되지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 주는 피해가 60.0% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위가 20.0% 증가하며, 마지막 타격시 기를 남겨 적을 추가로 공격해 적에게 주는 피해가 80.0% 증가하고, 공중에 뜬 적 공격 시 다시 띄우고 날려버린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콤보 조작으로 변경되며 추가 키를 입력 할 경우 내려찍는 공격을 하여 94.8%의 추가 피해를 준다. 또한 화염 베기와 냉기 베기의 효과가 100% 증가하고, 대지 베기를 적용할 경우 시드 이하의 적에게 주는 피해 증가 효과가 100% 증가하며, 스킬의 무력화 단계가 [중]으로 증가한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +697,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,6 +737,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,7 +977,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,6 +1127,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1718,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:V351"/>
+  <dimension ref="A1:V359"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
@@ -1729,11 +1855,11 @@
     <col min="1" max="1" width="9.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="75.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="104.796875" style="5" customWidth="1"/>
     <col min="9" max="11" width="15.69921875" style="6" customWidth="1"/>
     <col min="12" max="13" width="15.69921875" style="2" customWidth="1"/>
     <col min="14" max="14" width="18.69921875" style="2" customWidth="1"/>
@@ -1783,14 +1909,30 @@
       <c r="V1" s="11"/>
     </row>
     <row r="2" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>138</v>
+      </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
@@ -1808,28 +1950,28 @@
     </row>
     <row r="3" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>27</v>
+        <v>123</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="E3" s="15">
         <v>1</v>
       </c>
       <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>139</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
@@ -1848,28 +1990,28 @@
     </row>
     <row r="4" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>28</v>
+        <v>123</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
       </c>
       <c r="F4" s="15">
-        <v>1</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>95</v>
+        <v>2</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>140</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -1888,28 +2030,28 @@
     </row>
     <row r="5" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>29</v>
+        <v>123</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="E5" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="15">
-        <v>2</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>106</v>
+        <v>0</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>141</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -1928,28 +2070,28 @@
     </row>
     <row r="6" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>34</v>
+        <v>123</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E6" s="15">
         <v>2</v>
       </c>
       <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>142</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -1966,293 +2108,320 @@
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
     </row>
-    <row r="7" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="13" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>35</v>
+        <v>123</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="E7" s="15">
         <v>2</v>
       </c>
       <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>96</v>
+        <v>2</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>143</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-    </row>
-    <row r="8" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="13" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>36</v>
+        <v>123</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="E8" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="15">
-        <v>2</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>110</v>
+        <v>0</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>144</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
-    </row>
-    <row r="9" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+    </row>
+    <row r="9" spans="1:22" s="17" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>31</v>
+        <v>123</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="E9" s="15">
         <v>3</v>
       </c>
       <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+    </row>
+    <row r="10" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+    </row>
+    <row r="11" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15">
         <v>0</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-    </row>
-    <row r="10" spans="1:22" s="17" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="15">
-        <v>3</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-    </row>
-    <row r="11" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
-    </row>
-    <row r="12" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+    </row>
+    <row r="12" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>62</v>
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E12" s="15">
         <v>1</v>
       </c>
       <c r="F12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
-    </row>
-    <row r="13" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+    </row>
+    <row r="13" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>63</v>
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E13" s="15">
         <v>1</v>
       </c>
       <c r="F13" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
-    </row>
-    <row r="14" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+    </row>
+    <row r="14" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>64</v>
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E14" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
-    </row>
-    <row r="15" spans="1:22" s="17" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+    </row>
+    <row r="15" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="E15" s="15">
         <v>2</v>
       </c>
       <c r="F15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
@@ -2269,30 +2438,30 @@
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
     </row>
-    <row r="16" spans="1:22" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>66</v>
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E16" s="15">
         <v>2</v>
       </c>
       <c r="F16" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
@@ -2302,63 +2471,70 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
     </row>
-    <row r="17" spans="1:18" s="17" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>67</v>
+        <v>43</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E17" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-    </row>
-    <row r="18" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+    </row>
+    <row r="18" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>68</v>
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E18" s="15">
         <v>3</v>
       </c>
       <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>76</v>
+        <v>1</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -2368,127 +2544,221 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
     </row>
-    <row r="19" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+    </row>
+    <row r="20" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="15">
-        <v>3</v>
-      </c>
-      <c r="F19" s="15">
+      <c r="D20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="15">
         <v>1</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-    </row>
-    <row r="20" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-    </row>
-    <row r="21" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-    </row>
-    <row r="22" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-    </row>
-    <row r="23" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-    </row>
-    <row r="24" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-    </row>
-    <row r="25" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="H25" s="5"/>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+    </row>
+    <row r="21" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15">
+        <v>1</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+    </row>
+    <row r="22" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15">
+        <v>2</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+    </row>
+    <row r="23" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="15">
+        <v>2</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+    </row>
+    <row r="24" spans="1:22" s="15" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="15">
+        <v>2</v>
+      </c>
+      <c r="F24" s="15">
+        <v>1</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+    </row>
+    <row r="25" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="15">
+        <v>2</v>
+      </c>
+      <c r="F25" s="15">
+        <v>2</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
@@ -2497,14 +2767,31 @@
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
     </row>
-    <row r="26" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="H26" s="5"/>
+    <row r="26" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="15">
+        <v>3</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
@@ -2513,14 +2800,31 @@
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
     </row>
-    <row r="27" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="H27" s="5"/>
+    <row r="27" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="15">
+        <v>3</v>
+      </c>
+      <c r="F27" s="15">
+        <v>1</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
@@ -2529,11 +2833,11 @@
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
     </row>
-    <row r="28" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="H28" s="5"/>
@@ -2545,11 +2849,11 @@
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
     </row>
-    <row r="29" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="H29" s="5"/>
@@ -2561,11 +2865,11 @@
       <c r="Q29" s="18"/>
       <c r="R29" s="18"/>
     </row>
-    <row r="30" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="H30" s="5"/>
@@ -2577,11 +2881,11 @@
       <c r="Q30" s="18"/>
       <c r="R30" s="18"/>
     </row>
-    <row r="31" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="H31" s="5"/>
@@ -2593,11 +2897,11 @@
       <c r="Q31" s="18"/>
       <c r="R31" s="18"/>
     </row>
-    <row r="32" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="H32" s="5"/>
@@ -2613,7 +2917,7 @@
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="H33" s="5"/>
@@ -2629,7 +2933,7 @@
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="H34" s="5"/>
@@ -2645,7 +2949,7 @@
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="H35" s="5"/>
@@ -2661,7 +2965,7 @@
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="H36" s="5"/>
@@ -2677,7 +2981,7 @@
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="H37" s="5"/>
@@ -2693,7 +2997,7 @@
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="H38" s="5"/>
@@ -2709,7 +3013,7 @@
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="H39" s="5"/>
@@ -2725,7 +3029,7 @@
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="H40" s="5"/>
@@ -2741,7 +3045,7 @@
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="H41" s="5"/>
@@ -2757,7 +3061,7 @@
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="H42" s="5"/>
@@ -2773,7 +3077,7 @@
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="H43" s="5"/>
@@ -2789,7 +3093,7 @@
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="H44" s="5"/>
@@ -2805,7 +3109,7 @@
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="H45" s="5"/>
@@ -2821,7 +3125,7 @@
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="H46" s="5"/>
@@ -2837,7 +3141,7 @@
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="H47" s="5"/>
@@ -2853,7 +3157,7 @@
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="H48" s="5"/>
@@ -2869,7 +3173,7 @@
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="H49" s="5"/>
@@ -2885,7 +3189,7 @@
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="H50" s="5"/>
@@ -2901,7 +3205,7 @@
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="H51" s="5"/>
@@ -2917,7 +3221,7 @@
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="H52" s="5"/>
@@ -2933,7 +3237,7 @@
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="H53" s="5"/>
@@ -2949,7 +3253,7 @@
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="H54" s="5"/>
@@ -2965,7 +3269,7 @@
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="H55" s="5"/>
@@ -2981,7 +3285,7 @@
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="H56" s="5"/>
@@ -2997,7 +3301,7 @@
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="H57" s="5"/>
@@ -3013,7 +3317,7 @@
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
+      <c r="D58" s="4"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="H58" s="5"/>
@@ -3029,7 +3333,7 @@
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="H59" s="5"/>
@@ -3045,7 +3349,7 @@
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="H60" s="5"/>
@@ -3061,7 +3365,7 @@
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="H61" s="5"/>
@@ -3077,7 +3381,7 @@
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="H62" s="5"/>
@@ -3093,7 +3397,7 @@
       <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
+      <c r="D63" s="4"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="H63" s="5"/>
@@ -3109,7 +3413,7 @@
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="H64" s="5"/>
@@ -3125,7 +3429,7 @@
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="H65" s="5"/>
@@ -3141,7 +3445,7 @@
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
       <c r="H66" s="5"/>
@@ -3157,7 +3461,7 @@
       <c r="A67" s="13"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="H67" s="5"/>
@@ -3173,7 +3477,7 @@
       <c r="A68" s="13"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
       <c r="H68" s="5"/>
@@ -3189,7 +3493,7 @@
       <c r="A69" s="13"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="H69" s="5"/>
@@ -3205,7 +3509,7 @@
       <c r="A70" s="13"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="H70" s="5"/>
@@ -3221,7 +3525,7 @@
       <c r="A71" s="13"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="H71" s="5"/>
@@ -3237,7 +3541,7 @@
       <c r="A72" s="13"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
+      <c r="D72" s="4"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
       <c r="H72" s="5"/>
@@ -3253,7 +3557,7 @@
       <c r="A73" s="13"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
       <c r="H73" s="5"/>
@@ -3269,7 +3573,7 @@
       <c r="A74" s="13"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
+      <c r="D74" s="4"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
       <c r="H74" s="5"/>
@@ -3285,7 +3589,7 @@
       <c r="A75" s="13"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
+      <c r="D75" s="4"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
       <c r="H75" s="5"/>
@@ -3301,7 +3605,7 @@
       <c r="A76" s="13"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
+      <c r="D76" s="4"/>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
       <c r="H76" s="5"/>
@@ -3317,7 +3621,7 @@
       <c r="A77" s="13"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
       <c r="H77" s="5"/>
@@ -3333,7 +3637,7 @@
       <c r="A78" s="13"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
+      <c r="D78" s="4"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
       <c r="H78" s="5"/>
@@ -3349,7 +3653,7 @@
       <c r="A79" s="13"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
+      <c r="D79" s="4"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="H79" s="5"/>
@@ -3365,7 +3669,7 @@
       <c r="A80" s="13"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
+      <c r="D80" s="4"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="H80" s="5"/>
@@ -3381,7 +3685,7 @@
       <c r="A81" s="13"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
+      <c r="D81" s="4"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="H81" s="5"/>
@@ -3397,7 +3701,7 @@
       <c r="A82" s="13"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
+      <c r="D82" s="4"/>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="H82" s="5"/>
@@ -3413,7 +3717,7 @@
       <c r="A83" s="13"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
+      <c r="D83" s="4"/>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="H83" s="5"/>
@@ -3429,7 +3733,7 @@
       <c r="A84" s="13"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
+      <c r="D84" s="4"/>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="H84" s="5"/>
@@ -3445,7 +3749,7 @@
       <c r="A85" s="13"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
+      <c r="D85" s="4"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="H85" s="5"/>
@@ -3461,7 +3765,7 @@
       <c r="A86" s="13"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
+      <c r="D86" s="4"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="H86" s="5"/>
@@ -3477,7 +3781,7 @@
       <c r="A87" s="13"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
+      <c r="D87" s="4"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="H87" s="5"/>
@@ -3493,7 +3797,7 @@
       <c r="A88" s="13"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
+      <c r="D88" s="4"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="H88" s="5"/>
@@ -3509,7 +3813,7 @@
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
+      <c r="D89" s="4"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="H89" s="5"/>
@@ -3525,7 +3829,7 @@
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
+      <c r="D90" s="4"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="H90" s="5"/>
@@ -3541,7 +3845,7 @@
       <c r="A91" s="13"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
+      <c r="D91" s="4"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="H91" s="5"/>
@@ -3557,7 +3861,7 @@
       <c r="A92" s="13"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
+      <c r="D92" s="4"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="H92" s="5"/>
@@ -3573,7 +3877,7 @@
       <c r="A93" s="13"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
+      <c r="D93" s="4"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="H93" s="5"/>
@@ -3589,7 +3893,7 @@
       <c r="A94" s="13"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
+      <c r="D94" s="4"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
       <c r="H94" s="5"/>
@@ -3605,7 +3909,7 @@
       <c r="A95" s="13"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
+      <c r="D95" s="4"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
       <c r="H95" s="5"/>
@@ -3621,7 +3925,7 @@
       <c r="A96" s="13"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
+      <c r="D96" s="4"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
       <c r="H96" s="5"/>
@@ -3637,7 +3941,7 @@
       <c r="A97" s="13"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
+      <c r="D97" s="4"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
       <c r="H97" s="5"/>
@@ -3653,7 +3957,7 @@
       <c r="A98" s="13"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
+      <c r="D98" s="4"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
       <c r="H98" s="5"/>
@@ -3669,7 +3973,7 @@
       <c r="A99" s="13"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
+      <c r="D99" s="4"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
       <c r="H99" s="5"/>
@@ -3685,7 +3989,7 @@
       <c r="A100" s="13"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
+      <c r="D100" s="4"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
       <c r="H100" s="5"/>
@@ -3701,7 +4005,7 @@
       <c r="A101" s="13"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
+      <c r="D101" s="4"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
       <c r="H101" s="5"/>
@@ -3717,7 +4021,7 @@
       <c r="A102" s="13"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
+      <c r="D102" s="4"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
       <c r="H102" s="5"/>
@@ -3733,7 +4037,7 @@
       <c r="A103" s="13"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
+      <c r="D103" s="4"/>
       <c r="E103" s="15"/>
       <c r="F103" s="15"/>
       <c r="H103" s="5"/>
@@ -3749,7 +4053,7 @@
       <c r="A104" s="13"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
+      <c r="D104" s="4"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
       <c r="H104" s="5"/>
@@ -3765,7 +4069,7 @@
       <c r="A105" s="13"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
+      <c r="D105" s="4"/>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
       <c r="H105" s="5"/>
@@ -3781,7 +4085,7 @@
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
+      <c r="D106" s="4"/>
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
       <c r="H106" s="5"/>
@@ -3797,7 +4101,7 @@
       <c r="A107" s="13"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
+      <c r="D107" s="4"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
       <c r="H107" s="5"/>
@@ -3813,7 +4117,7 @@
       <c r="A108" s="13"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
+      <c r="D108" s="4"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
       <c r="H108" s="5"/>
@@ -3829,7 +4133,7 @@
       <c r="A109" s="13"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
+      <c r="D109" s="4"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
       <c r="H109" s="5"/>
@@ -3845,7 +4149,7 @@
       <c r="A110" s="13"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
+      <c r="D110" s="4"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
       <c r="H110" s="5"/>
@@ -3861,7 +4165,7 @@
       <c r="A111" s="13"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
+      <c r="D111" s="4"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
       <c r="H111" s="5"/>
@@ -3877,7 +4181,7 @@
       <c r="A112" s="13"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
+      <c r="D112" s="4"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
       <c r="H112" s="5"/>
@@ -3893,7 +4197,7 @@
       <c r="A113" s="13"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
+      <c r="D113" s="4"/>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
       <c r="H113" s="5"/>
@@ -3909,7 +4213,7 @@
       <c r="A114" s="13"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
+      <c r="D114" s="4"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
       <c r="H114" s="5"/>
@@ -3925,7 +4229,7 @@
       <c r="A115" s="13"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
+      <c r="D115" s="4"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
       <c r="H115" s="5"/>
@@ -3941,7 +4245,7 @@
       <c r="A116" s="13"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
+      <c r="D116" s="4"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
       <c r="H116" s="5"/>
@@ -3957,7 +4261,7 @@
       <c r="A117" s="13"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
+      <c r="D117" s="4"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
       <c r="H117" s="5"/>
@@ -3973,7 +4277,7 @@
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
+      <c r="D118" s="4"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
       <c r="H118" s="5"/>
@@ -3989,7 +4293,7 @@
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
+      <c r="D119" s="4"/>
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
       <c r="H119" s="5"/>
@@ -4005,7 +4309,7 @@
       <c r="A120" s="13"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
+      <c r="D120" s="4"/>
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
       <c r="H120" s="5"/>
@@ -4021,7 +4325,7 @@
       <c r="A121" s="13"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
+      <c r="D121" s="4"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
       <c r="H121" s="5"/>
@@ -4037,7 +4341,7 @@
       <c r="A122" s="13"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
+      <c r="D122" s="4"/>
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
       <c r="H122" s="5"/>
@@ -4053,7 +4357,7 @@
       <c r="A123" s="13"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
+      <c r="D123" s="4"/>
       <c r="E123" s="15"/>
       <c r="F123" s="15"/>
       <c r="H123" s="5"/>
@@ -4069,7 +4373,7 @@
       <c r="A124" s="13"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
+      <c r="D124" s="4"/>
       <c r="E124" s="15"/>
       <c r="F124" s="15"/>
       <c r="H124" s="5"/>
@@ -4085,7 +4389,7 @@
       <c r="A125" s="13"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
+      <c r="D125" s="4"/>
       <c r="E125" s="15"/>
       <c r="F125" s="15"/>
       <c r="H125" s="5"/>
@@ -4101,7 +4405,7 @@
       <c r="A126" s="13"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
+      <c r="D126" s="4"/>
       <c r="E126" s="15"/>
       <c r="F126" s="15"/>
       <c r="H126" s="5"/>
@@ -4117,7 +4421,7 @@
       <c r="A127" s="13"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
+      <c r="D127" s="4"/>
       <c r="E127" s="15"/>
       <c r="F127" s="15"/>
       <c r="H127" s="5"/>
@@ -4133,7 +4437,7 @@
       <c r="A128" s="13"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
+      <c r="D128" s="4"/>
       <c r="E128" s="15"/>
       <c r="F128" s="15"/>
       <c r="H128" s="5"/>
@@ -4149,7 +4453,7 @@
       <c r="A129" s="13"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
+      <c r="D129" s="4"/>
       <c r="E129" s="15"/>
       <c r="F129" s="15"/>
       <c r="H129" s="5"/>
@@ -4165,7 +4469,7 @@
       <c r="A130" s="13"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
+      <c r="D130" s="4"/>
       <c r="E130" s="15"/>
       <c r="F130" s="15"/>
       <c r="H130" s="5"/>
@@ -4181,7 +4485,7 @@
       <c r="A131" s="13"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
+      <c r="D131" s="4"/>
       <c r="E131" s="15"/>
       <c r="F131" s="15"/>
       <c r="H131" s="5"/>
@@ -4197,7 +4501,7 @@
       <c r="A132" s="13"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
+      <c r="D132" s="4"/>
       <c r="E132" s="15"/>
       <c r="F132" s="15"/>
       <c r="H132" s="5"/>
@@ -4213,7 +4517,7 @@
       <c r="A133" s="13"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
+      <c r="D133" s="4"/>
       <c r="E133" s="15"/>
       <c r="F133" s="15"/>
       <c r="H133" s="5"/>
@@ -4229,7 +4533,7 @@
       <c r="A134" s="13"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
+      <c r="D134" s="4"/>
       <c r="E134" s="15"/>
       <c r="F134" s="15"/>
       <c r="H134" s="5"/>
@@ -4245,7 +4549,7 @@
       <c r="A135" s="13"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
+      <c r="D135" s="4"/>
       <c r="E135" s="15"/>
       <c r="F135" s="15"/>
       <c r="H135" s="5"/>
@@ -4261,7 +4565,7 @@
       <c r="A136" s="13"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
+      <c r="D136" s="4"/>
       <c r="E136" s="15"/>
       <c r="F136" s="15"/>
       <c r="H136" s="5"/>
@@ -4277,7 +4581,7 @@
       <c r="A137" s="13"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
+      <c r="D137" s="4"/>
       <c r="E137" s="15"/>
       <c r="F137" s="15"/>
       <c r="H137" s="5"/>
@@ -4293,7 +4597,7 @@
       <c r="A138" s="13"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
+      <c r="D138" s="4"/>
       <c r="E138" s="15"/>
       <c r="F138" s="15"/>
       <c r="H138" s="5"/>
@@ -4309,7 +4613,7 @@
       <c r="A139" s="13"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
+      <c r="D139" s="4"/>
       <c r="E139" s="15"/>
       <c r="F139" s="15"/>
       <c r="H139" s="5"/>
@@ -4325,7 +4629,7 @@
       <c r="A140" s="13"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
+      <c r="D140" s="4"/>
       <c r="E140" s="15"/>
       <c r="F140" s="15"/>
       <c r="H140" s="5"/>
@@ -4341,7 +4645,7 @@
       <c r="A141" s="13"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
+      <c r="D141" s="4"/>
       <c r="E141" s="15"/>
       <c r="F141" s="15"/>
       <c r="H141" s="5"/>
@@ -4357,7 +4661,7 @@
       <c r="A142" s="13"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
+      <c r="D142" s="4"/>
       <c r="E142" s="15"/>
       <c r="F142" s="15"/>
       <c r="H142" s="5"/>
@@ -4373,7 +4677,7 @@
       <c r="A143" s="13"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
+      <c r="D143" s="4"/>
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
       <c r="H143" s="5"/>
@@ -4389,7 +4693,7 @@
       <c r="A144" s="13"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
+      <c r="D144" s="4"/>
       <c r="E144" s="15"/>
       <c r="F144" s="15"/>
       <c r="H144" s="5"/>
@@ -4405,7 +4709,7 @@
       <c r="A145" s="13"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
+      <c r="D145" s="4"/>
       <c r="E145" s="15"/>
       <c r="F145" s="15"/>
       <c r="H145" s="5"/>
@@ -4421,7 +4725,7 @@
       <c r="A146" s="13"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
+      <c r="D146" s="4"/>
       <c r="E146" s="15"/>
       <c r="F146" s="15"/>
       <c r="H146" s="5"/>
@@ -4437,7 +4741,7 @@
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
+      <c r="D147" s="4"/>
       <c r="E147" s="15"/>
       <c r="F147" s="15"/>
       <c r="H147" s="5"/>
@@ -4453,7 +4757,7 @@
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
+      <c r="D148" s="4"/>
       <c r="E148" s="15"/>
       <c r="F148" s="15"/>
       <c r="H148" s="5"/>
@@ -4469,7 +4773,7 @@
       <c r="A149" s="13"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
+      <c r="D149" s="4"/>
       <c r="E149" s="15"/>
       <c r="F149" s="15"/>
       <c r="H149" s="5"/>
@@ -4485,7 +4789,7 @@
       <c r="A150" s="13"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
+      <c r="D150" s="4"/>
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
       <c r="H150" s="5"/>
@@ -4501,7 +4805,7 @@
       <c r="A151" s="13"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
+      <c r="D151" s="4"/>
       <c r="E151" s="15"/>
       <c r="F151" s="15"/>
       <c r="H151" s="5"/>
@@ -4517,7 +4821,7 @@
       <c r="A152" s="13"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
+      <c r="D152" s="4"/>
       <c r="E152" s="15"/>
       <c r="F152" s="15"/>
       <c r="H152" s="5"/>
@@ -4533,7 +4837,7 @@
       <c r="A153" s="13"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
+      <c r="D153" s="4"/>
       <c r="E153" s="15"/>
       <c r="F153" s="15"/>
       <c r="H153" s="5"/>
@@ -4549,7 +4853,7 @@
       <c r="A154" s="13"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
+      <c r="D154" s="4"/>
       <c r="E154" s="15"/>
       <c r="F154" s="15"/>
       <c r="H154" s="5"/>
@@ -4565,7 +4869,7 @@
       <c r="A155" s="13"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
+      <c r="D155" s="4"/>
       <c r="E155" s="15"/>
       <c r="F155" s="15"/>
       <c r="H155" s="5"/>
@@ -4581,7 +4885,7 @@
       <c r="A156" s="13"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
+      <c r="D156" s="4"/>
       <c r="E156" s="15"/>
       <c r="F156" s="15"/>
       <c r="H156" s="5"/>
@@ -4597,7 +4901,7 @@
       <c r="A157" s="13"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
+      <c r="D157" s="4"/>
       <c r="E157" s="15"/>
       <c r="F157" s="15"/>
       <c r="H157" s="5"/>
@@ -4613,7 +4917,7 @@
       <c r="A158" s="13"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
+      <c r="D158" s="4"/>
       <c r="E158" s="15"/>
       <c r="F158" s="15"/>
       <c r="H158" s="5"/>
@@ -4629,7 +4933,7 @@
       <c r="A159" s="13"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
+      <c r="D159" s="4"/>
       <c r="E159" s="15"/>
       <c r="F159" s="15"/>
       <c r="H159" s="5"/>
@@ -4645,7 +4949,7 @@
       <c r="A160" s="13"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
+      <c r="D160" s="4"/>
       <c r="E160" s="15"/>
       <c r="F160" s="15"/>
       <c r="H160" s="5"/>
@@ -4661,7 +4965,7 @@
       <c r="A161" s="13"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
+      <c r="D161" s="4"/>
       <c r="E161" s="15"/>
       <c r="F161" s="15"/>
       <c r="H161" s="5"/>
@@ -4677,7 +4981,7 @@
       <c r="A162" s="13"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
+      <c r="D162" s="4"/>
       <c r="E162" s="15"/>
       <c r="F162" s="15"/>
       <c r="H162" s="5"/>
@@ -4693,7 +4997,7 @@
       <c r="A163" s="13"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
+      <c r="D163" s="4"/>
       <c r="E163" s="15"/>
       <c r="F163" s="15"/>
       <c r="H163" s="5"/>
@@ -4709,7 +5013,7 @@
       <c r="A164" s="13"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
+      <c r="D164" s="4"/>
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
       <c r="H164" s="5"/>
@@ -4725,7 +5029,7 @@
       <c r="A165" s="13"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
+      <c r="D165" s="4"/>
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
       <c r="H165" s="5"/>
@@ -4741,7 +5045,7 @@
       <c r="A166" s="13"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
+      <c r="D166" s="4"/>
       <c r="E166" s="15"/>
       <c r="F166" s="15"/>
       <c r="H166" s="5"/>
@@ -4757,7 +5061,7 @@
       <c r="A167" s="13"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
+      <c r="D167" s="4"/>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
       <c r="H167" s="5"/>
@@ -4773,7 +5077,7 @@
       <c r="A168" s="13"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
+      <c r="D168" s="4"/>
       <c r="E168" s="15"/>
       <c r="F168" s="15"/>
       <c r="H168" s="5"/>
@@ -4789,7 +5093,7 @@
       <c r="A169" s="13"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
-      <c r="D169" s="14"/>
+      <c r="D169" s="4"/>
       <c r="E169" s="15"/>
       <c r="F169" s="15"/>
       <c r="H169" s="5"/>
@@ -4805,7 +5109,7 @@
       <c r="A170" s="13"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
+      <c r="D170" s="4"/>
       <c r="E170" s="15"/>
       <c r="F170" s="15"/>
       <c r="H170" s="5"/>
@@ -4821,7 +5125,7 @@
       <c r="A171" s="13"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
+      <c r="D171" s="4"/>
       <c r="E171" s="15"/>
       <c r="F171" s="15"/>
       <c r="H171" s="5"/>
@@ -4837,7 +5141,7 @@
       <c r="A172" s="13"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
+      <c r="D172" s="4"/>
       <c r="E172" s="15"/>
       <c r="F172" s="15"/>
       <c r="H172" s="5"/>
@@ -4853,7 +5157,7 @@
       <c r="A173" s="13"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
+      <c r="D173" s="4"/>
       <c r="E173" s="15"/>
       <c r="F173" s="15"/>
       <c r="H173" s="5"/>
@@ -4869,7 +5173,7 @@
       <c r="A174" s="13"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
-      <c r="D174" s="14"/>
+      <c r="D174" s="4"/>
       <c r="E174" s="15"/>
       <c r="F174" s="15"/>
       <c r="H174" s="5"/>
@@ -4885,7 +5189,7 @@
       <c r="A175" s="13"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
-      <c r="D175" s="14"/>
+      <c r="D175" s="4"/>
       <c r="E175" s="15"/>
       <c r="F175" s="15"/>
       <c r="H175" s="5"/>
@@ -4901,7 +5205,7 @@
       <c r="A176" s="13"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
-      <c r="D176" s="14"/>
+      <c r="D176" s="4"/>
       <c r="E176" s="15"/>
       <c r="F176" s="15"/>
       <c r="H176" s="5"/>
@@ -4917,7 +5221,7 @@
       <c r="A177" s="13"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
+      <c r="D177" s="4"/>
       <c r="E177" s="15"/>
       <c r="F177" s="15"/>
       <c r="H177" s="5"/>
@@ -4933,7 +5237,7 @@
       <c r="A178" s="13"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
+      <c r="D178" s="4"/>
       <c r="E178" s="15"/>
       <c r="F178" s="15"/>
       <c r="H178" s="5"/>
@@ -4949,7 +5253,7 @@
       <c r="A179" s="13"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
-      <c r="D179" s="14"/>
+      <c r="D179" s="4"/>
       <c r="E179" s="15"/>
       <c r="F179" s="15"/>
       <c r="H179" s="5"/>
@@ -4965,7 +5269,7 @@
       <c r="A180" s="13"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
-      <c r="D180" s="14"/>
+      <c r="D180" s="4"/>
       <c r="E180" s="15"/>
       <c r="F180" s="15"/>
       <c r="H180" s="5"/>
@@ -4981,7 +5285,7 @@
       <c r="A181" s="13"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
+      <c r="D181" s="4"/>
       <c r="E181" s="15"/>
       <c r="F181" s="15"/>
       <c r="H181" s="5"/>
@@ -4997,7 +5301,7 @@
       <c r="A182" s="13"/>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
+      <c r="D182" s="4"/>
       <c r="E182" s="15"/>
       <c r="F182" s="15"/>
       <c r="H182" s="5"/>
@@ -5013,7 +5317,7 @@
       <c r="A183" s="13"/>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
+      <c r="D183" s="4"/>
       <c r="E183" s="15"/>
       <c r="F183" s="15"/>
       <c r="H183" s="5"/>
@@ -5029,7 +5333,7 @@
       <c r="A184" s="13"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
-      <c r="D184" s="14"/>
+      <c r="D184" s="4"/>
       <c r="E184" s="15"/>
       <c r="F184" s="15"/>
       <c r="H184" s="5"/>
@@ -5045,7 +5349,7 @@
       <c r="A185" s="13"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
-      <c r="D185" s="14"/>
+      <c r="D185" s="4"/>
       <c r="E185" s="15"/>
       <c r="F185" s="15"/>
       <c r="H185" s="5"/>
@@ -5061,7 +5365,7 @@
       <c r="A186" s="13"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
-      <c r="D186" s="14"/>
+      <c r="D186" s="4"/>
       <c r="E186" s="15"/>
       <c r="F186" s="15"/>
       <c r="H186" s="5"/>
@@ -5077,7 +5381,7 @@
       <c r="A187" s="13"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
-      <c r="D187" s="14"/>
+      <c r="D187" s="4"/>
       <c r="E187" s="15"/>
       <c r="F187" s="15"/>
       <c r="H187" s="5"/>
@@ -5093,7 +5397,7 @@
       <c r="A188" s="13"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
-      <c r="D188" s="14"/>
+      <c r="D188" s="4"/>
       <c r="E188" s="15"/>
       <c r="F188" s="15"/>
       <c r="H188" s="5"/>
@@ -5109,7 +5413,7 @@
       <c r="A189" s="13"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
-      <c r="D189" s="14"/>
+      <c r="D189" s="4"/>
       <c r="E189" s="15"/>
       <c r="F189" s="15"/>
       <c r="H189" s="5"/>
@@ -5125,7 +5429,7 @@
       <c r="A190" s="13"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
-      <c r="D190" s="14"/>
+      <c r="D190" s="4"/>
       <c r="E190" s="15"/>
       <c r="F190" s="15"/>
       <c r="H190" s="5"/>
@@ -5141,7 +5445,7 @@
       <c r="A191" s="13"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
-      <c r="D191" s="14"/>
+      <c r="D191" s="4"/>
       <c r="E191" s="15"/>
       <c r="F191" s="15"/>
       <c r="H191" s="5"/>
@@ -5157,7 +5461,7 @@
       <c r="A192" s="13"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
-      <c r="D192" s="14"/>
+      <c r="D192" s="4"/>
       <c r="E192" s="15"/>
       <c r="F192" s="15"/>
       <c r="H192" s="5"/>
@@ -5173,7 +5477,7 @@
       <c r="A193" s="13"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
+      <c r="D193" s="4"/>
       <c r="E193" s="15"/>
       <c r="F193" s="15"/>
       <c r="H193" s="5"/>
@@ -5189,7 +5493,7 @@
       <c r="A194" s="13"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
-      <c r="D194" s="14"/>
+      <c r="D194" s="4"/>
       <c r="E194" s="15"/>
       <c r="F194" s="15"/>
       <c r="H194" s="5"/>
@@ -5205,7 +5509,7 @@
       <c r="A195" s="13"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
-      <c r="D195" s="14"/>
+      <c r="D195" s="4"/>
       <c r="E195" s="15"/>
       <c r="F195" s="15"/>
       <c r="H195" s="5"/>
@@ -5221,7 +5525,7 @@
       <c r="A196" s="13"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
-      <c r="D196" s="14"/>
+      <c r="D196" s="4"/>
       <c r="E196" s="15"/>
       <c r="F196" s="15"/>
       <c r="H196" s="5"/>
@@ -5237,7 +5541,7 @@
       <c r="A197" s="13"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
-      <c r="D197" s="14"/>
+      <c r="D197" s="4"/>
       <c r="E197" s="15"/>
       <c r="F197" s="15"/>
       <c r="H197" s="5"/>
@@ -5253,7 +5557,7 @@
       <c r="A198" s="13"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
-      <c r="D198" s="14"/>
+      <c r="D198" s="4"/>
       <c r="E198" s="15"/>
       <c r="F198" s="15"/>
       <c r="H198" s="5"/>
@@ -5269,7 +5573,7 @@
       <c r="A199" s="13"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
-      <c r="D199" s="14"/>
+      <c r="D199" s="4"/>
       <c r="E199" s="15"/>
       <c r="F199" s="15"/>
       <c r="H199" s="5"/>
@@ -5285,7 +5589,7 @@
       <c r="A200" s="13"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
-      <c r="D200" s="14"/>
+      <c r="D200" s="4"/>
       <c r="E200" s="15"/>
       <c r="F200" s="15"/>
       <c r="H200" s="5"/>
@@ -5301,7 +5605,7 @@
       <c r="A201" s="13"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
+      <c r="D201" s="4"/>
       <c r="E201" s="15"/>
       <c r="F201" s="15"/>
       <c r="H201" s="5"/>
@@ -5317,7 +5621,7 @@
       <c r="A202" s="13"/>
       <c r="B202" s="14"/>
       <c r="C202" s="14"/>
-      <c r="D202" s="14"/>
+      <c r="D202" s="4"/>
       <c r="E202" s="15"/>
       <c r="F202" s="15"/>
       <c r="H202" s="5"/>
@@ -5333,7 +5637,7 @@
       <c r="A203" s="13"/>
       <c r="B203" s="14"/>
       <c r="C203" s="14"/>
-      <c r="D203" s="14"/>
+      <c r="D203" s="4"/>
       <c r="E203" s="15"/>
       <c r="F203" s="15"/>
       <c r="H203" s="5"/>
@@ -5349,7 +5653,7 @@
       <c r="A204" s="13"/>
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
-      <c r="D204" s="14"/>
+      <c r="D204" s="4"/>
       <c r="E204" s="15"/>
       <c r="F204" s="15"/>
       <c r="H204" s="5"/>
@@ -5365,7 +5669,7 @@
       <c r="A205" s="13"/>
       <c r="B205" s="14"/>
       <c r="C205" s="14"/>
-      <c r="D205" s="14"/>
+      <c r="D205" s="4"/>
       <c r="E205" s="15"/>
       <c r="F205" s="15"/>
       <c r="H205" s="5"/>
@@ -5381,7 +5685,7 @@
       <c r="A206" s="13"/>
       <c r="B206" s="14"/>
       <c r="C206" s="14"/>
-      <c r="D206" s="14"/>
+      <c r="D206" s="4"/>
       <c r="E206" s="15"/>
       <c r="F206" s="15"/>
       <c r="H206" s="5"/>
@@ -5397,7 +5701,7 @@
       <c r="A207" s="13"/>
       <c r="B207" s="14"/>
       <c r="C207" s="14"/>
-      <c r="D207" s="14"/>
+      <c r="D207" s="4"/>
       <c r="E207" s="15"/>
       <c r="F207" s="15"/>
       <c r="H207" s="5"/>
@@ -5413,7 +5717,7 @@
       <c r="A208" s="13"/>
       <c r="B208" s="14"/>
       <c r="C208" s="14"/>
-      <c r="D208" s="14"/>
+      <c r="D208" s="4"/>
       <c r="E208" s="15"/>
       <c r="F208" s="15"/>
       <c r="H208" s="5"/>
@@ -5429,7 +5733,7 @@
       <c r="A209" s="13"/>
       <c r="B209" s="14"/>
       <c r="C209" s="14"/>
-      <c r="D209" s="14"/>
+      <c r="D209" s="4"/>
       <c r="E209" s="15"/>
       <c r="F209" s="15"/>
       <c r="H209" s="5"/>
@@ -5445,7 +5749,7 @@
       <c r="A210" s="13"/>
       <c r="B210" s="14"/>
       <c r="C210" s="14"/>
-      <c r="D210" s="14"/>
+      <c r="D210" s="4"/>
       <c r="E210" s="15"/>
       <c r="F210" s="15"/>
       <c r="H210" s="5"/>
@@ -5461,7 +5765,7 @@
       <c r="A211" s="13"/>
       <c r="B211" s="14"/>
       <c r="C211" s="14"/>
-      <c r="D211" s="14"/>
+      <c r="D211" s="4"/>
       <c r="E211" s="15"/>
       <c r="F211" s="15"/>
       <c r="H211" s="5"/>
@@ -5477,7 +5781,7 @@
       <c r="A212" s="13"/>
       <c r="B212" s="14"/>
       <c r="C212" s="14"/>
-      <c r="D212" s="14"/>
+      <c r="D212" s="4"/>
       <c r="E212" s="15"/>
       <c r="F212" s="15"/>
       <c r="H212" s="5"/>
@@ -5493,7 +5797,7 @@
       <c r="A213" s="13"/>
       <c r="B213" s="14"/>
       <c r="C213" s="14"/>
-      <c r="D213" s="14"/>
+      <c r="D213" s="4"/>
       <c r="E213" s="15"/>
       <c r="F213" s="15"/>
       <c r="H213" s="5"/>
@@ -5509,7 +5813,7 @@
       <c r="A214" s="13"/>
       <c r="B214" s="14"/>
       <c r="C214" s="14"/>
-      <c r="D214" s="14"/>
+      <c r="D214" s="4"/>
       <c r="E214" s="15"/>
       <c r="F214" s="15"/>
       <c r="H214" s="5"/>
@@ -5525,7 +5829,7 @@
       <c r="A215" s="13"/>
       <c r="B215" s="14"/>
       <c r="C215" s="14"/>
-      <c r="D215" s="14"/>
+      <c r="D215" s="4"/>
       <c r="E215" s="15"/>
       <c r="F215" s="15"/>
       <c r="H215" s="5"/>
@@ -5541,7 +5845,7 @@
       <c r="A216" s="13"/>
       <c r="B216" s="14"/>
       <c r="C216" s="14"/>
-      <c r="D216" s="14"/>
+      <c r="D216" s="4"/>
       <c r="E216" s="15"/>
       <c r="F216" s="15"/>
       <c r="H216" s="5"/>
@@ -5557,7 +5861,7 @@
       <c r="A217" s="13"/>
       <c r="B217" s="14"/>
       <c r="C217" s="14"/>
-      <c r="D217" s="14"/>
+      <c r="D217" s="4"/>
       <c r="E217" s="15"/>
       <c r="F217" s="15"/>
       <c r="H217" s="5"/>
@@ -5573,7 +5877,7 @@
       <c r="A218" s="13"/>
       <c r="B218" s="14"/>
       <c r="C218" s="14"/>
-      <c r="D218" s="14"/>
+      <c r="D218" s="4"/>
       <c r="E218" s="15"/>
       <c r="F218" s="15"/>
       <c r="H218" s="5"/>
@@ -5589,7 +5893,7 @@
       <c r="A219" s="13"/>
       <c r="B219" s="14"/>
       <c r="C219" s="14"/>
-      <c r="D219" s="14"/>
+      <c r="D219" s="4"/>
       <c r="E219" s="15"/>
       <c r="F219" s="15"/>
       <c r="H219" s="5"/>
@@ -5605,7 +5909,7 @@
       <c r="A220" s="13"/>
       <c r="B220" s="14"/>
       <c r="C220" s="14"/>
-      <c r="D220" s="14"/>
+      <c r="D220" s="4"/>
       <c r="E220" s="15"/>
       <c r="F220" s="15"/>
       <c r="H220" s="5"/>
@@ -5621,7 +5925,7 @@
       <c r="A221" s="13"/>
       <c r="B221" s="14"/>
       <c r="C221" s="14"/>
-      <c r="D221" s="14"/>
+      <c r="D221" s="4"/>
       <c r="E221" s="15"/>
       <c r="F221" s="15"/>
       <c r="H221" s="5"/>
@@ -5637,7 +5941,7 @@
       <c r="A222" s="13"/>
       <c r="B222" s="14"/>
       <c r="C222" s="14"/>
-      <c r="D222" s="14"/>
+      <c r="D222" s="4"/>
       <c r="E222" s="15"/>
       <c r="F222" s="15"/>
       <c r="H222" s="5"/>
@@ -5653,7 +5957,7 @@
       <c r="A223" s="13"/>
       <c r="B223" s="14"/>
       <c r="C223" s="14"/>
-      <c r="D223" s="14"/>
+      <c r="D223" s="4"/>
       <c r="E223" s="15"/>
       <c r="F223" s="15"/>
       <c r="H223" s="5"/>
@@ -5669,7 +5973,7 @@
       <c r="A224" s="13"/>
       <c r="B224" s="14"/>
       <c r="C224" s="14"/>
-      <c r="D224" s="14"/>
+      <c r="D224" s="4"/>
       <c r="E224" s="15"/>
       <c r="F224" s="15"/>
       <c r="H224" s="5"/>
@@ -5685,7 +5989,7 @@
       <c r="A225" s="13"/>
       <c r="B225" s="14"/>
       <c r="C225" s="14"/>
-      <c r="D225" s="14"/>
+      <c r="D225" s="4"/>
       <c r="E225" s="15"/>
       <c r="F225" s="15"/>
       <c r="H225" s="5"/>
@@ -5701,7 +6005,7 @@
       <c r="A226" s="13"/>
       <c r="B226" s="14"/>
       <c r="C226" s="14"/>
-      <c r="D226" s="14"/>
+      <c r="D226" s="4"/>
       <c r="E226" s="15"/>
       <c r="F226" s="15"/>
       <c r="H226" s="5"/>
@@ -5717,7 +6021,7 @@
       <c r="A227" s="13"/>
       <c r="B227" s="14"/>
       <c r="C227" s="14"/>
-      <c r="D227" s="14"/>
+      <c r="D227" s="4"/>
       <c r="E227" s="15"/>
       <c r="F227" s="15"/>
       <c r="H227" s="5"/>
@@ -5733,7 +6037,7 @@
       <c r="A228" s="13"/>
       <c r="B228" s="14"/>
       <c r="C228" s="14"/>
-      <c r="D228" s="14"/>
+      <c r="D228" s="4"/>
       <c r="E228" s="15"/>
       <c r="F228" s="15"/>
       <c r="H228" s="5"/>
@@ -5749,7 +6053,7 @@
       <c r="A229" s="13"/>
       <c r="B229" s="14"/>
       <c r="C229" s="14"/>
-      <c r="D229" s="14"/>
+      <c r="D229" s="4"/>
       <c r="E229" s="15"/>
       <c r="F229" s="15"/>
       <c r="H229" s="5"/>
@@ -5765,7 +6069,7 @@
       <c r="A230" s="13"/>
       <c r="B230" s="14"/>
       <c r="C230" s="14"/>
-      <c r="D230" s="14"/>
+      <c r="D230" s="4"/>
       <c r="E230" s="15"/>
       <c r="F230" s="15"/>
       <c r="H230" s="5"/>
@@ -5781,7 +6085,7 @@
       <c r="A231" s="13"/>
       <c r="B231" s="14"/>
       <c r="C231" s="14"/>
-      <c r="D231" s="14"/>
+      <c r="D231" s="4"/>
       <c r="E231" s="15"/>
       <c r="F231" s="15"/>
       <c r="H231" s="5"/>
@@ -5797,7 +6101,7 @@
       <c r="A232" s="13"/>
       <c r="B232" s="14"/>
       <c r="C232" s="14"/>
-      <c r="D232" s="14"/>
+      <c r="D232" s="4"/>
       <c r="E232" s="15"/>
       <c r="F232" s="15"/>
       <c r="H232" s="5"/>
@@ -5813,7 +6117,7 @@
       <c r="A233" s="13"/>
       <c r="B233" s="14"/>
       <c r="C233" s="14"/>
-      <c r="D233" s="14"/>
+      <c r="D233" s="4"/>
       <c r="E233" s="15"/>
       <c r="F233" s="15"/>
       <c r="H233" s="5"/>
@@ -5829,7 +6133,7 @@
       <c r="A234" s="13"/>
       <c r="B234" s="14"/>
       <c r="C234" s="14"/>
-      <c r="D234" s="14"/>
+      <c r="D234" s="4"/>
       <c r="E234" s="15"/>
       <c r="F234" s="15"/>
       <c r="H234" s="5"/>
@@ -5845,7 +6149,7 @@
       <c r="A235" s="13"/>
       <c r="B235" s="14"/>
       <c r="C235" s="14"/>
-      <c r="D235" s="14"/>
+      <c r="D235" s="4"/>
       <c r="E235" s="15"/>
       <c r="F235" s="15"/>
       <c r="H235" s="5"/>
@@ -5861,7 +6165,7 @@
       <c r="A236" s="13"/>
       <c r="B236" s="14"/>
       <c r="C236" s="14"/>
-      <c r="D236" s="14"/>
+      <c r="D236" s="4"/>
       <c r="E236" s="15"/>
       <c r="F236" s="15"/>
       <c r="H236" s="5"/>
@@ -5877,7 +6181,7 @@
       <c r="A237" s="13"/>
       <c r="B237" s="14"/>
       <c r="C237" s="14"/>
-      <c r="D237" s="14"/>
+      <c r="D237" s="4"/>
       <c r="E237" s="15"/>
       <c r="F237" s="15"/>
       <c r="H237" s="5"/>
@@ -5893,7 +6197,7 @@
       <c r="A238" s="13"/>
       <c r="B238" s="14"/>
       <c r="C238" s="14"/>
-      <c r="D238" s="14"/>
+      <c r="D238" s="4"/>
       <c r="E238" s="15"/>
       <c r="F238" s="15"/>
       <c r="H238" s="5"/>
@@ -5909,7 +6213,7 @@
       <c r="A239" s="13"/>
       <c r="B239" s="14"/>
       <c r="C239" s="14"/>
-      <c r="D239" s="14"/>
+      <c r="D239" s="4"/>
       <c r="E239" s="15"/>
       <c r="F239" s="15"/>
       <c r="H239" s="5"/>
@@ -5925,7 +6229,7 @@
       <c r="A240" s="13"/>
       <c r="B240" s="14"/>
       <c r="C240" s="14"/>
-      <c r="D240" s="14"/>
+      <c r="D240" s="4"/>
       <c r="E240" s="15"/>
       <c r="F240" s="15"/>
       <c r="H240" s="5"/>
@@ -5941,7 +6245,7 @@
       <c r="A241" s="13"/>
       <c r="B241" s="14"/>
       <c r="C241" s="14"/>
-      <c r="D241" s="14"/>
+      <c r="D241" s="4"/>
       <c r="E241" s="15"/>
       <c r="F241" s="15"/>
       <c r="H241" s="5"/>
@@ -5957,7 +6261,7 @@
       <c r="A242" s="13"/>
       <c r="B242" s="14"/>
       <c r="C242" s="14"/>
-      <c r="D242" s="14"/>
+      <c r="D242" s="4"/>
       <c r="E242" s="15"/>
       <c r="F242" s="15"/>
       <c r="H242" s="5"/>
@@ -5973,7 +6277,7 @@
       <c r="A243" s="13"/>
       <c r="B243" s="14"/>
       <c r="C243" s="14"/>
-      <c r="D243" s="14"/>
+      <c r="D243" s="4"/>
       <c r="E243" s="15"/>
       <c r="F243" s="15"/>
       <c r="H243" s="5"/>
@@ -5989,7 +6293,7 @@
       <c r="A244" s="13"/>
       <c r="B244" s="14"/>
       <c r="C244" s="14"/>
-      <c r="D244" s="14"/>
+      <c r="D244" s="4"/>
       <c r="E244" s="15"/>
       <c r="F244" s="15"/>
       <c r="H244" s="5"/>
@@ -6005,7 +6309,7 @@
       <c r="A245" s="13"/>
       <c r="B245" s="14"/>
       <c r="C245" s="14"/>
-      <c r="D245" s="14"/>
+      <c r="D245" s="4"/>
       <c r="E245" s="15"/>
       <c r="F245" s="15"/>
       <c r="H245" s="5"/>
@@ -6021,7 +6325,7 @@
       <c r="A246" s="13"/>
       <c r="B246" s="14"/>
       <c r="C246" s="14"/>
-      <c r="D246" s="14"/>
+      <c r="D246" s="4"/>
       <c r="E246" s="15"/>
       <c r="F246" s="15"/>
       <c r="H246" s="5"/>
@@ -6037,7 +6341,7 @@
       <c r="A247" s="13"/>
       <c r="B247" s="14"/>
       <c r="C247" s="14"/>
-      <c r="D247" s="14"/>
+      <c r="D247" s="4"/>
       <c r="E247" s="15"/>
       <c r="F247" s="15"/>
       <c r="H247" s="5"/>
@@ -6053,7 +6357,7 @@
       <c r="A248" s="13"/>
       <c r="B248" s="14"/>
       <c r="C248" s="14"/>
-      <c r="D248" s="14"/>
+      <c r="D248" s="4"/>
       <c r="E248" s="15"/>
       <c r="F248" s="15"/>
       <c r="H248" s="5"/>
@@ -6069,7 +6373,7 @@
       <c r="A249" s="13"/>
       <c r="B249" s="14"/>
       <c r="C249" s="14"/>
-      <c r="D249" s="14"/>
+      <c r="D249" s="4"/>
       <c r="E249" s="15"/>
       <c r="F249" s="15"/>
       <c r="H249" s="5"/>
@@ -6085,7 +6389,7 @@
       <c r="A250" s="13"/>
       <c r="B250" s="14"/>
       <c r="C250" s="14"/>
-      <c r="D250" s="14"/>
+      <c r="D250" s="4"/>
       <c r="E250" s="15"/>
       <c r="F250" s="15"/>
       <c r="H250" s="5"/>
@@ -6101,7 +6405,7 @@
       <c r="A251" s="13"/>
       <c r="B251" s="14"/>
       <c r="C251" s="14"/>
-      <c r="D251" s="14"/>
+      <c r="D251" s="4"/>
       <c r="E251" s="15"/>
       <c r="F251" s="15"/>
       <c r="H251" s="5"/>
@@ -6117,7 +6421,7 @@
       <c r="A252" s="13"/>
       <c r="B252" s="14"/>
       <c r="C252" s="14"/>
-      <c r="D252" s="14"/>
+      <c r="D252" s="4"/>
       <c r="E252" s="15"/>
       <c r="F252" s="15"/>
       <c r="H252" s="5"/>
@@ -6133,7 +6437,7 @@
       <c r="A253" s="13"/>
       <c r="B253" s="14"/>
       <c r="C253" s="14"/>
-      <c r="D253" s="14"/>
+      <c r="D253" s="4"/>
       <c r="E253" s="15"/>
       <c r="F253" s="15"/>
       <c r="H253" s="5"/>
@@ -6149,7 +6453,7 @@
       <c r="A254" s="13"/>
       <c r="B254" s="14"/>
       <c r="C254" s="14"/>
-      <c r="D254" s="14"/>
+      <c r="D254" s="4"/>
       <c r="E254" s="15"/>
       <c r="F254" s="15"/>
       <c r="H254" s="5"/>
@@ -6165,7 +6469,7 @@
       <c r="A255" s="13"/>
       <c r="B255" s="14"/>
       <c r="C255" s="14"/>
-      <c r="D255" s="14"/>
+      <c r="D255" s="4"/>
       <c r="E255" s="15"/>
       <c r="F255" s="15"/>
       <c r="H255" s="5"/>
@@ -6181,7 +6485,7 @@
       <c r="A256" s="13"/>
       <c r="B256" s="14"/>
       <c r="C256" s="14"/>
-      <c r="D256" s="14"/>
+      <c r="D256" s="4"/>
       <c r="E256" s="15"/>
       <c r="F256" s="15"/>
       <c r="H256" s="5"/>
@@ -6197,7 +6501,7 @@
       <c r="A257" s="13"/>
       <c r="B257" s="14"/>
       <c r="C257" s="14"/>
-      <c r="D257" s="14"/>
+      <c r="D257" s="4"/>
       <c r="E257" s="15"/>
       <c r="F257" s="15"/>
       <c r="H257" s="5"/>
@@ -6213,7 +6517,7 @@
       <c r="A258" s="13"/>
       <c r="B258" s="14"/>
       <c r="C258" s="14"/>
-      <c r="D258" s="14"/>
+      <c r="D258" s="4"/>
       <c r="E258" s="15"/>
       <c r="F258" s="15"/>
       <c r="H258" s="5"/>
@@ -6229,7 +6533,7 @@
       <c r="A259" s="13"/>
       <c r="B259" s="14"/>
       <c r="C259" s="14"/>
-      <c r="D259" s="14"/>
+      <c r="D259" s="4"/>
       <c r="E259" s="15"/>
       <c r="F259" s="15"/>
       <c r="H259" s="5"/>
@@ -6245,7 +6549,7 @@
       <c r="A260" s="13"/>
       <c r="B260" s="14"/>
       <c r="C260" s="14"/>
-      <c r="D260" s="14"/>
+      <c r="D260" s="4"/>
       <c r="E260" s="15"/>
       <c r="F260" s="15"/>
       <c r="H260" s="5"/>
@@ -6261,7 +6565,7 @@
       <c r="A261" s="13"/>
       <c r="B261" s="14"/>
       <c r="C261" s="14"/>
-      <c r="D261" s="14"/>
+      <c r="D261" s="4"/>
       <c r="E261" s="15"/>
       <c r="F261" s="15"/>
       <c r="H261" s="5"/>
@@ -6277,7 +6581,7 @@
       <c r="A262" s="13"/>
       <c r="B262" s="14"/>
       <c r="C262" s="14"/>
-      <c r="D262" s="14"/>
+      <c r="D262" s="4"/>
       <c r="E262" s="15"/>
       <c r="F262" s="15"/>
       <c r="H262" s="5"/>
@@ -6293,7 +6597,7 @@
       <c r="A263" s="13"/>
       <c r="B263" s="14"/>
       <c r="C263" s="14"/>
-      <c r="D263" s="14"/>
+      <c r="D263" s="4"/>
       <c r="E263" s="15"/>
       <c r="F263" s="15"/>
       <c r="H263" s="5"/>
@@ -6309,7 +6613,7 @@
       <c r="A264" s="13"/>
       <c r="B264" s="14"/>
       <c r="C264" s="14"/>
-      <c r="D264" s="14"/>
+      <c r="D264" s="4"/>
       <c r="E264" s="15"/>
       <c r="F264" s="15"/>
       <c r="H264" s="5"/>
@@ -6325,7 +6629,7 @@
       <c r="A265" s="13"/>
       <c r="B265" s="14"/>
       <c r="C265" s="14"/>
-      <c r="D265" s="14"/>
+      <c r="D265" s="4"/>
       <c r="E265" s="15"/>
       <c r="F265" s="15"/>
       <c r="H265" s="5"/>
@@ -6341,7 +6645,7 @@
       <c r="A266" s="13"/>
       <c r="B266" s="14"/>
       <c r="C266" s="14"/>
-      <c r="D266" s="14"/>
+      <c r="D266" s="4"/>
       <c r="E266" s="15"/>
       <c r="F266" s="15"/>
       <c r="H266" s="5"/>
@@ -6357,7 +6661,7 @@
       <c r="A267" s="13"/>
       <c r="B267" s="14"/>
       <c r="C267" s="14"/>
-      <c r="D267" s="14"/>
+      <c r="D267" s="4"/>
       <c r="E267" s="15"/>
       <c r="F267" s="15"/>
       <c r="H267" s="5"/>
@@ -6373,7 +6677,7 @@
       <c r="A268" s="13"/>
       <c r="B268" s="14"/>
       <c r="C268" s="14"/>
-      <c r="D268" s="14"/>
+      <c r="D268" s="4"/>
       <c r="E268" s="15"/>
       <c r="F268" s="15"/>
       <c r="H268" s="5"/>
@@ -6389,7 +6693,7 @@
       <c r="A269" s="13"/>
       <c r="B269" s="14"/>
       <c r="C269" s="14"/>
-      <c r="D269" s="14"/>
+      <c r="D269" s="4"/>
       <c r="E269" s="15"/>
       <c r="F269" s="15"/>
       <c r="H269" s="5"/>
@@ -6405,7 +6709,7 @@
       <c r="A270" s="13"/>
       <c r="B270" s="14"/>
       <c r="C270" s="14"/>
-      <c r="D270" s="14"/>
+      <c r="D270" s="4"/>
       <c r="E270" s="15"/>
       <c r="F270" s="15"/>
       <c r="H270" s="5"/>
@@ -6421,7 +6725,7 @@
       <c r="A271" s="13"/>
       <c r="B271" s="14"/>
       <c r="C271" s="14"/>
-      <c r="D271" s="14"/>
+      <c r="D271" s="4"/>
       <c r="E271" s="15"/>
       <c r="F271" s="15"/>
       <c r="H271" s="5"/>
@@ -6437,7 +6741,7 @@
       <c r="A272" s="13"/>
       <c r="B272" s="14"/>
       <c r="C272" s="14"/>
-      <c r="D272" s="14"/>
+      <c r="D272" s="4"/>
       <c r="E272" s="15"/>
       <c r="F272" s="15"/>
       <c r="H272" s="5"/>
@@ -6453,7 +6757,7 @@
       <c r="A273" s="13"/>
       <c r="B273" s="14"/>
       <c r="C273" s="14"/>
-      <c r="D273" s="14"/>
+      <c r="D273" s="4"/>
       <c r="E273" s="15"/>
       <c r="F273" s="15"/>
       <c r="H273" s="5"/>
@@ -6469,7 +6773,7 @@
       <c r="A274" s="13"/>
       <c r="B274" s="14"/>
       <c r="C274" s="14"/>
-      <c r="D274" s="14"/>
+      <c r="D274" s="4"/>
       <c r="E274" s="15"/>
       <c r="F274" s="15"/>
       <c r="H274" s="5"/>
@@ -6485,7 +6789,7 @@
       <c r="A275" s="13"/>
       <c r="B275" s="14"/>
       <c r="C275" s="14"/>
-      <c r="D275" s="14"/>
+      <c r="D275" s="4"/>
       <c r="E275" s="15"/>
       <c r="F275" s="15"/>
       <c r="H275" s="5"/>
@@ -6501,7 +6805,7 @@
       <c r="A276" s="13"/>
       <c r="B276" s="14"/>
       <c r="C276" s="14"/>
-      <c r="D276" s="14"/>
+      <c r="D276" s="4"/>
       <c r="E276" s="15"/>
       <c r="F276" s="15"/>
       <c r="H276" s="5"/>
@@ -6517,7 +6821,7 @@
       <c r="A277" s="13"/>
       <c r="B277" s="14"/>
       <c r="C277" s="14"/>
-      <c r="D277" s="14"/>
+      <c r="D277" s="4"/>
       <c r="E277" s="15"/>
       <c r="F277" s="15"/>
       <c r="H277" s="5"/>
@@ -6533,7 +6837,7 @@
       <c r="A278" s="13"/>
       <c r="B278" s="14"/>
       <c r="C278" s="14"/>
-      <c r="D278" s="14"/>
+      <c r="D278" s="4"/>
       <c r="E278" s="15"/>
       <c r="F278" s="15"/>
       <c r="H278" s="5"/>
@@ -6549,7 +6853,7 @@
       <c r="A279" s="13"/>
       <c r="B279" s="14"/>
       <c r="C279" s="14"/>
-      <c r="D279" s="14"/>
+      <c r="D279" s="4"/>
       <c r="E279" s="15"/>
       <c r="F279" s="15"/>
       <c r="H279" s="5"/>
@@ -6565,7 +6869,7 @@
       <c r="A280" s="13"/>
       <c r="B280" s="14"/>
       <c r="C280" s="14"/>
-      <c r="D280" s="14"/>
+      <c r="D280" s="4"/>
       <c r="E280" s="15"/>
       <c r="F280" s="15"/>
       <c r="H280" s="5"/>
@@ -6581,7 +6885,7 @@
       <c r="A281" s="13"/>
       <c r="B281" s="14"/>
       <c r="C281" s="14"/>
-      <c r="D281" s="14"/>
+      <c r="D281" s="4"/>
       <c r="E281" s="15"/>
       <c r="F281" s="15"/>
       <c r="H281" s="5"/>
@@ -6597,7 +6901,7 @@
       <c r="A282" s="13"/>
       <c r="B282" s="14"/>
       <c r="C282" s="14"/>
-      <c r="D282" s="14"/>
+      <c r="D282" s="4"/>
       <c r="E282" s="15"/>
       <c r="F282" s="15"/>
       <c r="H282" s="5"/>
@@ -6613,7 +6917,7 @@
       <c r="A283" s="13"/>
       <c r="B283" s="14"/>
       <c r="C283" s="14"/>
-      <c r="D283" s="14"/>
+      <c r="D283" s="4"/>
       <c r="E283" s="15"/>
       <c r="F283" s="15"/>
       <c r="H283" s="5"/>
@@ -6629,7 +6933,7 @@
       <c r="A284" s="13"/>
       <c r="B284" s="14"/>
       <c r="C284" s="14"/>
-      <c r="D284" s="14"/>
+      <c r="D284" s="4"/>
       <c r="E284" s="15"/>
       <c r="F284" s="15"/>
       <c r="H284" s="5"/>
@@ -6645,7 +6949,7 @@
       <c r="A285" s="13"/>
       <c r="B285" s="14"/>
       <c r="C285" s="14"/>
-      <c r="D285" s="14"/>
+      <c r="D285" s="4"/>
       <c r="E285" s="15"/>
       <c r="F285" s="15"/>
       <c r="H285" s="5"/>
@@ -6661,7 +6965,7 @@
       <c r="A286" s="13"/>
       <c r="B286" s="14"/>
       <c r="C286" s="14"/>
-      <c r="D286" s="14"/>
+      <c r="D286" s="4"/>
       <c r="E286" s="15"/>
       <c r="F286" s="15"/>
       <c r="H286" s="5"/>
@@ -6677,7 +6981,7 @@
       <c r="A287" s="13"/>
       <c r="B287" s="14"/>
       <c r="C287" s="14"/>
-      <c r="D287" s="14"/>
+      <c r="D287" s="4"/>
       <c r="E287" s="15"/>
       <c r="F287" s="15"/>
       <c r="H287" s="5"/>
@@ -6693,7 +6997,7 @@
       <c r="A288" s="13"/>
       <c r="B288" s="14"/>
       <c r="C288" s="14"/>
-      <c r="D288" s="14"/>
+      <c r="D288" s="4"/>
       <c r="E288" s="15"/>
       <c r="F288" s="15"/>
       <c r="H288" s="5"/>
@@ -6709,7 +7013,7 @@
       <c r="A289" s="13"/>
       <c r="B289" s="14"/>
       <c r="C289" s="14"/>
-      <c r="D289" s="14"/>
+      <c r="D289" s="4"/>
       <c r="E289" s="15"/>
       <c r="F289" s="15"/>
       <c r="H289" s="5"/>
@@ -6725,7 +7029,7 @@
       <c r="A290" s="13"/>
       <c r="B290" s="14"/>
       <c r="C290" s="14"/>
-      <c r="D290" s="14"/>
+      <c r="D290" s="4"/>
       <c r="E290" s="15"/>
       <c r="F290" s="15"/>
       <c r="H290" s="5"/>
@@ -6741,7 +7045,7 @@
       <c r="A291" s="13"/>
       <c r="B291" s="14"/>
       <c r="C291" s="14"/>
-      <c r="D291" s="14"/>
+      <c r="D291" s="4"/>
       <c r="E291" s="15"/>
       <c r="F291" s="15"/>
       <c r="H291" s="5"/>
@@ -6757,7 +7061,7 @@
       <c r="A292" s="13"/>
       <c r="B292" s="14"/>
       <c r="C292" s="14"/>
-      <c r="D292" s="14"/>
+      <c r="D292" s="4"/>
       <c r="E292" s="15"/>
       <c r="F292" s="15"/>
       <c r="H292" s="5"/>
@@ -6773,7 +7077,7 @@
       <c r="A293" s="13"/>
       <c r="B293" s="14"/>
       <c r="C293" s="14"/>
-      <c r="D293" s="14"/>
+      <c r="D293" s="4"/>
       <c r="E293" s="15"/>
       <c r="F293" s="15"/>
       <c r="H293" s="5"/>
@@ -6789,7 +7093,7 @@
       <c r="A294" s="13"/>
       <c r="B294" s="14"/>
       <c r="C294" s="14"/>
-      <c r="D294" s="14"/>
+      <c r="D294" s="4"/>
       <c r="E294" s="15"/>
       <c r="F294" s="15"/>
       <c r="H294" s="5"/>
@@ -6805,7 +7109,7 @@
       <c r="A295" s="13"/>
       <c r="B295" s="14"/>
       <c r="C295" s="14"/>
-      <c r="D295" s="14"/>
+      <c r="D295" s="4"/>
       <c r="E295" s="15"/>
       <c r="F295" s="15"/>
       <c r="H295" s="5"/>
@@ -6821,7 +7125,7 @@
       <c r="A296" s="13"/>
       <c r="B296" s="14"/>
       <c r="C296" s="14"/>
-      <c r="D296" s="14"/>
+      <c r="D296" s="4"/>
       <c r="E296" s="15"/>
       <c r="F296" s="15"/>
       <c r="H296" s="5"/>
@@ -6837,7 +7141,7 @@
       <c r="A297" s="13"/>
       <c r="B297" s="14"/>
       <c r="C297" s="14"/>
-      <c r="D297" s="14"/>
+      <c r="D297" s="4"/>
       <c r="E297" s="15"/>
       <c r="F297" s="15"/>
       <c r="H297" s="5"/>
@@ -6853,7 +7157,7 @@
       <c r="A298" s="13"/>
       <c r="B298" s="14"/>
       <c r="C298" s="14"/>
-      <c r="D298" s="14"/>
+      <c r="D298" s="4"/>
       <c r="E298" s="15"/>
       <c r="F298" s="15"/>
       <c r="H298" s="5"/>
@@ -6869,7 +7173,7 @@
       <c r="A299" s="13"/>
       <c r="B299" s="14"/>
       <c r="C299" s="14"/>
-      <c r="D299" s="14"/>
+      <c r="D299" s="4"/>
       <c r="E299" s="15"/>
       <c r="F299" s="15"/>
       <c r="H299" s="5"/>
@@ -6885,7 +7189,7 @@
       <c r="A300" s="13"/>
       <c r="B300" s="14"/>
       <c r="C300" s="14"/>
-      <c r="D300" s="14"/>
+      <c r="D300" s="4"/>
       <c r="E300" s="15"/>
       <c r="F300" s="15"/>
       <c r="H300" s="5"/>
@@ -6901,7 +7205,7 @@
       <c r="A301" s="13"/>
       <c r="B301" s="14"/>
       <c r="C301" s="14"/>
-      <c r="D301" s="14"/>
+      <c r="D301" s="4"/>
       <c r="E301" s="15"/>
       <c r="F301" s="15"/>
       <c r="H301" s="5"/>
@@ -6917,7 +7221,7 @@
       <c r="A302" s="13"/>
       <c r="B302" s="14"/>
       <c r="C302" s="14"/>
-      <c r="D302" s="14"/>
+      <c r="D302" s="4"/>
       <c r="E302" s="15"/>
       <c r="F302" s="15"/>
       <c r="H302" s="5"/>
@@ -6933,7 +7237,7 @@
       <c r="A303" s="13"/>
       <c r="B303" s="14"/>
       <c r="C303" s="14"/>
-      <c r="D303" s="14"/>
+      <c r="D303" s="4"/>
       <c r="E303" s="15"/>
       <c r="F303" s="15"/>
       <c r="H303" s="5"/>
@@ -6949,7 +7253,7 @@
       <c r="A304" s="13"/>
       <c r="B304" s="14"/>
       <c r="C304" s="14"/>
-      <c r="D304" s="14"/>
+      <c r="D304" s="4"/>
       <c r="E304" s="15"/>
       <c r="F304" s="15"/>
       <c r="H304" s="5"/>
@@ -6965,7 +7269,7 @@
       <c r="A305" s="13"/>
       <c r="B305" s="14"/>
       <c r="C305" s="14"/>
-      <c r="D305" s="14"/>
+      <c r="D305" s="4"/>
       <c r="E305" s="15"/>
       <c r="F305" s="15"/>
       <c r="H305" s="5"/>
@@ -6981,7 +7285,7 @@
       <c r="A306" s="13"/>
       <c r="B306" s="14"/>
       <c r="C306" s="14"/>
-      <c r="D306" s="14"/>
+      <c r="D306" s="4"/>
       <c r="E306" s="15"/>
       <c r="F306" s="15"/>
       <c r="H306" s="5"/>
@@ -6997,7 +7301,7 @@
       <c r="A307" s="13"/>
       <c r="B307" s="14"/>
       <c r="C307" s="14"/>
-      <c r="D307" s="14"/>
+      <c r="D307" s="4"/>
       <c r="E307" s="15"/>
       <c r="F307" s="15"/>
       <c r="H307" s="5"/>
@@ -7013,7 +7317,7 @@
       <c r="A308" s="13"/>
       <c r="B308" s="14"/>
       <c r="C308" s="14"/>
-      <c r="D308" s="14"/>
+      <c r="D308" s="4"/>
       <c r="E308" s="15"/>
       <c r="F308" s="15"/>
       <c r="H308" s="5"/>
@@ -7029,7 +7333,7 @@
       <c r="A309" s="13"/>
       <c r="B309" s="14"/>
       <c r="C309" s="14"/>
-      <c r="D309" s="14"/>
+      <c r="D309" s="4"/>
       <c r="E309" s="15"/>
       <c r="F309" s="15"/>
       <c r="H309" s="5"/>
@@ -7045,7 +7349,7 @@
       <c r="A310" s="13"/>
       <c r="B310" s="14"/>
       <c r="C310" s="14"/>
-      <c r="D310" s="14"/>
+      <c r="D310" s="4"/>
       <c r="E310" s="15"/>
       <c r="F310" s="15"/>
       <c r="H310" s="5"/>
@@ -7061,7 +7365,7 @@
       <c r="A311" s="13"/>
       <c r="B311" s="14"/>
       <c r="C311" s="14"/>
-      <c r="D311" s="14"/>
+      <c r="D311" s="4"/>
       <c r="E311" s="15"/>
       <c r="F311" s="15"/>
       <c r="H311" s="5"/>
@@ -7077,7 +7381,7 @@
       <c r="A312" s="13"/>
       <c r="B312" s="14"/>
       <c r="C312" s="14"/>
-      <c r="D312" s="14"/>
+      <c r="D312" s="4"/>
       <c r="E312" s="15"/>
       <c r="F312" s="15"/>
       <c r="H312" s="5"/>
@@ -7093,7 +7397,7 @@
       <c r="A313" s="13"/>
       <c r="B313" s="14"/>
       <c r="C313" s="14"/>
-      <c r="D313" s="14"/>
+      <c r="D313" s="4"/>
       <c r="E313" s="15"/>
       <c r="F313" s="15"/>
       <c r="H313" s="5"/>
@@ -7109,7 +7413,7 @@
       <c r="A314" s="13"/>
       <c r="B314" s="14"/>
       <c r="C314" s="14"/>
-      <c r="D314" s="14"/>
+      <c r="D314" s="4"/>
       <c r="E314" s="15"/>
       <c r="F314" s="15"/>
       <c r="H314" s="5"/>
@@ -7125,7 +7429,7 @@
       <c r="A315" s="13"/>
       <c r="B315" s="14"/>
       <c r="C315" s="14"/>
-      <c r="D315" s="14"/>
+      <c r="D315" s="4"/>
       <c r="E315" s="15"/>
       <c r="F315" s="15"/>
       <c r="H315" s="5"/>
@@ -7141,7 +7445,7 @@
       <c r="A316" s="13"/>
       <c r="B316" s="14"/>
       <c r="C316" s="14"/>
-      <c r="D316" s="14"/>
+      <c r="D316" s="4"/>
       <c r="E316" s="15"/>
       <c r="F316" s="15"/>
       <c r="H316" s="5"/>
@@ -7157,7 +7461,7 @@
       <c r="A317" s="13"/>
       <c r="B317" s="14"/>
       <c r="C317" s="14"/>
-      <c r="D317" s="14"/>
+      <c r="D317" s="4"/>
       <c r="E317" s="15"/>
       <c r="F317" s="15"/>
       <c r="H317" s="5"/>
@@ -7173,7 +7477,7 @@
       <c r="A318" s="13"/>
       <c r="B318" s="14"/>
       <c r="C318" s="14"/>
-      <c r="D318" s="14"/>
+      <c r="D318" s="4"/>
       <c r="E318" s="15"/>
       <c r="F318" s="15"/>
       <c r="H318" s="5"/>
@@ -7189,7 +7493,7 @@
       <c r="A319" s="13"/>
       <c r="B319" s="14"/>
       <c r="C319" s="14"/>
-      <c r="D319" s="14"/>
+      <c r="D319" s="4"/>
       <c r="E319" s="15"/>
       <c r="F319" s="15"/>
       <c r="H319" s="5"/>
@@ -7205,7 +7509,7 @@
       <c r="A320" s="13"/>
       <c r="B320" s="14"/>
       <c r="C320" s="14"/>
-      <c r="D320" s="14"/>
+      <c r="D320" s="4"/>
       <c r="E320" s="15"/>
       <c r="F320" s="15"/>
       <c r="H320" s="5"/>
@@ -7221,7 +7525,7 @@
       <c r="A321" s="13"/>
       <c r="B321" s="14"/>
       <c r="C321" s="14"/>
-      <c r="D321" s="14"/>
+      <c r="D321" s="4"/>
       <c r="E321" s="15"/>
       <c r="F321" s="15"/>
       <c r="H321" s="5"/>
@@ -7237,7 +7541,7 @@
       <c r="A322" s="13"/>
       <c r="B322" s="14"/>
       <c r="C322" s="14"/>
-      <c r="D322" s="14"/>
+      <c r="D322" s="4"/>
       <c r="E322" s="15"/>
       <c r="F322" s="15"/>
       <c r="H322" s="5"/>
@@ -7253,7 +7557,7 @@
       <c r="A323" s="13"/>
       <c r="B323" s="14"/>
       <c r="C323" s="14"/>
-      <c r="D323" s="14"/>
+      <c r="D323" s="4"/>
       <c r="E323" s="15"/>
       <c r="F323" s="15"/>
       <c r="H323" s="5"/>
@@ -7269,7 +7573,7 @@
       <c r="A324" s="13"/>
       <c r="B324" s="14"/>
       <c r="C324" s="14"/>
-      <c r="D324" s="14"/>
+      <c r="D324" s="4"/>
       <c r="E324" s="15"/>
       <c r="F324" s="15"/>
       <c r="H324" s="5"/>
@@ -7285,7 +7589,7 @@
       <c r="A325" s="13"/>
       <c r="B325" s="14"/>
       <c r="C325" s="14"/>
-      <c r="D325" s="14"/>
+      <c r="D325" s="4"/>
       <c r="E325" s="15"/>
       <c r="F325" s="15"/>
       <c r="H325" s="5"/>
@@ -7301,7 +7605,7 @@
       <c r="A326" s="13"/>
       <c r="B326" s="14"/>
       <c r="C326" s="14"/>
-      <c r="D326" s="14"/>
+      <c r="D326" s="4"/>
       <c r="E326" s="15"/>
       <c r="F326" s="15"/>
       <c r="H326" s="5"/>
@@ -7317,7 +7621,7 @@
       <c r="A327" s="13"/>
       <c r="B327" s="14"/>
       <c r="C327" s="14"/>
-      <c r="D327" s="14"/>
+      <c r="D327" s="4"/>
       <c r="E327" s="15"/>
       <c r="F327" s="15"/>
       <c r="H327" s="5"/>
@@ -7333,7 +7637,7 @@
       <c r="A328" s="13"/>
       <c r="B328" s="14"/>
       <c r="C328" s="14"/>
-      <c r="D328" s="14"/>
+      <c r="D328" s="4"/>
       <c r="E328" s="15"/>
       <c r="F328" s="15"/>
       <c r="H328" s="5"/>
@@ -7349,7 +7653,7 @@
       <c r="A329" s="13"/>
       <c r="B329" s="14"/>
       <c r="C329" s="14"/>
-      <c r="D329" s="14"/>
+      <c r="D329" s="4"/>
       <c r="E329" s="15"/>
       <c r="F329" s="15"/>
       <c r="H329" s="5"/>
@@ -7365,7 +7669,7 @@
       <c r="A330" s="13"/>
       <c r="B330" s="14"/>
       <c r="C330" s="14"/>
-      <c r="D330" s="14"/>
+      <c r="D330" s="4"/>
       <c r="E330" s="15"/>
       <c r="F330" s="15"/>
       <c r="H330" s="5"/>
@@ -7381,7 +7685,7 @@
       <c r="A331" s="13"/>
       <c r="B331" s="14"/>
       <c r="C331" s="14"/>
-      <c r="D331" s="14"/>
+      <c r="D331" s="4"/>
       <c r="E331" s="15"/>
       <c r="F331" s="15"/>
       <c r="H331" s="5"/>
@@ -7397,7 +7701,7 @@
       <c r="A332" s="13"/>
       <c r="B332" s="14"/>
       <c r="C332" s="14"/>
-      <c r="D332" s="14"/>
+      <c r="D332" s="4"/>
       <c r="E332" s="15"/>
       <c r="F332" s="15"/>
       <c r="H332" s="5"/>
@@ -7413,7 +7717,7 @@
       <c r="A333" s="13"/>
       <c r="B333" s="14"/>
       <c r="C333" s="14"/>
-      <c r="D333" s="14"/>
+      <c r="D333" s="4"/>
       <c r="E333" s="15"/>
       <c r="F333" s="15"/>
       <c r="H333" s="5"/>
@@ -7429,7 +7733,7 @@
       <c r="A334" s="13"/>
       <c r="B334" s="14"/>
       <c r="C334" s="14"/>
-      <c r="D334" s="14"/>
+      <c r="D334" s="4"/>
       <c r="E334" s="15"/>
       <c r="F334" s="15"/>
       <c r="H334" s="5"/>
@@ -7445,7 +7749,7 @@
       <c r="A335" s="13"/>
       <c r="B335" s="14"/>
       <c r="C335" s="14"/>
-      <c r="D335" s="14"/>
+      <c r="D335" s="4"/>
       <c r="E335" s="15"/>
       <c r="F335" s="15"/>
       <c r="H335" s="5"/>
@@ -7461,7 +7765,7 @@
       <c r="A336" s="13"/>
       <c r="B336" s="14"/>
       <c r="C336" s="14"/>
-      <c r="D336" s="14"/>
+      <c r="D336" s="4"/>
       <c r="E336" s="15"/>
       <c r="F336" s="15"/>
       <c r="H336" s="5"/>
@@ -7477,7 +7781,7 @@
       <c r="A337" s="13"/>
       <c r="B337" s="14"/>
       <c r="C337" s="14"/>
-      <c r="D337" s="14"/>
+      <c r="D337" s="4"/>
       <c r="E337" s="15"/>
       <c r="F337" s="15"/>
       <c r="H337" s="5"/>
@@ -7493,7 +7797,7 @@
       <c r="A338" s="13"/>
       <c r="B338" s="14"/>
       <c r="C338" s="14"/>
-      <c r="D338" s="14"/>
+      <c r="D338" s="4"/>
       <c r="E338" s="15"/>
       <c r="F338" s="15"/>
       <c r="H338" s="5"/>
@@ -7509,7 +7813,7 @@
       <c r="A339" s="13"/>
       <c r="B339" s="14"/>
       <c r="C339" s="14"/>
-      <c r="D339" s="14"/>
+      <c r="D339" s="4"/>
       <c r="E339" s="15"/>
       <c r="F339" s="15"/>
       <c r="H339" s="5"/>
@@ -7525,7 +7829,7 @@
       <c r="A340" s="13"/>
       <c r="B340" s="14"/>
       <c r="C340" s="14"/>
-      <c r="D340" s="14"/>
+      <c r="D340" s="4"/>
       <c r="E340" s="15"/>
       <c r="F340" s="15"/>
       <c r="H340" s="5"/>
@@ -7541,7 +7845,7 @@
       <c r="A341" s="13"/>
       <c r="B341" s="14"/>
       <c r="C341" s="14"/>
-      <c r="D341" s="14"/>
+      <c r="D341" s="4"/>
       <c r="E341" s="15"/>
       <c r="F341" s="15"/>
       <c r="H341" s="5"/>
@@ -7557,7 +7861,7 @@
       <c r="A342" s="13"/>
       <c r="B342" s="14"/>
       <c r="C342" s="14"/>
-      <c r="D342" s="14"/>
+      <c r="D342" s="4"/>
       <c r="E342" s="15"/>
       <c r="F342" s="15"/>
       <c r="H342" s="5"/>
@@ -7573,7 +7877,7 @@
       <c r="A343" s="13"/>
       <c r="B343" s="14"/>
       <c r="C343" s="14"/>
-      <c r="D343" s="14"/>
+      <c r="D343" s="4"/>
       <c r="E343" s="15"/>
       <c r="F343" s="15"/>
       <c r="H343" s="5"/>
@@ -7589,7 +7893,7 @@
       <c r="A344" s="13"/>
       <c r="B344" s="14"/>
       <c r="C344" s="14"/>
-      <c r="D344" s="14"/>
+      <c r="D344" s="4"/>
       <c r="E344" s="15"/>
       <c r="F344" s="15"/>
       <c r="H344" s="5"/>
@@ -7605,7 +7909,7 @@
       <c r="A345" s="13"/>
       <c r="B345" s="14"/>
       <c r="C345" s="14"/>
-      <c r="D345" s="14"/>
+      <c r="D345" s="4"/>
       <c r="E345" s="15"/>
       <c r="F345" s="15"/>
       <c r="H345" s="5"/>
@@ -7621,7 +7925,7 @@
       <c r="A346" s="13"/>
       <c r="B346" s="14"/>
       <c r="C346" s="14"/>
-      <c r="D346" s="14"/>
+      <c r="D346" s="4"/>
       <c r="E346" s="15"/>
       <c r="F346" s="15"/>
       <c r="H346" s="5"/>
@@ -7637,7 +7941,7 @@
       <c r="A347" s="13"/>
       <c r="B347" s="14"/>
       <c r="C347" s="14"/>
-      <c r="D347" s="14"/>
+      <c r="D347" s="4"/>
       <c r="E347" s="15"/>
       <c r="F347" s="15"/>
       <c r="H347" s="5"/>
@@ -7653,7 +7957,7 @@
       <c r="A348" s="13"/>
       <c r="B348" s="14"/>
       <c r="C348" s="14"/>
-      <c r="D348" s="14"/>
+      <c r="D348" s="4"/>
       <c r="E348" s="15"/>
       <c r="F348" s="15"/>
       <c r="H348" s="5"/>
@@ -7669,7 +7973,7 @@
       <c r="A349" s="13"/>
       <c r="B349" s="14"/>
       <c r="C349" s="14"/>
-      <c r="D349" s="14"/>
+      <c r="D349" s="4"/>
       <c r="E349" s="15"/>
       <c r="F349" s="15"/>
       <c r="H349" s="5"/>
@@ -7685,7 +7989,7 @@
       <c r="A350" s="13"/>
       <c r="B350" s="14"/>
       <c r="C350" s="14"/>
-      <c r="D350" s="14"/>
+      <c r="D350" s="4"/>
       <c r="E350" s="15"/>
       <c r="F350" s="15"/>
       <c r="H350" s="5"/>
@@ -7701,7 +8005,7 @@
       <c r="A351" s="13"/>
       <c r="B351" s="14"/>
       <c r="C351" s="14"/>
-      <c r="D351" s="14"/>
+      <c r="D351" s="4"/>
       <c r="E351" s="15"/>
       <c r="F351" s="15"/>
       <c r="H351" s="5"/>
@@ -7713,6 +8017,134 @@
       <c r="Q351" s="18"/>
       <c r="R351" s="18"/>
     </row>
+    <row r="352" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A352" s="13"/>
+      <c r="B352" s="14"/>
+      <c r="C352" s="14"/>
+      <c r="D352" s="4"/>
+      <c r="E352" s="15"/>
+      <c r="F352" s="15"/>
+      <c r="H352" s="5"/>
+      <c r="I352" s="18"/>
+      <c r="J352" s="18"/>
+      <c r="K352" s="18"/>
+      <c r="O352" s="18"/>
+      <c r="P352" s="18"/>
+      <c r="Q352" s="18"/>
+      <c r="R352" s="18"/>
+    </row>
+    <row r="353" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A353" s="13"/>
+      <c r="B353" s="14"/>
+      <c r="C353" s="14"/>
+      <c r="D353" s="4"/>
+      <c r="E353" s="15"/>
+      <c r="F353" s="15"/>
+      <c r="H353" s="5"/>
+      <c r="I353" s="18"/>
+      <c r="J353" s="18"/>
+      <c r="K353" s="18"/>
+      <c r="O353" s="18"/>
+      <c r="P353" s="18"/>
+      <c r="Q353" s="18"/>
+      <c r="R353" s="18"/>
+    </row>
+    <row r="354" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A354" s="13"/>
+      <c r="B354" s="14"/>
+      <c r="C354" s="14"/>
+      <c r="D354" s="4"/>
+      <c r="E354" s="15"/>
+      <c r="F354" s="15"/>
+      <c r="H354" s="5"/>
+      <c r="I354" s="18"/>
+      <c r="J354" s="18"/>
+      <c r="K354" s="18"/>
+      <c r="O354" s="18"/>
+      <c r="P354" s="18"/>
+      <c r="Q354" s="18"/>
+      <c r="R354" s="18"/>
+    </row>
+    <row r="355" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A355" s="13"/>
+      <c r="B355" s="14"/>
+      <c r="C355" s="14"/>
+      <c r="D355" s="4"/>
+      <c r="E355" s="15"/>
+      <c r="F355" s="15"/>
+      <c r="H355" s="5"/>
+      <c r="I355" s="18"/>
+      <c r="J355" s="18"/>
+      <c r="K355" s="18"/>
+      <c r="O355" s="18"/>
+      <c r="P355" s="18"/>
+      <c r="Q355" s="18"/>
+      <c r="R355" s="18"/>
+    </row>
+    <row r="356" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A356" s="13"/>
+      <c r="B356" s="14"/>
+      <c r="C356" s="14"/>
+      <c r="D356" s="4"/>
+      <c r="E356" s="15"/>
+      <c r="F356" s="15"/>
+      <c r="H356" s="5"/>
+      <c r="I356" s="18"/>
+      <c r="J356" s="18"/>
+      <c r="K356" s="18"/>
+      <c r="O356" s="18"/>
+      <c r="P356" s="18"/>
+      <c r="Q356" s="18"/>
+      <c r="R356" s="18"/>
+    </row>
+    <row r="357" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A357" s="13"/>
+      <c r="B357" s="14"/>
+      <c r="C357" s="14"/>
+      <c r="D357" s="4"/>
+      <c r="E357" s="15"/>
+      <c r="F357" s="15"/>
+      <c r="H357" s="5"/>
+      <c r="I357" s="18"/>
+      <c r="J357" s="18"/>
+      <c r="K357" s="18"/>
+      <c r="O357" s="18"/>
+      <c r="P357" s="18"/>
+      <c r="Q357" s="18"/>
+      <c r="R357" s="18"/>
+    </row>
+    <row r="358" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A358" s="13"/>
+      <c r="B358" s="14"/>
+      <c r="C358" s="14"/>
+      <c r="D358" s="4"/>
+      <c r="E358" s="15"/>
+      <c r="F358" s="15"/>
+      <c r="H358" s="5"/>
+      <c r="I358" s="18"/>
+      <c r="J358" s="18"/>
+      <c r="K358" s="18"/>
+      <c r="O358" s="18"/>
+      <c r="P358" s="18"/>
+      <c r="Q358" s="18"/>
+      <c r="R358" s="18"/>
+    </row>
+    <row r="359" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A359" s="13"/>
+      <c r="B359" s="14"/>
+      <c r="C359" s="14"/>
+      <c r="D359" s="4"/>
+      <c r="E359" s="15"/>
+      <c r="F359" s="15"/>
+      <c r="H359" s="5"/>
+      <c r="I359" s="18"/>
+      <c r="J359" s="18"/>
+      <c r="K359" s="18"/>
+      <c r="O359" s="18"/>
+      <c r="P359" s="18"/>
+      <c r="Q359" s="18"/>
+      <c r="R359" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
